--- a/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{905B0205-8FA7-4F91-A0A1-2A9D307D824B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5BDA5AF-0A8A-4FC7-B994-894366AC6DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{73D41629-CB0E-4298-ADDC-77EB771046F0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{4D540EDF-9180-41EB-A8D5-E28252896BFA}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="185">
   <si>
     <t>process</t>
   </si>
@@ -466,6 +466,9 @@
     <t>Beznau nuclear power plant_2</t>
   </si>
   <si>
+    <t>annual</t>
+  </si>
+  <si>
     <t>~fi_t</t>
   </si>
   <si>
@@ -541,7 +544,7 @@
     <t>Gas turbine</t>
   </si>
   <si>
-    <t>Geothermal</t>
+    <t>Geothermal plant</t>
   </si>
   <si>
     <t>geothermal</t>
@@ -559,7 +562,10 @@
     <t>IGCC + CCS</t>
   </si>
   <si>
-    <t>Marine</t>
+    <t>Marine power</t>
+  </si>
+  <si>
+    <t>unknown</t>
   </si>
   <si>
     <t>Nuclear large</t>
@@ -957,7 +963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D828F7-4E85-498D-93AC-98674AE534AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610C8890-9AB3-47A3-A600-F807220C4A47}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -966,10 +972,10 @@
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
@@ -992,7 +998,7 @@
         <v>2050</v>
       </c>
       <c r="G3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J3" t="s">
         <v>77</v>
@@ -1018,10 +1024,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1042,7 +1048,7 @@
         <v>83</v>
       </c>
       <c r="K4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M4" t="s">
         <v>85</v>
@@ -1059,10 +1065,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1077,13 +1083,13 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J5" t="s">
         <v>83</v>
       </c>
       <c r="K5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M5" t="s">
         <v>85</v>
@@ -1100,10 +1106,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -1124,7 +1130,7 @@
         <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M6" t="s">
         <v>85</v>
@@ -1141,10 +1147,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -1165,7 +1171,7 @@
         <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M7" t="s">
         <v>85</v>
@@ -1182,10 +1188,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -1200,13 +1206,13 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J8" t="s">
         <v>83</v>
       </c>
       <c r="K8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M8" t="s">
         <v>85</v>
@@ -1223,10 +1229,10 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -1247,7 +1253,7 @@
         <v>83</v>
       </c>
       <c r="K9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M9" t="s">
         <v>85</v>
@@ -1264,10 +1270,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -1282,13 +1288,13 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J10" t="s">
         <v>83</v>
       </c>
       <c r="K10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M10" t="s">
         <v>85</v>
@@ -1305,10 +1311,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -1329,7 +1335,7 @@
         <v>83</v>
       </c>
       <c r="K11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M11" t="s">
         <v>85</v>
@@ -1346,10 +1352,10 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -1370,7 +1376,7 @@
         <v>83</v>
       </c>
       <c r="K12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M12" t="s">
         <v>85</v>
@@ -1387,10 +1393,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -1405,13 +1411,13 @@
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J13" t="s">
         <v>83</v>
       </c>
       <c r="K13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s">
         <v>85</v>
@@ -1428,10 +1434,10 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -1452,7 +1458,7 @@
         <v>83</v>
       </c>
       <c r="K14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s">
         <v>85</v>
@@ -1469,10 +1475,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -1487,13 +1493,13 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J15" t="s">
         <v>83</v>
       </c>
       <c r="K15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M15" t="s">
         <v>85</v>
@@ -1510,10 +1516,10 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -1534,7 +1540,7 @@
         <v>83</v>
       </c>
       <c r="K16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M16" t="s">
         <v>85</v>
@@ -1551,10 +1557,10 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -1575,7 +1581,7 @@
         <v>83</v>
       </c>
       <c r="K17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M17" t="s">
         <v>85</v>
@@ -1592,10 +1598,10 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
@@ -1610,13 +1616,13 @@
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J18" t="s">
         <v>83</v>
       </c>
       <c r="K18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M18" t="s">
         <v>85</v>
@@ -1633,10 +1639,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
@@ -1657,7 +1663,7 @@
         <v>83</v>
       </c>
       <c r="K19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M19" t="s">
         <v>85</v>
@@ -1674,10 +1680,10 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
@@ -1692,13 +1698,13 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="G20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J20" t="s">
         <v>83</v>
       </c>
       <c r="K20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M20" t="s">
         <v>85</v>
@@ -1715,10 +1721,10 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
@@ -1739,7 +1745,7 @@
         <v>83</v>
       </c>
       <c r="K21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M21" t="s">
         <v>85</v>
@@ -1756,10 +1762,10 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
@@ -1780,7 +1786,7 @@
         <v>83</v>
       </c>
       <c r="K22" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M22" t="s">
         <v>85</v>
@@ -1797,10 +1803,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
@@ -1815,13 +1821,13 @@
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J23" t="s">
         <v>83</v>
       </c>
       <c r="K23" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M23" t="s">
         <v>85</v>
@@ -1838,7 +1844,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -1862,7 +1868,7 @@
         <v>83</v>
       </c>
       <c r="K24" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M24" t="s">
         <v>85</v>
@@ -1879,7 +1885,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -1903,7 +1909,7 @@
         <v>83</v>
       </c>
       <c r="K25" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M25" t="s">
         <v>85</v>
@@ -1920,7 +1926,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
@@ -1944,7 +1950,7 @@
         <v>83</v>
       </c>
       <c r="K26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M26" t="s">
         <v>85</v>
@@ -1961,7 +1967,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -1985,7 +1991,7 @@
         <v>83</v>
       </c>
       <c r="K27" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M27" t="s">
         <v>85</v>
@@ -2002,7 +2008,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -2026,7 +2032,7 @@
         <v>83</v>
       </c>
       <c r="K28" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M28" t="s">
         <v>85</v>
@@ -2043,7 +2049,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -2067,7 +2073,7 @@
         <v>83</v>
       </c>
       <c r="K29" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M29" t="s">
         <v>85</v>
@@ -2084,7 +2090,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -2107,7 +2113,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -2130,7 +2136,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -2153,10 +2159,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B33" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C33" t="s">
         <v>12</v>
@@ -2176,10 +2182,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B34" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
@@ -2199,10 +2205,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B35" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
@@ -2222,7 +2228,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B36" t="s">
         <v>71</v>
@@ -2245,7 +2251,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B37" t="s">
         <v>71</v>
@@ -2263,12 +2269,12 @@
         <v>0.42</v>
       </c>
       <c r="G37" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B38" t="s">
         <v>71</v>
@@ -2291,7 +2297,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B39" t="s">
         <v>71</v>
@@ -2314,7 +2320,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B40" t="s">
         <v>71</v>
@@ -2332,15 +2338,15 @@
         <v>3</v>
       </c>
       <c r="G40" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
@@ -2360,10 +2366,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
@@ -2383,10 +2389,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B43" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
@@ -2406,7 +2412,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
@@ -2429,7 +2435,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
@@ -2452,7 +2458,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
@@ -2475,10 +2481,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
@@ -2498,10 +2504,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B48" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
@@ -2516,15 +2522,15 @@
         <v>0.85000000000000009</v>
       </c>
       <c r="G48" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B49" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C49" t="s">
         <v>12</v>
@@ -2544,10 +2550,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B50" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
@@ -2567,10 +2573,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B51" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C51" t="s">
         <v>12</v>
@@ -2585,12 +2591,12 @@
         <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
@@ -2613,7 +2619,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
@@ -2631,12 +2637,12 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="G53" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
@@ -2659,7 +2665,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
@@ -2682,7 +2688,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
@@ -2700,12 +2706,12 @@
         <v>4</v>
       </c>
       <c r="G56" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B57" t="s">
         <v>15</v>
@@ -2728,7 +2734,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B58" t="s">
         <v>15</v>
@@ -2746,12 +2752,12 @@
         <v>0.25</v>
       </c>
       <c r="G58" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B59" t="s">
         <v>15</v>
@@ -2774,7 +2780,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
@@ -2797,7 +2803,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B61" t="s">
         <v>15</v>
@@ -2815,12 +2821,12 @@
         <v>4</v>
       </c>
       <c r="G61" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B62" t="s">
         <v>11</v>
@@ -2843,7 +2849,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B63" t="s">
         <v>11</v>
@@ -2866,7 +2872,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B64" t="s">
         <v>11</v>
@@ -2889,10 +2895,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B65" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C65" t="s">
         <v>12</v>
@@ -2912,10 +2918,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B66" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C66" t="s">
         <v>12</v>
@@ -2935,10 +2941,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B67" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C67" t="s">
         <v>12</v>
@@ -2958,10 +2964,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
@@ -2981,10 +2987,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="C69" t="s">
         <v>12</v>
@@ -2999,15 +3005,15 @@
         <v>0.25</v>
       </c>
       <c r="G69" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="C70" t="s">
         <v>12</v>
@@ -3027,10 +3033,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="C71" t="s">
         <v>12</v>
@@ -3050,10 +3056,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="C72" t="s">
         <v>12</v>
@@ -3068,12 +3074,12 @@
         <v>4</v>
       </c>
       <c r="G72" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B73" t="s">
         <v>66</v>
@@ -3096,7 +3102,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B74" t="s">
         <v>66</v>
@@ -3119,7 +3125,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B75" t="s">
         <v>66</v>
@@ -3142,10 +3148,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B76" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C76" t="s">
         <v>12</v>
@@ -3165,10 +3171,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B77" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C77" t="s">
         <v>12</v>
@@ -3188,10 +3194,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B78" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C78" t="s">
         <v>12</v>
@@ -3211,7 +3217,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B79" t="s">
         <v>71</v>
@@ -3234,7 +3240,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B80" t="s">
         <v>71</v>
@@ -3252,12 +3258,12 @@
         <v>0.13</v>
       </c>
       <c r="G80" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B81" t="s">
         <v>71</v>
@@ -3280,7 +3286,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B82" t="s">
         <v>71</v>
@@ -3303,7 +3309,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B83" t="s">
         <v>71</v>
@@ -3321,12 +3327,12 @@
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B84" t="s">
         <v>71</v>
@@ -3349,7 +3355,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B85" t="s">
         <v>71</v>
@@ -3367,12 +3373,12 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G85" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B86" t="s">
         <v>71</v>
@@ -3395,7 +3401,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B87" t="s">
         <v>71</v>
@@ -3418,7 +3424,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B88" t="s">
         <v>71</v>
@@ -3436,15 +3442,15 @@
         <v>1.5</v>
       </c>
       <c r="G88" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B89" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C89" t="s">
         <v>12</v>
@@ -3464,10 +3470,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B90" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C90" t="s">
         <v>12</v>
@@ -3487,10 +3493,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B91" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C91" t="s">
         <v>12</v>
@@ -3510,10 +3516,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B92" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C92" t="s">
         <v>12</v>
@@ -3533,10 +3539,10 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B93" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C93" t="s">
         <v>12</v>
@@ -3556,10 +3562,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B94" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C94" t="s">
         <v>12</v>
@@ -3579,10 +3585,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B95" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C95" t="s">
         <v>12</v>
@@ -3602,10 +3608,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B96" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C96" t="s">
         <v>12</v>
@@ -3625,10 +3631,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B97" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C97" t="s">
         <v>12</v>
@@ -3648,7 +3654,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B98" t="s">
         <v>75</v>
@@ -3671,7 +3677,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B99" t="s">
         <v>75</v>
@@ -3689,12 +3695,12 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G99" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B100" t="s">
         <v>75</v>
@@ -3717,7 +3723,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B101" t="s">
         <v>75</v>
@@ -3740,7 +3746,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B102" t="s">
         <v>75</v>
@@ -3758,12 +3764,12 @@
         <v>3</v>
       </c>
       <c r="G102" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B103" t="s">
         <v>75</v>
@@ -3786,7 +3792,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B104" t="s">
         <v>75</v>
@@ -3804,12 +3810,12 @@
         <v>0.3</v>
       </c>
       <c r="G104" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B105" t="s">
         <v>75</v>
@@ -3832,7 +3838,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B106" t="s">
         <v>75</v>
@@ -3855,7 +3861,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B107" t="s">
         <v>75</v>
@@ -3873,7 +3879,7 @@
         <v>1.5</v>
       </c>
       <c r="G107" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3882,7 +3888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BBE9A5-4AF9-4882-A98A-EA45457D395D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60E3AB1-73C8-4DCE-A53E-F81D92182C38}">
   <dimension ref="A2:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3891,10 +3897,10 @@
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.45">
@@ -3920,13 +3926,13 @@
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K3" t="s">
         <v>9</v>
@@ -3955,7 +3961,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -3991,10 +3997,10 @@
         <v>83</v>
       </c>
       <c r="O4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q4" t="s">
         <v>85</v>
@@ -4011,7 +4017,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -4047,10 +4053,10 @@
         <v>83</v>
       </c>
       <c r="O5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q5" t="s">
         <v>85</v>
@@ -4071,7 +4077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E25344-1AD8-4D4D-BF42-17E9B3838E99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF255D7-F9E6-4B31-A2A9-01A20DD171D3}">
   <dimension ref="A2:S100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4080,10 +4086,10 @@
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.45">
@@ -7154,7 +7160,7 @@
         <v>86</v>
       </c>
       <c r="R60" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="S60" t="s">
         <v>88</v>
@@ -7207,7 +7213,7 @@
         <v>86</v>
       </c>
       <c r="R61" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="S61" t="s">
         <v>88</v>
@@ -7260,7 +7266,7 @@
         <v>86</v>
       </c>
       <c r="R62" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="S62" t="s">
         <v>88</v>

--- a/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5BDA5AF-0A8A-4FC7-B994-894366AC6DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DCA6DF0-4F5A-4754-873D-38FF2700DB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{4D540EDF-9180-41EB-A8D5-E28252896BFA}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B061713E-F3A5-44C7-B9FC-F88239E3CEE2}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -963,7 +963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610C8890-9AB3-47A3-A600-F807220C4A47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E778A204-59C6-4067-8B25-85ECE204DD05}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3888,7 +3888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60E3AB1-73C8-4DCE-A53E-F81D92182C38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB7A321-9F97-4B9D-8EF7-7A1F06E88719}">
   <dimension ref="A2:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4077,7 +4077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF255D7-F9E6-4B31-A2A9-01A20DD171D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F693843F-9FF0-4225-9F2C-C4DBE3E80456}">
   <dimension ref="A2:S100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DCA6DF0-4F5A-4754-873D-38FF2700DB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7AF8402-9B11-428F-8E8B-26A4689BFD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B061713E-F3A5-44C7-B9FC-F88239E3CEE2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{17807D88-978F-4174-BF7B-745A9D330A9D}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="195">
   <si>
     <t>process</t>
   </si>
@@ -70,13 +70,22 @@
     <t>ncap_tlife</t>
   </si>
   <si>
+    <t>ep_bioenergy_</t>
+  </si>
+  <si>
+    <t>bioenergy</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
     <t>ep_gas_combined_cycle</t>
   </si>
   <si>
     <t>gas</t>
   </si>
   <si>
-    <t>ELC</t>
+    <t>ep_gas_combined_cycle_</t>
   </si>
   <si>
     <t>ep_gas_gas_turbine__m</t>
@@ -88,6 +97,9 @@
     <t>hydro</t>
   </si>
   <si>
+    <t>ep_hydro_dam_</t>
+  </si>
+  <si>
     <t>ep_hydro_dam_G100000603509</t>
   </si>
   <si>
@@ -262,6 +274,9 @@
     <t>ep_solar_solar</t>
   </si>
   <si>
+    <t>ep_solar_solar_</t>
+  </si>
+  <si>
     <t>ep_wind_onshore</t>
   </si>
   <si>
@@ -292,19 +307,28 @@
     <t>ele</t>
   </si>
   <si>
+    <t>Aggregated Plant - EMBER Gap_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>TWh</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>Aggregated Plant</t>
   </si>
   <si>
-    <t>GW</t>
-  </si>
-  <si>
-    <t>TWh</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
-    <t>yes</t>
+    <t>Aggregated Plant - EMBER Gap_Missing Gas Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap_Missing Hydro Capacity</t>
   </si>
   <si>
     <t>Amsteg hydroelectric plant_</t>
@@ -469,6 +493,9 @@
     <t>annual</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>~fi_t</t>
   </si>
   <si>
@@ -484,12 +511,18 @@
     <t>prc_refit</t>
   </si>
   <si>
+    <t>ep_gas_combined_cycle__ccs-rf</t>
+  </si>
+  <si>
     <t>ep_gas_combined_cycle_ccs-rf</t>
   </si>
   <si>
     <t>ep_gas_gas_turbine__m_ccs-rf</t>
   </si>
   <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap_Missing Gas Capacity</t>
+  </si>
+  <si>
     <t>ccs retrofit of -- Aggregated Plant</t>
   </si>
   <si>
@@ -497,9 +530,6 @@
   </si>
   <si>
     <t>Bioenergy + CCUS</t>
-  </si>
-  <si>
-    <t>bioenergy</t>
   </si>
   <si>
     <t>ncap_af</t>
@@ -963,7 +993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E778A204-59C6-4067-8B25-85ECE204DD05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD94CCF-F657-4CA3-B52A-DDC0E0B2656D}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -972,10 +1002,10 @@
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="J2" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
@@ -998,36 +1028,36 @@
         <v>2050</v>
       </c>
       <c r="G3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="J3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K3" t="s">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="N3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1045,30 +1075,30 @@
         <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="M4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1083,33 +1113,33 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G5" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="J5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="M5" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -1127,30 +1157,30 @@
         <v>6</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="M6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -1168,30 +1198,30 @@
         <v>7</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="M7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -1206,33 +1236,33 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="M8" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N8" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -1250,30 +1280,30 @@
         <v>5</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K9" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="M9" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N9" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O9" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -1288,33 +1318,33 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G10" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K10" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="M10" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -1332,30 +1362,30 @@
         <v>6</v>
       </c>
       <c r="J11" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="M11" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O11" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -1373,30 +1403,30 @@
         <v>7</v>
       </c>
       <c r="J12" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="M12" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N12" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O12" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -1411,33 +1441,33 @@
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="J13" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="M13" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O13" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -1455,30 +1485,30 @@
         <v>5</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K14" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="M14" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N14" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O14" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -1493,33 +1523,33 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G15" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="J15" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O15" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B16" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -1537,30 +1567,30 @@
         <v>6</v>
       </c>
       <c r="J16" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N16" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O16" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B17" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -1578,30 +1608,30 @@
         <v>7</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K17" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="M17" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N17" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O17" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B18" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
@@ -1616,33 +1646,33 @@
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="J18" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="M18" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N18" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O18" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
@@ -1660,30 +1690,30 @@
         <v>5</v>
       </c>
       <c r="J19" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="M19" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N19" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O19" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
@@ -1698,33 +1728,33 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="G20" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="J20" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="M20" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N20" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O20" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
@@ -1742,30 +1772,30 @@
         <v>6</v>
       </c>
       <c r="J21" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="M21" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N21" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O21" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B22" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
@@ -1783,30 +1813,30 @@
         <v>7</v>
       </c>
       <c r="J22" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="M22" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N22" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O22" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
@@ -1821,33 +1851,33 @@
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="J23" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="M23" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N23" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O23" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P23" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
@@ -1865,30 +1895,30 @@
         <v>5</v>
       </c>
       <c r="J24" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K24" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="M24" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N24" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O24" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P24" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
@@ -1906,30 +1936,30 @@
         <v>6</v>
       </c>
       <c r="J25" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="M25" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N25" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O25" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P25" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
@@ -1947,30 +1977,30 @@
         <v>7</v>
       </c>
       <c r="J26" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="M26" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N26" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O26" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P26" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -1988,30 +2018,30 @@
         <v>5</v>
       </c>
       <c r="J27" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="M27" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N27" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O27" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P27" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
@@ -2029,30 +2059,30 @@
         <v>6</v>
       </c>
       <c r="J28" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="M28" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N28" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O28" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
@@ -2070,30 +2100,30 @@
         <v>7</v>
       </c>
       <c r="J29" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="M29" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N29" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O29" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P29" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
@@ -2113,10 +2143,10 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
         <v>12</v>
@@ -2136,10 +2166,10 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
@@ -2159,10 +2189,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B33" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C33" t="s">
         <v>12</v>
@@ -2182,10 +2212,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B34" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
@@ -2205,10 +2235,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B35" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
@@ -2228,10 +2258,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
         <v>12</v>
@@ -2251,10 +2281,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
@@ -2269,15 +2299,15 @@
         <v>0.42</v>
       </c>
       <c r="G37" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
@@ -2297,10 +2327,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
@@ -2320,10 +2350,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
@@ -2338,15 +2368,15 @@
         <v>3</v>
       </c>
       <c r="G40" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B41" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
@@ -2366,10 +2396,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B42" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
@@ -2389,10 +2419,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B43" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
@@ -2412,10 +2442,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
@@ -2435,10 +2465,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
@@ -2458,10 +2488,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
@@ -2481,10 +2511,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B47" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
@@ -2504,10 +2534,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B48" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
@@ -2522,15 +2552,15 @@
         <v>0.85000000000000009</v>
       </c>
       <c r="G48" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B49" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C49" t="s">
         <v>12</v>
@@ -2550,10 +2580,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B50" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
@@ -2573,10 +2603,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B51" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C51" t="s">
         <v>12</v>
@@ -2591,15 +2621,15 @@
         <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
         <v>12</v>
@@ -2619,10 +2649,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
         <v>12</v>
@@ -2637,15 +2667,15 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="G53" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
@@ -2665,10 +2695,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
@@ -2688,10 +2718,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C56" t="s">
         <v>12</v>
@@ -2706,15 +2736,15 @@
         <v>4</v>
       </c>
       <c r="G56" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
@@ -2734,10 +2764,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
@@ -2752,15 +2782,15 @@
         <v>0.25</v>
       </c>
       <c r="G58" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C59" t="s">
         <v>12</v>
@@ -2780,10 +2810,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C60" t="s">
         <v>12</v>
@@ -2803,10 +2833,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C61" t="s">
         <v>12</v>
@@ -2821,15 +2851,15 @@
         <v>4</v>
       </c>
       <c r="G61" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s">
         <v>12</v>
@@ -2849,10 +2879,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s">
         <v>12</v>
@@ -2872,10 +2902,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C64" t="s">
         <v>12</v>
@@ -2895,10 +2925,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
+        <v>183</v>
+      </c>
+      <c r="B65" t="s">
         <v>173</v>
-      </c>
-      <c r="B65" t="s">
-        <v>163</v>
       </c>
       <c r="C65" t="s">
         <v>12</v>
@@ -2918,10 +2948,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
+        <v>183</v>
+      </c>
+      <c r="B66" t="s">
         <v>173</v>
-      </c>
-      <c r="B66" t="s">
-        <v>163</v>
       </c>
       <c r="C66" t="s">
         <v>12</v>
@@ -2941,10 +2971,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
+        <v>183</v>
+      </c>
+      <c r="B67" t="s">
         <v>173</v>
-      </c>
-      <c r="B67" t="s">
-        <v>163</v>
       </c>
       <c r="C67" t="s">
         <v>12</v>
@@ -2964,10 +2994,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B68" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
@@ -2987,10 +3017,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B69" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C69" t="s">
         <v>12</v>
@@ -3005,15 +3035,15 @@
         <v>0.25</v>
       </c>
       <c r="G69" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B70" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C70" t="s">
         <v>12</v>
@@ -3033,10 +3063,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B71" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C71" t="s">
         <v>12</v>
@@ -3056,10 +3086,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B72" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C72" t="s">
         <v>12</v>
@@ -3074,15 +3104,15 @@
         <v>4</v>
       </c>
       <c r="G72" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B73" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C73" t="s">
         <v>12</v>
@@ -3102,10 +3132,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B74" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
@@ -3125,10 +3155,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B75" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
@@ -3148,10 +3178,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B76" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C76" t="s">
         <v>12</v>
@@ -3171,10 +3201,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B77" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C77" t="s">
         <v>12</v>
@@ -3194,10 +3224,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B78" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C78" t="s">
         <v>12</v>
@@ -3217,10 +3247,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B79" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C79" t="s">
         <v>12</v>
@@ -3240,10 +3270,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B80" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C80" t="s">
         <v>12</v>
@@ -3258,15 +3288,15 @@
         <v>0.13</v>
       </c>
       <c r="G80" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B81" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
@@ -3286,10 +3316,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B82" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C82" t="s">
         <v>12</v>
@@ -3309,10 +3339,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B83" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C83" t="s">
         <v>12</v>
@@ -3327,15 +3357,15 @@
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="B84" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C84" t="s">
         <v>12</v>
@@ -3355,10 +3385,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="B85" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C85" t="s">
         <v>12</v>
@@ -3373,15 +3403,15 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G85" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="B86" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C86" t="s">
         <v>12</v>
@@ -3401,10 +3431,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="B87" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C87" t="s">
         <v>12</v>
@@ -3424,10 +3454,10 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="B88" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C88" t="s">
         <v>12</v>
@@ -3442,15 +3472,15 @@
         <v>1.5</v>
       </c>
       <c r="G88" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B89" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C89" t="s">
         <v>12</v>
@@ -3470,10 +3500,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B90" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C90" t="s">
         <v>12</v>
@@ -3493,10 +3523,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B91" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C91" t="s">
         <v>12</v>
@@ -3516,10 +3546,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B92" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C92" t="s">
         <v>12</v>
@@ -3539,10 +3569,10 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B93" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C93" t="s">
         <v>12</v>
@@ -3562,10 +3592,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B94" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C94" t="s">
         <v>12</v>
@@ -3585,10 +3615,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B95" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C95" t="s">
         <v>12</v>
@@ -3608,10 +3638,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B96" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C96" t="s">
         <v>12</v>
@@ -3631,10 +3661,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B97" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C97" t="s">
         <v>12</v>
@@ -3654,10 +3684,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B98" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C98" t="s">
         <v>12</v>
@@ -3677,10 +3707,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B99" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C99" t="s">
         <v>12</v>
@@ -3695,15 +3725,15 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G99" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B100" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C100" t="s">
         <v>12</v>
@@ -3723,10 +3753,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B101" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C101" t="s">
         <v>12</v>
@@ -3746,10 +3776,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B102" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C102" t="s">
         <v>12</v>
@@ -3764,15 +3794,15 @@
         <v>3</v>
       </c>
       <c r="G102" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B103" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C103" t="s">
         <v>12</v>
@@ -3792,10 +3822,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B104" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C104" t="s">
         <v>12</v>
@@ -3810,15 +3840,15 @@
         <v>0.3</v>
       </c>
       <c r="G104" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B105" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C105" t="s">
         <v>12</v>
@@ -3838,10 +3868,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B106" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C106" t="s">
         <v>12</v>
@@ -3861,10 +3891,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B107" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C107" t="s">
         <v>12</v>
@@ -3879,7 +3909,7 @@
         <v>1.5</v>
       </c>
       <c r="G107" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3888,8 +3918,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB7A321-9F97-4B9D-8EF7-7A1F06E88719}">
-  <dimension ref="A2:T5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAF8194-9299-4BAD-B305-172258ED29A8}">
+  <dimension ref="A2:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3897,10 +3927,10 @@
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="N2" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.45">
@@ -3926,51 +3956,51 @@
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="I3" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="J3" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="K3" t="s">
         <v>9</v>
       </c>
       <c r="N3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O3" t="s">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="Q3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="R3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="S3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="T3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>0.46865000000000007</v>
+        <v>0.52272499999999988</v>
       </c>
       <c r="E4">
         <v>1365</v>
@@ -3985,7 +4015,7 @@
         <v>0.84455000000000002</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -3994,39 +4024,39 @@
         <v>20</v>
       </c>
       <c r="N4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O4" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="P4" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="Q4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="R4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="S4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="T4" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5">
-        <v>0.27938750000000001</v>
+        <v>0.46865000000000007</v>
       </c>
       <c r="E5">
         <v>1365</v>
@@ -4050,25 +4080,81 @@
         <v>20</v>
       </c>
       <c r="N5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O5" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="P5" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="Q5" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="R5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="S5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="T5" t="s">
-        <v>90</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>0.27938750000000001</v>
+      </c>
+      <c r="E6">
+        <v>1365</v>
+      </c>
+      <c r="F6">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G6">
+        <v>3.75</v>
+      </c>
+      <c r="H6">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>20</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>159</v>
+      </c>
+      <c r="P6" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>90</v>
+      </c>
+      <c r="R6" t="s">
+        <v>91</v>
+      </c>
+      <c r="S6" t="s">
+        <v>92</v>
+      </c>
+      <c r="T6" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -4077,8 +4163,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F693843F-9FF0-4225-9F2C-C4DBE3E80456}">
-  <dimension ref="A2:S100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0FE5B6-C5A8-49A8-AD00-76F978CB24E6}">
+  <dimension ref="A2:S105"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4086,10 +4172,10 @@
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="M2" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.45">
@@ -4124,25 +4210,25 @@
         <v>9</v>
       </c>
       <c r="M3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N3" t="s">
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="Q3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="R3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="S3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.45">
@@ -4156,99 +4242,99 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>1988</v>
+        <v>2022</v>
       </c>
       <c r="E4">
-        <v>4.3799999999999999E-2</v>
+        <v>0.23</v>
       </c>
       <c r="F4">
-        <v>0.42230000000000001</v>
+        <v>0.33990000000000004</v>
       </c>
       <c r="G4">
-        <v>1485.0000000000002</v>
+        <v>4427.5</v>
       </c>
       <c r="H4">
-        <v>42.900000000000006</v>
+        <v>157.30000000000001</v>
       </c>
       <c r="I4">
-        <v>3.7800000000000002</v>
+        <v>9.240000000000002</v>
       </c>
       <c r="J4">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="M4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N4" t="s">
         <v>10</v>
       </c>
       <c r="O4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5">
-        <v>2009</v>
+        <v>1988</v>
       </c>
       <c r="E5">
-        <v>5.5E-2</v>
+        <v>4.3799999999999999E-2</v>
       </c>
       <c r="F5">
-        <v>0.53560000000000008</v>
+        <v>0.42230000000000001</v>
       </c>
       <c r="G5">
-        <v>1265</v>
+        <v>1485.0000000000002</v>
       </c>
       <c r="H5">
-        <v>36.300000000000004</v>
+        <v>42.900000000000006</v>
       </c>
       <c r="I5">
-        <v>3.4650000000000003</v>
+        <v>3.7800000000000002</v>
       </c>
       <c r="J5">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N5" t="s">
         <v>13</v>
       </c>
       <c r="O5" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="P5" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.45">
@@ -4256,228 +4342,228 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>2023</v>
+        <v>2009</v>
       </c>
       <c r="E6">
-        <v>0.25040000000000001</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F6">
-        <v>0.31930000000000003</v>
+        <v>0.53560000000000008</v>
       </c>
       <c r="G6">
-        <v>1187.9999999999998</v>
+        <v>1265</v>
       </c>
       <c r="H6">
-        <v>28.6</v>
+        <v>36.300000000000004</v>
       </c>
       <c r="I6">
-        <v>5.0399999999999991</v>
+        <v>3.4650000000000003</v>
       </c>
       <c r="J6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O6" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7">
-        <v>1907</v>
+        <v>2022</v>
       </c>
       <c r="E7">
-        <v>0.05</v>
+        <v>0.13120000000000001</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.59739999999999993</v>
       </c>
       <c r="G7">
-        <v>3712.5000000000005</v>
+        <v>1265</v>
       </c>
       <c r="H7">
-        <v>71.5</v>
+        <v>36.300000000000004</v>
       </c>
       <c r="I7">
-        <v>2.52</v>
+        <v>3.4650000000000003</v>
       </c>
       <c r="J7">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c r="M7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s">
         <v>16</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8">
-        <v>1921</v>
+        <v>2023</v>
       </c>
       <c r="E8">
-        <v>5.3999999999999999E-2</v>
+        <v>0.25040000000000001</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.31930000000000003</v>
       </c>
       <c r="G8">
-        <v>3162.5000000000005</v>
+        <v>1187.9999999999998</v>
       </c>
       <c r="H8">
-        <v>60.500000000000014</v>
+        <v>28.6</v>
       </c>
       <c r="I8">
-        <v>2.3100000000000005</v>
+        <v>5.0399999999999991</v>
       </c>
       <c r="J8">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="M8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N8" t="s">
         <v>17</v>
       </c>
       <c r="O8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q8" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R8" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9">
-        <v>1926</v>
+        <v>1907</v>
       </c>
       <c r="E9">
-        <v>5.1999999999999998E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H9">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I9">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J9">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="M9" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>91</v>
+      </c>
+      <c r="R9" t="s">
         <v>92</v>
       </c>
-      <c r="P9" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>86</v>
-      </c>
-      <c r="R9" t="s">
-        <v>87</v>
-      </c>
       <c r="S9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10">
-        <v>1947</v>
+        <v>1921</v>
       </c>
       <c r="E10">
-        <v>0.06</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -4492,45 +4578,45 @@
         <v>2.3100000000000005</v>
       </c>
       <c r="J10">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="M10" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="P10" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S10" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11">
-        <v>1954</v>
+        <v>1926</v>
       </c>
       <c r="E11">
-        <v>7.0000000000000007E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -4545,151 +4631,151 @@
         <v>2.3100000000000005</v>
       </c>
       <c r="J11">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="M11" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O11" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R11" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S11" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12">
-        <v>1957</v>
+        <v>1947</v>
       </c>
       <c r="E12">
-        <v>0.152</v>
+        <v>0.06</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3162.5000000000009</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H12">
         <v>60.500000000000014</v>
       </c>
       <c r="I12">
-        <v>2.3100000000000009</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J12">
+        <v>108</v>
+      </c>
+      <c r="M12" t="s">
+        <v>88</v>
+      </c>
+      <c r="N12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" t="s">
         <v>100</v>
       </c>
-      <c r="M12" t="s">
-        <v>83</v>
-      </c>
-      <c r="N12" t="s">
-        <v>21</v>
-      </c>
-      <c r="O12" t="s">
-        <v>95</v>
-      </c>
       <c r="P12" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q12" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R12" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S12" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13">
-        <v>1958</v>
+        <v>1954</v>
       </c>
       <c r="E13">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3712.5000000000005</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H13">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I13">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J13">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M13" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O13" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R13" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S13" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>1967</v>
+        <v>1957</v>
       </c>
       <c r="E14">
-        <v>0.14699999999999999</v>
+        <v>0.152</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -4701,45 +4787,45 @@
         <v>60.500000000000014</v>
       </c>
       <c r="I14">
-        <v>2.3100000000000005</v>
+        <v>2.3100000000000009</v>
       </c>
       <c r="J14">
         <v>100</v>
       </c>
       <c r="M14" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O14" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q14" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R14" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S14" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15">
-        <v>1992</v>
+        <v>1958</v>
       </c>
       <c r="E15">
         <v>0.05</v>
@@ -4760,51 +4846,51 @@
         <v>100</v>
       </c>
       <c r="M15" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O15" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>91</v>
+      </c>
+      <c r="R15" t="s">
+        <v>92</v>
+      </c>
+      <c r="S15" t="s">
         <v>98</v>
-      </c>
-      <c r="P15" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>86</v>
-      </c>
-      <c r="R15" t="s">
-        <v>87</v>
-      </c>
-      <c r="S15" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16">
-        <v>2012</v>
+        <v>1967</v>
       </c>
       <c r="E16">
-        <v>0.09</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3162.5000000000005</v>
+        <v>3162.5000000000009</v>
       </c>
       <c r="H16">
-        <v>60.500000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I16">
         <v>2.3100000000000005</v>
@@ -4813,104 +4899,104 @@
         <v>100</v>
       </c>
       <c r="M16" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O16" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="P16" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q16" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R16" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S16" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
       </c>
       <c r="D17">
-        <v>2014</v>
+        <v>1992</v>
       </c>
       <c r="E17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H17">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I17">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J17">
         <v>100</v>
       </c>
       <c r="M17" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O17" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="P17" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q17" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R17" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S17" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="E18">
-        <v>8.3000000000000004E-2</v>
+        <v>0.09</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3162.5000000000009</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H18">
-        <v>60.500000000000014</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I18">
         <v>2.3100000000000005</v>
@@ -4919,42 +5005,42 @@
         <v>100</v>
       </c>
       <c r="M18" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O18" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="P18" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q18" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R18" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S18" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19">
-        <v>1923</v>
+        <v>2014</v>
       </c>
       <c r="E19">
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -4969,28 +5055,28 @@
         <v>2.3100000000000005</v>
       </c>
       <c r="J19">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="M19" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O19" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q19" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R19" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S19" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.45">
@@ -4998,22 +5084,22 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20">
-        <v>1962</v>
+        <v>2015</v>
       </c>
       <c r="E20">
-        <v>0.22</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3162.5000000000005</v>
+        <v>3162.5000000000009</v>
       </c>
       <c r="H20">
         <v>60.500000000000014</v>
@@ -5025,201 +5111,201 @@
         <v>100</v>
       </c>
       <c r="M20" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O20" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="P20" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q20" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R20" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S20" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21">
-        <v>1966</v>
+        <v>2022</v>
       </c>
       <c r="E21">
-        <v>0.14000000000000001</v>
+        <v>3.1750000000000007</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H21">
-        <v>60.500000000000014</v>
+        <v>55</v>
       </c>
       <c r="I21">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J21">
         <v>100</v>
       </c>
       <c r="M21" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O21" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="P21" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q21" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R21" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S21" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
       </c>
       <c r="D22">
-        <v>1959</v>
+        <v>1923</v>
       </c>
       <c r="E22">
-        <v>0.32400000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H22">
-        <v>55.000000000000014</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I22">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J22">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="M22" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O22" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="P22" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q22" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R22" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S22" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
       </c>
       <c r="D23">
-        <v>1999</v>
+        <v>1962</v>
       </c>
       <c r="E23">
-        <v>1.26</v>
+        <v>0.22</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H23">
-        <v>55.000000000000014</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I23">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J23">
         <v>100</v>
       </c>
       <c r="M23" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O23" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="P23" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q23" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R23" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S23" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24">
-        <v>1955</v>
+        <v>1966</v>
       </c>
       <c r="E24">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -5228,7 +5314,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H24">
-        <v>60.500000000000021</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I24">
         <v>2.3100000000000005</v>
@@ -5237,42 +5323,42 @@
         <v>100</v>
       </c>
       <c r="M24" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O24" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P24" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q24" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R24" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S24" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
       </c>
       <c r="D25">
-        <v>1969</v>
+        <v>1959</v>
       </c>
       <c r="E25">
-        <v>0.34</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -5290,86 +5376,86 @@
         <v>100</v>
       </c>
       <c r="M25" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O25" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="P25" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q25" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R25" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S25" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
       </c>
       <c r="D26">
-        <v>1959</v>
+        <v>1999</v>
       </c>
       <c r="E26">
-        <v>0.1</v>
+        <v>1.26</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H26">
-        <v>60.500000000000021</v>
+        <v>55.000000000000014</v>
       </c>
       <c r="I26">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J26">
         <v>100</v>
       </c>
       <c r="M26" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O26" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="P26" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q26" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R26" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S26" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -5378,7 +5464,7 @@
         <v>1955</v>
       </c>
       <c r="E27">
-        <v>0.114</v>
+        <v>0.1</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -5387,7 +5473,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H27">
-        <v>60.500000000000014</v>
+        <v>60.500000000000021</v>
       </c>
       <c r="I27">
         <v>2.3100000000000005</v>
@@ -5396,42 +5482,42 @@
         <v>100</v>
       </c>
       <c r="M27" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O27" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="P27" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q27" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R27" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S27" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
       </c>
       <c r="D28">
-        <v>1957</v>
+        <v>1969</v>
       </c>
       <c r="E28">
-        <v>0.30599999999999999</v>
+        <v>0.34</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -5449,42 +5535,42 @@
         <v>100</v>
       </c>
       <c r="M28" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O28" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="P28" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q28" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R28" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S28" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
       </c>
       <c r="D29">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="E29">
-        <v>0.14000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -5493,7 +5579,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H29">
-        <v>60.500000000000014</v>
+        <v>60.500000000000021</v>
       </c>
       <c r="I29">
         <v>2.3100000000000005</v>
@@ -5502,42 +5588,42 @@
         <v>100</v>
       </c>
       <c r="M29" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O29" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="P29" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q29" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R29" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S29" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
       </c>
       <c r="D30">
-        <v>1965</v>
+        <v>1955</v>
       </c>
       <c r="E30">
-        <v>0.13300000000000001</v>
+        <v>0.114</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -5555,148 +5641,148 @@
         <v>100</v>
       </c>
       <c r="M30" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O30" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P30" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q30" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R30" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S30" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
         <v>12</v>
       </c>
       <c r="D31">
-        <v>1962</v>
+        <v>1957</v>
       </c>
       <c r="E31">
-        <v>0.16500000000000001</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H31">
-        <v>60.500000000000014</v>
+        <v>55.000000000000014</v>
       </c>
       <c r="I31">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J31">
         <v>100</v>
       </c>
       <c r="M31" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O31" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="P31" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q31" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R31" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S31" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
       </c>
       <c r="D32">
-        <v>1981</v>
+        <v>1958</v>
       </c>
       <c r="E32">
-        <v>0.38800000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H32">
-        <v>55.000000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I32">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J32">
         <v>100</v>
       </c>
       <c r="M32" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O32" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="P32" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q32" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R32" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S32" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
         <v>12</v>
       </c>
       <c r="D33">
-        <v>1928</v>
+        <v>1965</v>
       </c>
       <c r="E33">
-        <v>0.1</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -5705,51 +5791,51 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H33">
-        <v>60.500000000000021</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I33">
         <v>2.3100000000000005</v>
       </c>
       <c r="J33">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="M33" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O33" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="P33" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q33" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R33" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S33" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
       </c>
       <c r="D34">
-        <v>1950</v>
+        <v>1962</v>
       </c>
       <c r="E34">
-        <v>0.126</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -5764,98 +5850,98 @@
         <v>2.3100000000000005</v>
       </c>
       <c r="J34">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M34" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O34" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="P34" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q34" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R34" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S34" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
       </c>
       <c r="D35">
-        <v>2016</v>
+        <v>1981</v>
       </c>
       <c r="E35">
-        <v>0.15</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H35">
-        <v>60.500000000000014</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I35">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J35">
         <v>100</v>
       </c>
       <c r="M35" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O35" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="P35" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q35" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R35" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S35" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
         <v>12</v>
       </c>
       <c r="D36">
-        <v>1943</v>
+        <v>1928</v>
       </c>
       <c r="E36">
-        <v>0.24</v>
+        <v>0.1</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -5864,57 +5950,57 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H36">
-        <v>60.500000000000014</v>
+        <v>60.500000000000021</v>
       </c>
       <c r="I36">
         <v>2.3100000000000005</v>
       </c>
       <c r="J36">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="M36" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O36" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="P36" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q36" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R36" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S36" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
       </c>
       <c r="D37">
-        <v>1978</v>
+        <v>1950</v>
       </c>
       <c r="E37">
-        <v>0.17</v>
+        <v>0.126</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>3162.5000000000009</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H37">
         <v>60.500000000000014</v>
@@ -5923,45 +6009,45 @@
         <v>2.3100000000000005</v>
       </c>
       <c r="J37">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M37" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O37" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="P37" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q37" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R37" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S37" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
       </c>
       <c r="D38">
-        <v>1976</v>
+        <v>2016</v>
       </c>
       <c r="E38">
-        <v>0.122</v>
+        <v>0.15</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -5979,42 +6065,42 @@
         <v>100</v>
       </c>
       <c r="M38" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O38" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="P38" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q38" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R38" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S38" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
       </c>
       <c r="D39">
-        <v>1910</v>
+        <v>1943</v>
       </c>
       <c r="E39">
-        <v>0.19800000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -6023,104 +6109,104 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H39">
-        <v>60.500000000000021</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I39">
         <v>2.3100000000000005</v>
       </c>
       <c r="J39">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="M39" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O39" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="P39" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q39" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R39" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S39" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
       </c>
       <c r="D40">
-        <v>1960</v>
+        <v>1978</v>
       </c>
       <c r="E40">
-        <v>0.39200000000000002</v>
+        <v>0.17</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
       <c r="G40">
-        <v>2750</v>
+        <v>3162.5000000000009</v>
       </c>
       <c r="H40">
-        <v>55.000000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I40">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J40">
         <v>100</v>
       </c>
       <c r="M40" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O40" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="P40" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q40" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R40" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S40" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
       </c>
       <c r="D41">
-        <v>1966</v>
+        <v>1976</v>
       </c>
       <c r="E41">
-        <v>0.14099999999999999</v>
+        <v>0.122</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -6138,42 +6224,42 @@
         <v>100</v>
       </c>
       <c r="M41" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O41" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="P41" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q41" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R41" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S41" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
       </c>
       <c r="D42">
-        <v>1962</v>
+        <v>1910</v>
       </c>
       <c r="E42">
-        <v>0.10199999999999999</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -6188,98 +6274,98 @@
         <v>2.3100000000000005</v>
       </c>
       <c r="J42">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="M42" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O42" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="P42" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q42" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R42" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S42" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
       </c>
       <c r="D43">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="E43">
-        <v>0.3</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H43">
-        <v>60.500000000000014</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I43">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J43">
         <v>100</v>
       </c>
       <c r="M43" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="N43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O43" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="P43" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q43" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R43" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S43" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
       </c>
       <c r="D44">
-        <v>1956</v>
+        <v>1966</v>
       </c>
       <c r="E44">
-        <v>0.25800000000000001</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -6297,42 +6383,42 @@
         <v>100</v>
       </c>
       <c r="M44" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="N44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O44" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="P44" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q44" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R44" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S44" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
       </c>
       <c r="D45">
-        <v>1958</v>
+        <v>1962</v>
       </c>
       <c r="E45">
-        <v>0.13500000000000001</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -6341,7 +6427,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H45">
-        <v>60.500000000000014</v>
+        <v>60.500000000000021</v>
       </c>
       <c r="I45">
         <v>2.3100000000000005</v>
@@ -6350,42 +6436,42 @@
         <v>100</v>
       </c>
       <c r="M45" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="N45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O45" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="P45" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q45" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R45" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S45" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
       </c>
       <c r="D46">
-        <v>1978</v>
+        <v>1970</v>
       </c>
       <c r="E46">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -6394,7 +6480,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H46">
-        <v>60.500000000000021</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I46">
         <v>2.3100000000000005</v>
@@ -6403,42 +6489,42 @@
         <v>100</v>
       </c>
       <c r="M46" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="N46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O46" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="P46" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q46" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R46" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S46" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
       </c>
       <c r="D47">
-        <v>1968</v>
+        <v>1956</v>
       </c>
       <c r="E47">
-        <v>0.15</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -6456,42 +6542,42 @@
         <v>100</v>
       </c>
       <c r="M47" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="N47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O47" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="P47" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q47" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R47" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S47" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
       </c>
       <c r="D48">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="E48">
-        <v>0.247</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -6509,42 +6595,42 @@
         <v>100</v>
       </c>
       <c r="M48" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="N48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O48" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="P48" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q48" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R48" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S48" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
         <v>12</v>
       </c>
       <c r="D49">
-        <v>1965</v>
+        <v>1978</v>
       </c>
       <c r="E49">
-        <v>0.185</v>
+        <v>0.1</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -6553,7 +6639,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H49">
-        <v>60.500000000000007</v>
+        <v>60.500000000000021</v>
       </c>
       <c r="I49">
         <v>2.3100000000000005</v>
@@ -6562,42 +6648,42 @@
         <v>100</v>
       </c>
       <c r="M49" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="N49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O49" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="P49" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q49" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R49" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S49" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
       </c>
       <c r="D50">
-        <v>1962</v>
+        <v>1968</v>
       </c>
       <c r="E50">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -6606,7 +6692,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H50">
-        <v>60.500000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I50">
         <v>2.3100000000000005</v>
@@ -6615,95 +6701,95 @@
         <v>100</v>
       </c>
       <c r="M50" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="N50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O50" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="P50" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q50" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R50" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S50" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
         <v>12</v>
       </c>
       <c r="D51">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="E51">
-        <v>0.35199999999999998</v>
+        <v>0.247</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
       <c r="G51">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H51">
-        <v>55.000000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I51">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J51">
         <v>100</v>
       </c>
       <c r="M51" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="N51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O51" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P51" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q51" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R51" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S51" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
         <v>12</v>
       </c>
       <c r="D52">
-        <v>1953</v>
+        <v>1965</v>
       </c>
       <c r="E52">
-        <v>0.11899999999999999</v>
+        <v>0.185</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -6712,51 +6798,51 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H52">
-        <v>60.500000000000014</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I52">
         <v>2.3100000000000005</v>
       </c>
       <c r="J52">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M52" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="N52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O52" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P52" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q52" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R52" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S52" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
         <v>12</v>
       </c>
       <c r="D53">
-        <v>1943</v>
+        <v>1962</v>
       </c>
       <c r="E53">
-        <v>0.10299999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -6765,251 +6851,251 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H53">
-        <v>60.500000000000014</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I53">
         <v>2.3100000000000005</v>
       </c>
       <c r="J53">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="M53" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="N53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O53" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="P53" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q53" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R53" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S53" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
       </c>
       <c r="D54">
-        <v>1928</v>
+        <v>1964</v>
       </c>
       <c r="E54">
-        <v>0.107</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="F54">
         <v>1</v>
       </c>
       <c r="G54">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H54">
-        <v>60.500000000000014</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I54">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J54">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="M54" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="N54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O54" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="P54" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q54" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R54" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S54" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
       </c>
       <c r="D55">
-        <v>1926</v>
+        <v>1953</v>
       </c>
       <c r="E55">
-        <v>6.6000000000000003E-2</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
       <c r="G55">
-        <v>2277</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H55">
-        <v>48.400000000000006</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I55">
-        <v>1.7325000000000002</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J55">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="M55" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="N55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O55" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="P55" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q55" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R55" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S55" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C56" t="s">
         <v>12</v>
       </c>
       <c r="D56">
-        <v>1955</v>
+        <v>1943</v>
       </c>
       <c r="E56">
-        <v>5.3999999999999999E-2</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
       <c r="G56">
-        <v>2277</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H56">
-        <v>48.400000000000006</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I56">
-        <v>1.7325000000000002</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J56">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="M56" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="N56" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O56" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="P56" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q56" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R56" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S56" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
       </c>
       <c r="D57">
-        <v>1958</v>
+        <v>1928</v>
       </c>
       <c r="E57">
-        <v>8.8999999999999996E-2</v>
+        <v>0.107</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
       <c r="G57">
-        <v>2277</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H57">
-        <v>48.400000000000006</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I57">
-        <v>1.7325000000000004</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J57">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="M57" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="N57" t="s">
         <v>67</v>
       </c>
       <c r="O57" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="P57" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q57" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R57" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S57" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>12</v>
@@ -7018,10 +7104,10 @@
         <v>12</v>
       </c>
       <c r="D58">
-        <v>1966</v>
+        <v>1926</v>
       </c>
       <c r="E58">
-        <v>7.3999999999999996E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -7036,33 +7122,33 @@
         <v>1.7325000000000002</v>
       </c>
       <c r="J58">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="M58" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N58" t="s">
         <v>68</v>
       </c>
       <c r="O58" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="P58" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q58" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R58" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S58" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B59" t="s">
         <v>12</v>
@@ -7071,10 +7157,10 @@
         <v>12</v>
       </c>
       <c r="D59">
-        <v>1976</v>
+        <v>1955</v>
       </c>
       <c r="E59">
-        <v>5.5E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -7092,30 +7178,30 @@
         <v>100</v>
       </c>
       <c r="M59" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N59" t="s">
         <v>69</v>
       </c>
       <c r="O59" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="P59" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q59" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R59" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S59" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B60" t="s">
         <v>12</v>
@@ -7124,10 +7210,10 @@
         <v>12</v>
       </c>
       <c r="D60">
-        <v>1937</v>
+        <v>1958</v>
       </c>
       <c r="E60">
-        <v>0.13500000000000001</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -7139,36 +7225,36 @@
         <v>48.400000000000006</v>
       </c>
       <c r="I60">
-        <v>1.7325000000000002</v>
+        <v>1.7325000000000004</v>
       </c>
       <c r="J60">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="M60" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N60" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O60" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="P60" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q60" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R60" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="S60" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B61" t="s">
         <v>12</v>
@@ -7177,10 +7263,10 @@
         <v>12</v>
       </c>
       <c r="D61">
-        <v>1962</v>
+        <v>1966</v>
       </c>
       <c r="E61">
-        <v>0.18</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -7189,7 +7275,7 @@
         <v>2277</v>
       </c>
       <c r="H61">
-        <v>48.400000000000013</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="I61">
         <v>1.7325000000000002</v>
@@ -7198,30 +7284,30 @@
         <v>100</v>
       </c>
       <c r="M61" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O61" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="P61" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q61" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R61" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="S61" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B62" t="s">
         <v>12</v>
@@ -7230,10 +7316,10 @@
         <v>12</v>
       </c>
       <c r="D62">
-        <v>1923</v>
+        <v>1976</v>
       </c>
       <c r="E62">
-        <v>0.112</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -7242,39 +7328,39 @@
         <v>2277</v>
       </c>
       <c r="H62">
-        <v>48.400000000000013</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="I62">
         <v>1.7325000000000002</v>
       </c>
       <c r="J62">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="M62" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O62" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="P62" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q62" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R62" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="S62" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B63" t="s">
         <v>12</v>
@@ -7283,30 +7369,51 @@
         <v>12</v>
       </c>
       <c r="D63">
-        <v>2016</v>
+        <v>1937</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="F63">
         <v>1</v>
       </c>
       <c r="G63">
-        <v>1980.0000000000002</v>
+        <v>2277</v>
       </c>
       <c r="H63">
-        <v>44</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="I63">
-        <v>1.5750000000000002</v>
+        <v>1.7325000000000002</v>
       </c>
       <c r="J63">
-        <v>100</v>
+        <v>118</v>
+      </c>
+      <c r="M63" t="s">
+        <v>88</v>
+      </c>
+      <c r="N63" t="s">
+        <v>74</v>
+      </c>
+      <c r="O63" t="s">
+        <v>94</v>
+      </c>
+      <c r="P63" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>91</v>
+      </c>
+      <c r="R63" t="s">
+        <v>150</v>
+      </c>
+      <c r="S63" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B64" t="s">
         <v>12</v>
@@ -7315,10 +7422,10 @@
         <v>12</v>
       </c>
       <c r="D64">
-        <v>1977</v>
+        <v>1962</v>
       </c>
       <c r="E64">
-        <v>0.28000000000000003</v>
+        <v>0.18</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -7327,7 +7434,7 @@
         <v>2277</v>
       </c>
       <c r="H64">
-        <v>48.400000000000006</v>
+        <v>48.400000000000013</v>
       </c>
       <c r="I64">
         <v>1.7325000000000002</v>
@@ -7335,10 +7442,31 @@
       <c r="J64">
         <v>100</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M64" t="s">
+        <v>88</v>
+      </c>
+      <c r="N64" t="s">
+        <v>77</v>
+      </c>
+      <c r="O64" t="s">
+        <v>94</v>
+      </c>
+      <c r="P64" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>91</v>
+      </c>
+      <c r="R64" t="s">
+        <v>150</v>
+      </c>
+      <c r="S64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B65" t="s">
         <v>12</v>
@@ -7347,62 +7475,104 @@
         <v>12</v>
       </c>
       <c r="D65">
-        <v>2022</v>
+        <v>1923</v>
       </c>
       <c r="E65">
-        <v>0.9</v>
+        <v>0.112</v>
       </c>
       <c r="F65">
         <v>1</v>
       </c>
       <c r="G65">
+        <v>2277</v>
+      </c>
+      <c r="H65">
+        <v>48.400000000000013</v>
+      </c>
+      <c r="I65">
+        <v>1.7325000000000002</v>
+      </c>
+      <c r="J65">
+        <v>132</v>
+      </c>
+      <c r="M65" t="s">
+        <v>88</v>
+      </c>
+      <c r="N65" t="s">
+        <v>78</v>
+      </c>
+      <c r="O65" t="s">
+        <v>151</v>
+      </c>
+      <c r="P65" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>91</v>
+      </c>
+      <c r="R65" t="s">
+        <v>150</v>
+      </c>
+      <c r="S65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66">
+        <v>2016</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
         <v>1980.0000000000002</v>
       </c>
-      <c r="H65">
+      <c r="H66">
         <v>44</v>
       </c>
-      <c r="I65">
+      <c r="I66">
         <v>1.5750000000000002</v>
-      </c>
-      <c r="J65">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
-        <v>59</v>
-      </c>
-      <c r="B66" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66">
-        <v>2009</v>
-      </c>
-      <c r="E66">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66">
-        <v>2277</v>
-      </c>
-      <c r="H66">
-        <v>48.400000000000006</v>
-      </c>
-      <c r="I66">
-        <v>1.7325000000000002</v>
       </c>
       <c r="J66">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M66" t="s">
+        <v>88</v>
+      </c>
+      <c r="N66" t="s">
+        <v>79</v>
+      </c>
+      <c r="O66" t="s">
+        <v>94</v>
+      </c>
+      <c r="P66" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>91</v>
+      </c>
+      <c r="R66" t="s">
+        <v>150</v>
+      </c>
+      <c r="S66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B67" t="s">
         <v>12</v>
@@ -7411,10 +7581,10 @@
         <v>12</v>
       </c>
       <c r="D67">
-        <v>2026</v>
+        <v>1977</v>
       </c>
       <c r="E67">
-        <v>0.12</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -7432,9 +7602,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B68" t="s">
         <v>12</v>
@@ -7443,30 +7613,30 @@
         <v>12</v>
       </c>
       <c r="D68">
-        <v>1968</v>
+        <v>2022</v>
       </c>
       <c r="E68">
-        <v>0.192</v>
+        <v>0.9</v>
       </c>
       <c r="F68">
         <v>1</v>
       </c>
       <c r="G68">
-        <v>2277</v>
+        <v>1980.0000000000002</v>
       </c>
       <c r="H68">
-        <v>48.400000000000006</v>
+        <v>44</v>
       </c>
       <c r="I68">
-        <v>1.7325000000000002</v>
+        <v>1.5750000000000002</v>
       </c>
       <c r="J68">
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B69" t="s">
         <v>12</v>
@@ -7475,10 +7645,10 @@
         <v>12</v>
       </c>
       <c r="D69">
-        <v>1972</v>
+        <v>2009</v>
       </c>
       <c r="E69">
-        <v>0.24</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -7496,9 +7666,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B70" t="s">
         <v>12</v>
@@ -7507,10 +7677,10 @@
         <v>12</v>
       </c>
       <c r="D70">
-        <v>2017</v>
+        <v>2026</v>
       </c>
       <c r="E70">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -7528,117 +7698,117 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s">
         <v>12</v>
       </c>
       <c r="D71">
+        <v>1968</v>
+      </c>
+      <c r="E71">
+        <v>0.192</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>2277</v>
+      </c>
+      <c r="H71">
+        <v>48.400000000000006</v>
+      </c>
+      <c r="I71">
+        <v>1.7325000000000002</v>
+      </c>
+      <c r="J71">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>66</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72">
+        <v>1972</v>
+      </c>
+      <c r="E72">
+        <v>0.24</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>2277</v>
+      </c>
+      <c r="H72">
+        <v>48.400000000000006</v>
+      </c>
+      <c r="I72">
+        <v>1.7325000000000002</v>
+      </c>
+      <c r="J72">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>67</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73">
+        <v>2017</v>
+      </c>
+      <c r="E73">
+        <v>0.24</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>2277</v>
+      </c>
+      <c r="H73">
+        <v>48.400000000000006</v>
+      </c>
+      <c r="I73">
+        <v>1.7325000000000002</v>
+      </c>
+      <c r="J73">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>68</v>
+      </c>
+      <c r="B74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74">
         <v>1908</v>
       </c>
-      <c r="E71">
+      <c r="E74">
         <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71">
-        <v>2783</v>
-      </c>
-      <c r="H71">
-        <v>66.550000000000011</v>
-      </c>
-      <c r="I71">
-        <v>2.8875000000000002</v>
-      </c>
-      <c r="J71">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
-        <v>64</v>
-      </c>
-      <c r="B72" t="s">
-        <v>15</v>
-      </c>
-      <c r="C72" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72">
-        <v>1920</v>
-      </c>
-      <c r="E72">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72">
-        <v>3267.0000000000005</v>
-      </c>
-      <c r="H72">
-        <v>78.650000000000006</v>
-      </c>
-      <c r="I72">
-        <v>3.1500000000000008</v>
-      </c>
-      <c r="J72">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
-        <v>64</v>
-      </c>
-      <c r="B73" t="s">
-        <v>15</v>
-      </c>
-      <c r="C73" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73">
-        <v>1925</v>
-      </c>
-      <c r="E73">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73">
-        <v>2783</v>
-      </c>
-      <c r="H73">
-        <v>66.550000000000011</v>
-      </c>
-      <c r="I73">
-        <v>2.8875000000000002</v>
-      </c>
-      <c r="J73">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
-        <v>64</v>
-      </c>
-      <c r="B74" t="s">
-        <v>15</v>
-      </c>
-      <c r="C74" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74">
-        <v>1932</v>
-      </c>
-      <c r="E74">
-        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -7653,56 +7823,56 @@
         <v>2.8875000000000002</v>
       </c>
       <c r="J74">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
       </c>
       <c r="D75">
-        <v>1947</v>
+        <v>1920</v>
       </c>
       <c r="E75">
-        <v>5.7000000000000002E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="F75">
         <v>1</v>
       </c>
       <c r="G75">
-        <v>2783</v>
+        <v>3267.0000000000005</v>
       </c>
       <c r="H75">
-        <v>66.550000000000011</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="I75">
-        <v>2.8875000000000002</v>
+        <v>3.1500000000000008</v>
       </c>
       <c r="J75">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C76" t="s">
         <v>12</v>
       </c>
       <c r="D76">
-        <v>1950</v>
+        <v>1925</v>
       </c>
       <c r="E76">
-        <v>9.2999999999999999E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -7717,56 +7887,56 @@
         <v>2.8875000000000002</v>
       </c>
       <c r="J76">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C77" t="s">
         <v>12</v>
       </c>
       <c r="D77">
-        <v>1952</v>
+        <v>1932</v>
       </c>
       <c r="E77">
-        <v>0.111</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F77">
         <v>1</v>
       </c>
       <c r="G77">
-        <v>3001.0180180180182</v>
+        <v>2783</v>
       </c>
       <c r="H77">
-        <v>72.000450450450458</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I77">
-        <v>3.0057432432432436</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J77">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C78" t="s">
         <v>12</v>
       </c>
       <c r="D78">
-        <v>1958</v>
+        <v>1947</v>
       </c>
       <c r="E78">
-        <v>6.2E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -7781,24 +7951,24 @@
         <v>2.8875000000000002</v>
       </c>
       <c r="J78">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C79" t="s">
         <v>12</v>
       </c>
       <c r="D79">
-        <v>1959</v>
+        <v>1950</v>
       </c>
       <c r="E79">
-        <v>8.5999999999999993E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -7813,56 +7983,56 @@
         <v>2.8875000000000002</v>
       </c>
       <c r="J79">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C80" t="s">
         <v>12</v>
       </c>
       <c r="D80">
-        <v>1960</v>
+        <v>1952</v>
       </c>
       <c r="E80">
-        <v>5.1999999999999998E-2</v>
+        <v>0.111</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
       <c r="G80">
-        <v>2783</v>
+        <v>3001.0180180180182</v>
       </c>
       <c r="H80">
-        <v>66.550000000000011</v>
+        <v>72.000450450450458</v>
       </c>
       <c r="I80">
-        <v>2.8875000000000002</v>
+        <v>3.0057432432432436</v>
       </c>
       <c r="J80">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
       </c>
       <c r="D81">
-        <v>1967</v>
+        <v>1958</v>
       </c>
       <c r="E81">
-        <v>6.5000000000000002E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -7882,19 +8052,19 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C82" t="s">
         <v>12</v>
       </c>
       <c r="D82">
-        <v>1975</v>
+        <v>1959</v>
       </c>
       <c r="E82">
-        <v>6.4000000000000001E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -7914,66 +8084,66 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B83" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="C83" t="s">
         <v>12</v>
       </c>
       <c r="D83">
-        <v>1984</v>
+        <v>1960</v>
       </c>
       <c r="E83">
-        <v>1.2749999999999999</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="F83">
         <v>1</v>
       </c>
       <c r="G83">
-        <v>7150.0000000000018</v>
+        <v>2783</v>
       </c>
       <c r="H83">
-        <v>165</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I83">
-        <v>4.2</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J83">
-        <v>71</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B84" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="C84" t="s">
         <v>12</v>
       </c>
       <c r="D84">
-        <v>1979</v>
+        <v>1967</v>
       </c>
       <c r="E84">
-        <v>1.06</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F84">
         <v>1</v>
       </c>
       <c r="G84">
-        <v>7150.0000000000009</v>
+        <v>2783</v>
       </c>
       <c r="H84">
-        <v>165</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I84">
-        <v>4.2</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J84">
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.45">
@@ -7981,31 +8151,31 @@
         <v>68</v>
       </c>
       <c r="B85" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="C85" t="s">
         <v>12</v>
       </c>
       <c r="D85">
-        <v>1969</v>
+        <v>1975</v>
       </c>
       <c r="E85">
-        <v>0.38</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="F85">
         <v>1</v>
       </c>
       <c r="G85">
-        <v>7150.0000000000009</v>
+        <v>2783</v>
       </c>
       <c r="H85">
-        <v>165</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I85">
-        <v>4.2</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J85">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.45">
@@ -8013,22 +8183,22 @@
         <v>69</v>
       </c>
       <c r="B86" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C86" t="s">
         <v>12</v>
       </c>
       <c r="D86">
-        <v>1972</v>
+        <v>1984</v>
       </c>
       <c r="E86">
-        <v>0.38</v>
+        <v>1.2749999999999999</v>
       </c>
       <c r="F86">
         <v>1</v>
       </c>
       <c r="G86">
-        <v>7150.0000000000009</v>
+        <v>7150.0000000000018</v>
       </c>
       <c r="H86">
         <v>165</v>
@@ -8037,62 +8207,71 @@
         <v>4.2</v>
       </c>
       <c r="J86">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
+        <v>71</v>
+      </c>
+      <c r="B87" t="s">
         <v>70</v>
       </c>
-      <c r="B87" t="s">
-        <v>71</v>
-      </c>
       <c r="C87" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D87">
-        <v>2016</v>
+        <v>1979</v>
       </c>
       <c r="E87">
-        <v>4.9000000000000007E-3</v>
+        <v>1.06</v>
       </c>
       <c r="F87">
-        <v>0.33123000000000002</v>
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>7150.0000000000009</v>
+      </c>
+      <c r="H87">
+        <v>165</v>
+      </c>
+      <c r="I87">
+        <v>4.2</v>
       </c>
       <c r="J87">
-        <v>39</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B88" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C88" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D88">
-        <v>2009</v>
+        <v>1969</v>
       </c>
       <c r="E88">
-        <v>1.5E-3</v>
+        <v>0.38</v>
       </c>
       <c r="F88">
         <v>1</v>
       </c>
       <c r="G88">
-        <v>8167.5000000000027</v>
+        <v>7150.0000000000009</v>
       </c>
       <c r="H88">
-        <v>92.95</v>
+        <v>165</v>
       </c>
       <c r="I88">
-        <v>2.52</v>
+        <v>4.2</v>
       </c>
       <c r="J88">
-        <v>46</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.45">
@@ -8100,260 +8279,188 @@
         <v>73</v>
       </c>
       <c r="B89" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C89" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D89">
-        <v>2010</v>
+        <v>1972</v>
       </c>
       <c r="E89">
-        <v>2.3999999999999998E-3</v>
+        <v>0.38</v>
       </c>
       <c r="F89">
         <v>1</v>
       </c>
       <c r="G89">
-        <v>8167.5000000000018</v>
+        <v>7150.0000000000009</v>
       </c>
       <c r="H89">
-        <v>92.95</v>
+        <v>165</v>
       </c>
       <c r="I89">
-        <v>2.52</v>
+        <v>4.2</v>
       </c>
       <c r="J89">
-        <v>45</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B90" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C90" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D90">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="E90">
-        <v>7.1000000000000013E-3</v>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="F90">
         <v>1</v>
       </c>
       <c r="G90">
-        <v>8167.5</v>
+        <v>1336.5</v>
       </c>
       <c r="H90">
-        <v>92.949999999999989</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I90">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="J90">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B91" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C91" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D91">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="E91">
-        <v>2.5999999999999999E-2</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F91">
-        <v>1</v>
-      </c>
-      <c r="G91">
-        <v>8167.5000000000009</v>
-      </c>
-      <c r="H91">
-        <v>92.949999999999989</v>
-      </c>
-      <c r="I91">
-        <v>2.5200000000000005</v>
-      </c>
-      <c r="J91">
-        <v>43</v>
+        <v>0.33123000000000002</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B92" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C92" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D92">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="E92">
-        <v>1.4799999999999999E-2</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92">
-        <v>8167.5000000000027</v>
-      </c>
-      <c r="H92">
-        <v>92.950000000000017</v>
-      </c>
-      <c r="I92">
-        <v>2.5200000000000005</v>
-      </c>
-      <c r="J92">
-        <v>42</v>
+        <v>0.33123000000000002</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B93" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C93" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D93">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="E93">
-        <v>1E-3</v>
+        <v>7.1000000000000013E-3</v>
       </c>
       <c r="F93">
-        <v>1</v>
-      </c>
-      <c r="G93">
-        <v>8167.5000000000018</v>
-      </c>
-      <c r="H93">
-        <v>92.95</v>
-      </c>
-      <c r="I93">
-        <v>2.52</v>
-      </c>
-      <c r="J93">
-        <v>41</v>
+        <v>0.33122999999999997</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B94" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C94" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D94">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="E94">
-        <v>2.3500000000000004E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="F94">
-        <v>1</v>
-      </c>
-      <c r="G94">
-        <v>8167.5</v>
-      </c>
-      <c r="H94">
-        <v>92.95</v>
-      </c>
-      <c r="I94">
-        <v>2.52</v>
-      </c>
-      <c r="J94">
-        <v>40</v>
+        <v>0.33123000000000008</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B95" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C95" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D95">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="E95">
-        <v>1.44E-2</v>
+        <v>1.4799999999999999E-2</v>
       </c>
       <c r="F95">
-        <v>1</v>
-      </c>
-      <c r="G95">
-        <v>8167.5000000000009</v>
-      </c>
-      <c r="H95">
-        <v>92.95</v>
-      </c>
-      <c r="I95">
-        <v>2.5199999999999996</v>
-      </c>
-      <c r="J95">
-        <v>39</v>
+        <v>0.33123000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B96" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C96" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D96">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="E96">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F96">
-        <v>1</v>
-      </c>
-      <c r="G96">
-        <v>8167.5000000000018</v>
-      </c>
-      <c r="H96">
-        <v>92.95</v>
-      </c>
-      <c r="I96">
-        <v>2.52</v>
-      </c>
-      <c r="J96">
-        <v>34</v>
+        <v>0.33123000000000002</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B97" t="s">
         <v>75</v>
@@ -8362,30 +8469,18 @@
         <v>76</v>
       </c>
       <c r="D97">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="E97">
-        <v>1.6E-2</v>
+        <v>2.3500000000000004E-2</v>
       </c>
       <c r="F97">
-        <v>1</v>
-      </c>
-      <c r="G97">
-        <v>2376</v>
-      </c>
-      <c r="H97">
-        <v>57.2</v>
-      </c>
-      <c r="I97">
-        <v>2.52</v>
-      </c>
-      <c r="J97">
-        <v>45</v>
+        <v>0.33122999999999997</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B98" t="s">
         <v>75</v>
@@ -8394,30 +8489,18 @@
         <v>76</v>
       </c>
       <c r="D98">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E98">
-        <v>1.2E-2</v>
+        <v>1.44E-2</v>
       </c>
       <c r="F98">
-        <v>1</v>
-      </c>
-      <c r="G98">
-        <v>2376</v>
-      </c>
-      <c r="H98">
-        <v>57.20000000000001</v>
-      </c>
-      <c r="I98">
-        <v>2.52</v>
-      </c>
-      <c r="J98">
-        <v>40</v>
+        <v>0.33123000000000008</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B99" t="s">
         <v>75</v>
@@ -8426,30 +8509,18 @@
         <v>76</v>
       </c>
       <c r="D99">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="E99">
-        <v>1.2999999999999999E-2</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F99">
-        <v>1</v>
-      </c>
-      <c r="G99">
-        <v>2376</v>
-      </c>
-      <c r="H99">
-        <v>57.2</v>
-      </c>
-      <c r="I99">
-        <v>2.52</v>
-      </c>
-      <c r="J99">
-        <v>39</v>
+        <v>0.33123000000000002</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B100" t="s">
         <v>75</v>
@@ -8458,24 +8529,172 @@
         <v>76</v>
       </c>
       <c r="D100">
+        <v>2022</v>
+      </c>
+      <c r="E100">
+        <v>4.4311999999999996</v>
+      </c>
+      <c r="F100">
+        <v>0.33123000000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>79</v>
+      </c>
+      <c r="B101" t="s">
+        <v>80</v>
+      </c>
+      <c r="C101" t="s">
+        <v>81</v>
+      </c>
+      <c r="D101">
+        <v>2010</v>
+      </c>
+      <c r="E101">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>2376</v>
+      </c>
+      <c r="H101">
+        <v>57.2</v>
+      </c>
+      <c r="I101">
+        <v>2.52</v>
+      </c>
+      <c r="J101">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>79</v>
+      </c>
+      <c r="B102" t="s">
+        <v>80</v>
+      </c>
+      <c r="C102" t="s">
+        <v>81</v>
+      </c>
+      <c r="D102">
+        <v>2015</v>
+      </c>
+      <c r="E102">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>2376</v>
+      </c>
+      <c r="H102">
+        <v>57.20000000000001</v>
+      </c>
+      <c r="I102">
+        <v>2.52</v>
+      </c>
+      <c r="J102">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>79</v>
+      </c>
+      <c r="B103" t="s">
+        <v>80</v>
+      </c>
+      <c r="C103" t="s">
+        <v>81</v>
+      </c>
+      <c r="D103">
+        <v>2016</v>
+      </c>
+      <c r="E103">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>2376</v>
+      </c>
+      <c r="H103">
+        <v>57.2</v>
+      </c>
+      <c r="I103">
+        <v>2.52</v>
+      </c>
+      <c r="J103">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>79</v>
+      </c>
+      <c r="B104" t="s">
+        <v>80</v>
+      </c>
+      <c r="C104" t="s">
+        <v>81</v>
+      </c>
+      <c r="D104">
+        <v>2022</v>
+      </c>
+      <c r="E104">
+        <v>4.6999999999999993E-2</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>2376</v>
+      </c>
+      <c r="H104">
+        <v>57.2</v>
+      </c>
+      <c r="I104">
+        <v>2.52</v>
+      </c>
+      <c r="J104">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>79</v>
+      </c>
+      <c r="B105" t="s">
+        <v>80</v>
+      </c>
+      <c r="C105" t="s">
+        <v>81</v>
+      </c>
+      <c r="D105">
         <v>2023</v>
       </c>
-      <c r="E100">
+      <c r="E105">
         <v>1.4E-2</v>
       </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-      <c r="G100">
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105">
         <v>2376</v>
       </c>
-      <c r="H100">
+      <c r="H105">
         <v>57.2</v>
       </c>
-      <c r="I100">
+      <c r="I105">
         <v>2.52</v>
       </c>
-      <c r="J100">
+      <c r="J105">
         <v>32</v>
       </c>
     </row>

--- a/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7AF8402-9B11-428F-8E8B-26A4689BFD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6FAA00A-3686-4BAC-8991-878D777DA2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{17807D88-978F-4174-BF7B-745A9D330A9D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{A1E61A0C-96AA-411E-9932-7F921EB356EE}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="194">
   <si>
     <t>process</t>
   </si>
@@ -262,7 +262,7 @@
     <t>ep_nuclear_G100000500505</t>
   </si>
   <si>
-    <t>ep_solar_PV</t>
+    <t>ep_solar_pv</t>
   </si>
   <si>
     <t>solar</t>
@@ -271,10 +271,7 @@
     <t>ELC_Sol-CHE</t>
   </si>
   <si>
-    <t>ep_solar_solar</t>
-  </si>
-  <si>
-    <t>ep_solar_solar_</t>
+    <t>ep_solar_pv_</t>
   </si>
   <si>
     <t>ep_wind_onshore</t>
@@ -993,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD94CCF-F657-4CA3-B52A-DDC0E0B2656D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624CE7E4-2171-45A9-8059-8CCBF5896B5A}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1002,10 +999,10 @@
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" t="s">
         <v>152</v>
-      </c>
-      <c r="J2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
@@ -1028,33 +1025,33 @@
         <v>2050</v>
       </c>
       <c r="G3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K3" t="s">
         <v>0</v>
       </c>
       <c r="L3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" t="s">
         <v>83</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>84</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>85</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>86</v>
-      </c>
-      <c r="P3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1075,27 +1072,27 @@
         <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O4" t="s">
         <v>91</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>92</v>
-      </c>
-      <c r="P4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -1113,30 +1110,30 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O5" t="s">
         <v>91</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>92</v>
-      </c>
-      <c r="P5" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1157,27 +1154,27 @@
         <v>6</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" t="s">
         <v>91</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>92</v>
-      </c>
-      <c r="P6" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1198,27 +1195,27 @@
         <v>7</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
         <v>91</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>92</v>
-      </c>
-      <c r="P7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -1236,30 +1233,30 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
         <v>91</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>92</v>
-      </c>
-      <c r="P8" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -1280,27 +1277,27 @@
         <v>5</v>
       </c>
       <c r="J9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N9" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" t="s">
         <v>91</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>92</v>
-      </c>
-      <c r="P9" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1318,30 +1315,30 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N10" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" t="s">
         <v>91</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>92</v>
-      </c>
-      <c r="P10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -1362,27 +1359,27 @@
         <v>6</v>
       </c>
       <c r="J11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N11" t="s">
+        <v>90</v>
+      </c>
+      <c r="O11" t="s">
         <v>91</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>92</v>
-      </c>
-      <c r="P11" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -1403,27 +1400,27 @@
         <v>7</v>
       </c>
       <c r="J12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N12" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" t="s">
         <v>91</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>92</v>
-      </c>
-      <c r="P12" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -1441,30 +1438,30 @@
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O13" t="s">
         <v>91</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>92</v>
-      </c>
-      <c r="P13" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -1485,27 +1482,27 @@
         <v>5</v>
       </c>
       <c r="J14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N14" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14" t="s">
         <v>91</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>92</v>
-      </c>
-      <c r="P14" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -1523,30 +1520,30 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N15" t="s">
+        <v>90</v>
+      </c>
+      <c r="O15" t="s">
         <v>91</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>92</v>
-      </c>
-      <c r="P15" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -1567,27 +1564,27 @@
         <v>6</v>
       </c>
       <c r="J16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N16" t="s">
+        <v>90</v>
+      </c>
+      <c r="O16" t="s">
         <v>91</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>92</v>
-      </c>
-      <c r="P16" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -1608,27 +1605,27 @@
         <v>7</v>
       </c>
       <c r="J17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N17" t="s">
+        <v>90</v>
+      </c>
+      <c r="O17" t="s">
         <v>91</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>92</v>
-      </c>
-      <c r="P17" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -1646,30 +1643,30 @@
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N18" t="s">
+        <v>90</v>
+      </c>
+      <c r="O18" t="s">
         <v>91</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>92</v>
-      </c>
-      <c r="P18" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -1690,27 +1687,27 @@
         <v>5</v>
       </c>
       <c r="J19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N19" t="s">
+        <v>90</v>
+      </c>
+      <c r="O19" t="s">
         <v>91</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>92</v>
-      </c>
-      <c r="P19" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -1728,30 +1725,30 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="G20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N20" t="s">
+        <v>90</v>
+      </c>
+      <c r="O20" t="s">
         <v>91</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>92</v>
-      </c>
-      <c r="P20" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -1772,27 +1769,27 @@
         <v>6</v>
       </c>
       <c r="J21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N21" t="s">
+        <v>90</v>
+      </c>
+      <c r="O21" t="s">
         <v>91</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>92</v>
-      </c>
-      <c r="P21" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -1813,27 +1810,27 @@
         <v>7</v>
       </c>
       <c r="J22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N22" t="s">
+        <v>90</v>
+      </c>
+      <c r="O22" t="s">
         <v>91</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>92</v>
-      </c>
-      <c r="P22" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -1851,30 +1848,30 @@
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N23" t="s">
+        <v>90</v>
+      </c>
+      <c r="O23" t="s">
         <v>91</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>92</v>
-      </c>
-      <c r="P23" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -1895,27 +1892,27 @@
         <v>5</v>
       </c>
       <c r="J24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N24" t="s">
+        <v>90</v>
+      </c>
+      <c r="O24" t="s">
         <v>91</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>92</v>
-      </c>
-      <c r="P24" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -1936,27 +1933,27 @@
         <v>6</v>
       </c>
       <c r="J25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N25" t="s">
+        <v>90</v>
+      </c>
+      <c r="O25" t="s">
         <v>91</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>92</v>
-      </c>
-      <c r="P25" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
@@ -1977,27 +1974,27 @@
         <v>7</v>
       </c>
       <c r="J26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N26" t="s">
+        <v>90</v>
+      </c>
+      <c r="O26" t="s">
         <v>91</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>92</v>
-      </c>
-      <c r="P26" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
@@ -2018,27 +2015,27 @@
         <v>5</v>
       </c>
       <c r="J27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N27" t="s">
+        <v>90</v>
+      </c>
+      <c r="O27" t="s">
         <v>91</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>92</v>
-      </c>
-      <c r="P27" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -2059,27 +2056,27 @@
         <v>6</v>
       </c>
       <c r="J28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N28" t="s">
+        <v>90</v>
+      </c>
+      <c r="O28" t="s">
         <v>91</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>92</v>
-      </c>
-      <c r="P28" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
@@ -2100,27 +2097,27 @@
         <v>7</v>
       </c>
       <c r="J29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N29" t="s">
+        <v>90</v>
+      </c>
+      <c r="O29" t="s">
         <v>91</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>92</v>
-      </c>
-      <c r="P29" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
@@ -2143,7 +2140,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
@@ -2166,7 +2163,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
@@ -2189,10 +2186,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33" t="s">
         <v>172</v>
-      </c>
-      <c r="B33" t="s">
-        <v>173</v>
       </c>
       <c r="C33" t="s">
         <v>12</v>
@@ -2212,10 +2209,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
+        <v>171</v>
+      </c>
+      <c r="B34" t="s">
         <v>172</v>
-      </c>
-      <c r="B34" t="s">
-        <v>173</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
@@ -2235,10 +2232,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
+        <v>171</v>
+      </c>
+      <c r="B35" t="s">
         <v>172</v>
-      </c>
-      <c r="B35" t="s">
-        <v>173</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
@@ -2258,7 +2255,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B36" t="s">
         <v>75</v>
@@ -2281,7 +2278,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B37" t="s">
         <v>75</v>
@@ -2299,12 +2296,12 @@
         <v>0.42</v>
       </c>
       <c r="G37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B38" t="s">
         <v>75</v>
@@ -2327,7 +2324,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B39" t="s">
         <v>75</v>
@@ -2350,7 +2347,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B40" t="s">
         <v>75</v>
@@ -2368,15 +2365,15 @@
         <v>3</v>
       </c>
       <c r="G40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
+        <v>174</v>
+      </c>
+      <c r="B41" t="s">
         <v>175</v>
-      </c>
-      <c r="B41" t="s">
-        <v>176</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
@@ -2396,10 +2393,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
+        <v>174</v>
+      </c>
+      <c r="B42" t="s">
         <v>175</v>
-      </c>
-      <c r="B42" t="s">
-        <v>176</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
@@ -2419,10 +2416,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
+        <v>174</v>
+      </c>
+      <c r="B43" t="s">
         <v>175</v>
-      </c>
-      <c r="B43" t="s">
-        <v>176</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
@@ -2442,7 +2439,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
@@ -2465,7 +2462,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B45" t="s">
         <v>14</v>
@@ -2488,7 +2485,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B46" t="s">
         <v>14</v>
@@ -2511,10 +2508,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
+        <v>177</v>
+      </c>
+      <c r="B47" t="s">
         <v>178</v>
-      </c>
-      <c r="B47" t="s">
-        <v>179</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
@@ -2534,10 +2531,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
+        <v>177</v>
+      </c>
+      <c r="B48" t="s">
         <v>178</v>
-      </c>
-      <c r="B48" t="s">
-        <v>179</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
@@ -2552,15 +2549,15 @@
         <v>0.85000000000000009</v>
       </c>
       <c r="G48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
+        <v>177</v>
+      </c>
+      <c r="B49" t="s">
         <v>178</v>
-      </c>
-      <c r="B49" t="s">
-        <v>179</v>
       </c>
       <c r="C49" t="s">
         <v>12</v>
@@ -2580,10 +2577,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
+        <v>177</v>
+      </c>
+      <c r="B50" t="s">
         <v>178</v>
-      </c>
-      <c r="B50" t="s">
-        <v>179</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
@@ -2603,10 +2600,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
+        <v>177</v>
+      </c>
+      <c r="B51" t="s">
         <v>178</v>
-      </c>
-      <c r="B51" t="s">
-        <v>179</v>
       </c>
       <c r="C51" t="s">
         <v>12</v>
@@ -2621,12 +2618,12 @@
         <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B52" t="s">
         <v>18</v>
@@ -2649,7 +2646,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B53" t="s">
         <v>18</v>
@@ -2667,12 +2664,12 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="G53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B54" t="s">
         <v>18</v>
@@ -2695,7 +2692,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B55" t="s">
         <v>18</v>
@@ -2718,7 +2715,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B56" t="s">
         <v>18</v>
@@ -2736,12 +2733,12 @@
         <v>4</v>
       </c>
       <c r="G56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B57" t="s">
         <v>18</v>
@@ -2764,7 +2761,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B58" t="s">
         <v>18</v>
@@ -2782,12 +2779,12 @@
         <v>0.25</v>
       </c>
       <c r="G58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B59" t="s">
         <v>18</v>
@@ -2810,7 +2807,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B60" t="s">
         <v>18</v>
@@ -2833,7 +2830,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B61" t="s">
         <v>18</v>
@@ -2851,12 +2848,12 @@
         <v>4</v>
       </c>
       <c r="G61" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
@@ -2879,7 +2876,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B63" t="s">
         <v>14</v>
@@ -2902,7 +2899,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B64" t="s">
         <v>14</v>
@@ -2925,10 +2922,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B65" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C65" t="s">
         <v>12</v>
@@ -2948,10 +2945,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C66" t="s">
         <v>12</v>
@@ -2971,10 +2968,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B67" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C67" t="s">
         <v>12</v>
@@ -2994,10 +2991,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
+        <v>183</v>
+      </c>
+      <c r="B68" t="s">
         <v>184</v>
-      </c>
-      <c r="B68" t="s">
-        <v>185</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
@@ -3017,10 +3014,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
+        <v>183</v>
+      </c>
+      <c r="B69" t="s">
         <v>184</v>
-      </c>
-      <c r="B69" t="s">
-        <v>185</v>
       </c>
       <c r="C69" t="s">
         <v>12</v>
@@ -3035,15 +3032,15 @@
         <v>0.25</v>
       </c>
       <c r="G69" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
+        <v>183</v>
+      </c>
+      <c r="B70" t="s">
         <v>184</v>
-      </c>
-      <c r="B70" t="s">
-        <v>185</v>
       </c>
       <c r="C70" t="s">
         <v>12</v>
@@ -3063,10 +3060,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
+        <v>183</v>
+      </c>
+      <c r="B71" t="s">
         <v>184</v>
-      </c>
-      <c r="B71" t="s">
-        <v>185</v>
       </c>
       <c r="C71" t="s">
         <v>12</v>
@@ -3086,10 +3083,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
+        <v>183</v>
+      </c>
+      <c r="B72" t="s">
         <v>184</v>
-      </c>
-      <c r="B72" t="s">
-        <v>185</v>
       </c>
       <c r="C72" t="s">
         <v>12</v>
@@ -3104,12 +3101,12 @@
         <v>4</v>
       </c>
       <c r="G72" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B73" t="s">
         <v>70</v>
@@ -3132,7 +3129,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B74" t="s">
         <v>70</v>
@@ -3155,7 +3152,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B75" t="s">
         <v>70</v>
@@ -3178,10 +3175,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B76" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C76" t="s">
         <v>12</v>
@@ -3201,10 +3198,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B77" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C77" t="s">
         <v>12</v>
@@ -3224,10 +3221,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B78" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C78" t="s">
         <v>12</v>
@@ -3247,7 +3244,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B79" t="s">
         <v>75</v>
@@ -3270,7 +3267,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B80" t="s">
         <v>75</v>
@@ -3288,12 +3285,12 @@
         <v>0.13</v>
       </c>
       <c r="G80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B81" t="s">
         <v>75</v>
@@ -3316,7 +3313,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B82" t="s">
         <v>75</v>
@@ -3339,7 +3336,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B83" t="s">
         <v>75</v>
@@ -3357,12 +3354,12 @@
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B84" t="s">
         <v>75</v>
@@ -3385,7 +3382,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B85" t="s">
         <v>75</v>
@@ -3403,12 +3400,12 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G85" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B86" t="s">
         <v>75</v>
@@ -3431,7 +3428,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B87" t="s">
         <v>75</v>
@@ -3454,7 +3451,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B88" t="s">
         <v>75</v>
@@ -3472,15 +3469,15 @@
         <v>1.5</v>
       </c>
       <c r="G88" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B89" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C89" t="s">
         <v>12</v>
@@ -3500,10 +3497,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B90" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C90" t="s">
         <v>12</v>
@@ -3523,10 +3520,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B91" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C91" t="s">
         <v>12</v>
@@ -3546,10 +3543,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C92" t="s">
         <v>12</v>
@@ -3569,10 +3566,10 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B93" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C93" t="s">
         <v>12</v>
@@ -3592,10 +3589,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B94" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C94" t="s">
         <v>12</v>
@@ -3615,10 +3612,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B95" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C95" t="s">
         <v>12</v>
@@ -3638,10 +3635,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B96" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C96" t="s">
         <v>12</v>
@@ -3661,10 +3658,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B97" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" t="s">
         <v>12</v>
@@ -3684,10 +3681,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B98" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C98" t="s">
         <v>12</v>
@@ -3707,10 +3704,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B99" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C99" t="s">
         <v>12</v>
@@ -3725,15 +3722,15 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G99" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B100" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C100" t="s">
         <v>12</v>
@@ -3753,10 +3750,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B101" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C101" t="s">
         <v>12</v>
@@ -3776,10 +3773,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B102" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C102" t="s">
         <v>12</v>
@@ -3794,15 +3791,15 @@
         <v>3</v>
       </c>
       <c r="G102" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B103" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C103" t="s">
         <v>12</v>
@@ -3822,10 +3819,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B104" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C104" t="s">
         <v>12</v>
@@ -3840,15 +3837,15 @@
         <v>0.3</v>
       </c>
       <c r="G104" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B105" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C105" t="s">
         <v>12</v>
@@ -3868,10 +3865,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B106" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C106" t="s">
         <v>12</v>
@@ -3891,10 +3888,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B107" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C107" t="s">
         <v>12</v>
@@ -3909,7 +3906,7 @@
         <v>1.5</v>
       </c>
       <c r="G107" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3918,7 +3915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAF8194-9299-4BAD-B305-172258ED29A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570FFE86-4EFE-40A8-9EAB-0DD1B2333243}">
   <dimension ref="A2:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3927,10 +3924,10 @@
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N2" t="s">
         <v>152</v>
-      </c>
-      <c r="N2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.45">
@@ -3956,42 +3953,42 @@
         <v>8</v>
       </c>
       <c r="H3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" t="s">
         <v>154</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>155</v>
-      </c>
-      <c r="J3" t="s">
-        <v>156</v>
       </c>
       <c r="K3" t="s">
         <v>9</v>
       </c>
       <c r="N3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O3" t="s">
         <v>0</v>
       </c>
       <c r="P3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q3" t="s">
         <v>83</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>84</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>85</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>86</v>
-      </c>
-      <c r="T3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -4024,30 +4021,30 @@
         <v>20</v>
       </c>
       <c r="N4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R4" t="s">
+        <v>90</v>
+      </c>
+      <c r="S4" t="s">
         <v>91</v>
       </c>
-      <c r="S4" t="s">
-        <v>92</v>
-      </c>
       <c r="T4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -4080,30 +4077,30 @@
         <v>20</v>
       </c>
       <c r="N5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R5" t="s">
+        <v>90</v>
+      </c>
+      <c r="S5" t="s">
         <v>91</v>
       </c>
-      <c r="S5" t="s">
-        <v>92</v>
-      </c>
       <c r="T5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -4136,25 +4133,25 @@
         <v>20</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R6" t="s">
+        <v>90</v>
+      </c>
+      <c r="S6" t="s">
         <v>91</v>
       </c>
-      <c r="S6" t="s">
-        <v>92</v>
-      </c>
       <c r="T6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -4163,8 +4160,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0FE5B6-C5A8-49A8-AD00-76F978CB24E6}">
-  <dimension ref="A2:S105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9F8961-CFCE-4FF4-AD61-0E55BC62CB03}">
+  <dimension ref="A2:S104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4172,10 +4169,10 @@
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M2" t="s">
         <v>152</v>
-      </c>
-      <c r="M2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.45">
@@ -4210,25 +4207,25 @@
         <v>9</v>
       </c>
       <c r="M3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N3" t="s">
         <v>0</v>
       </c>
       <c r="O3" t="s">
+        <v>82</v>
+      </c>
+      <c r="P3" t="s">
         <v>83</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>84</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>85</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>86</v>
-      </c>
-      <c r="S3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.45">
@@ -4263,25 +4260,25 @@
         <v>50</v>
       </c>
       <c r="M4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N4" t="s">
         <v>10</v>
       </c>
       <c r="O4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q4" t="s">
+        <v>90</v>
+      </c>
+      <c r="R4" t="s">
         <v>91</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>92</v>
-      </c>
-      <c r="S4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.45">
@@ -4316,25 +4313,25 @@
         <v>67</v>
       </c>
       <c r="M5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N5" t="s">
         <v>13</v>
       </c>
       <c r="O5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q5" t="s">
+        <v>90</v>
+      </c>
+      <c r="R5" t="s">
         <v>91</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>92</v>
-      </c>
-      <c r="S5" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.45">
@@ -4369,25 +4366,25 @@
         <v>50</v>
       </c>
       <c r="M6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N6" t="s">
         <v>15</v>
       </c>
       <c r="O6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q6" t="s">
+        <v>90</v>
+      </c>
+      <c r="R6" t="s">
         <v>91</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>92</v>
-      </c>
-      <c r="S6" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.45">
@@ -4422,25 +4419,25 @@
         <v>50</v>
       </c>
       <c r="M7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N7" t="s">
         <v>16</v>
       </c>
       <c r="O7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q7" t="s">
+        <v>90</v>
+      </c>
+      <c r="R7" t="s">
         <v>91</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>92</v>
-      </c>
-      <c r="S7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.45">
@@ -4475,25 +4472,25 @@
         <v>40</v>
       </c>
       <c r="M8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N8" t="s">
         <v>17</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q8" t="s">
+        <v>90</v>
+      </c>
+      <c r="R8" t="s">
         <v>91</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>92</v>
-      </c>
-      <c r="S8" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.45">
@@ -4528,25 +4525,25 @@
         <v>148</v>
       </c>
       <c r="M9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N9" t="s">
         <v>19</v>
       </c>
       <c r="O9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q9" t="s">
+        <v>90</v>
+      </c>
+      <c r="R9" t="s">
         <v>91</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>92</v>
-      </c>
-      <c r="S9" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.45">
@@ -4581,25 +4578,25 @@
         <v>134</v>
       </c>
       <c r="M10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N10" t="s">
         <v>20</v>
       </c>
       <c r="O10" t="s">
+        <v>96</v>
+      </c>
+      <c r="P10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>90</v>
+      </c>
+      <c r="R10" t="s">
+        <v>91</v>
+      </c>
+      <c r="S10" t="s">
         <v>97</v>
-      </c>
-      <c r="P10" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>91</v>
-      </c>
-      <c r="R10" t="s">
-        <v>92</v>
-      </c>
-      <c r="S10" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.45">
@@ -4634,25 +4631,25 @@
         <v>129</v>
       </c>
       <c r="M11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N11" t="s">
         <v>21</v>
       </c>
       <c r="O11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q11" t="s">
+        <v>90</v>
+      </c>
+      <c r="R11" t="s">
         <v>91</v>
       </c>
-      <c r="R11" t="s">
-        <v>92</v>
-      </c>
       <c r="S11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.45">
@@ -4687,25 +4684,25 @@
         <v>108</v>
       </c>
       <c r="M12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N12" t="s">
         <v>22</v>
       </c>
       <c r="O12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q12" t="s">
+        <v>90</v>
+      </c>
+      <c r="R12" t="s">
         <v>91</v>
       </c>
-      <c r="R12" t="s">
-        <v>92</v>
-      </c>
       <c r="S12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.45">
@@ -4740,25 +4737,25 @@
         <v>101</v>
       </c>
       <c r="M13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N13" t="s">
         <v>23</v>
       </c>
       <c r="O13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q13" t="s">
+        <v>90</v>
+      </c>
+      <c r="R13" t="s">
         <v>91</v>
       </c>
-      <c r="R13" t="s">
-        <v>92</v>
-      </c>
       <c r="S13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.45">
@@ -4793,25 +4790,25 @@
         <v>100</v>
       </c>
       <c r="M14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N14" t="s">
         <v>24</v>
       </c>
       <c r="O14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q14" t="s">
+        <v>90</v>
+      </c>
+      <c r="R14" t="s">
         <v>91</v>
       </c>
-      <c r="R14" t="s">
-        <v>92</v>
-      </c>
       <c r="S14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.45">
@@ -4846,25 +4843,25 @@
         <v>100</v>
       </c>
       <c r="M15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N15" t="s">
         <v>25</v>
       </c>
       <c r="O15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q15" t="s">
+        <v>90</v>
+      </c>
+      <c r="R15" t="s">
         <v>91</v>
       </c>
-      <c r="R15" t="s">
-        <v>92</v>
-      </c>
       <c r="S15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.45">
@@ -4899,25 +4896,25 @@
         <v>100</v>
       </c>
       <c r="M16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N16" t="s">
         <v>26</v>
       </c>
       <c r="O16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q16" t="s">
+        <v>90</v>
+      </c>
+      <c r="R16" t="s">
         <v>91</v>
       </c>
-      <c r="R16" t="s">
-        <v>92</v>
-      </c>
       <c r="S16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.45">
@@ -4952,25 +4949,25 @@
         <v>100</v>
       </c>
       <c r="M17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N17" t="s">
         <v>27</v>
       </c>
       <c r="O17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q17" t="s">
+        <v>90</v>
+      </c>
+      <c r="R17" t="s">
         <v>91</v>
       </c>
-      <c r="R17" t="s">
-        <v>92</v>
-      </c>
       <c r="S17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.45">
@@ -5005,25 +5002,25 @@
         <v>100</v>
       </c>
       <c r="M18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N18" t="s">
         <v>28</v>
       </c>
       <c r="O18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q18" t="s">
+        <v>90</v>
+      </c>
+      <c r="R18" t="s">
         <v>91</v>
       </c>
-      <c r="R18" t="s">
-        <v>92</v>
-      </c>
       <c r="S18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.45">
@@ -5058,25 +5055,25 @@
         <v>100</v>
       </c>
       <c r="M19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N19" t="s">
         <v>29</v>
       </c>
       <c r="O19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q19" t="s">
+        <v>90</v>
+      </c>
+      <c r="R19" t="s">
         <v>91</v>
       </c>
-      <c r="R19" t="s">
-        <v>92</v>
-      </c>
       <c r="S19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.45">
@@ -5111,25 +5108,25 @@
         <v>100</v>
       </c>
       <c r="M20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N20" t="s">
         <v>30</v>
       </c>
       <c r="O20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q20" t="s">
+        <v>90</v>
+      </c>
+      <c r="R20" t="s">
         <v>91</v>
       </c>
-      <c r="R20" t="s">
-        <v>92</v>
-      </c>
       <c r="S20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.45">
@@ -5164,25 +5161,25 @@
         <v>100</v>
       </c>
       <c r="M21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N21" t="s">
         <v>31</v>
       </c>
       <c r="O21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q21" t="s">
+        <v>90</v>
+      </c>
+      <c r="R21" t="s">
         <v>91</v>
       </c>
-      <c r="R21" t="s">
-        <v>92</v>
-      </c>
       <c r="S21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.45">
@@ -5217,25 +5214,25 @@
         <v>132</v>
       </c>
       <c r="M22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N22" t="s">
         <v>32</v>
       </c>
       <c r="O22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q22" t="s">
+        <v>90</v>
+      </c>
+      <c r="R22" t="s">
         <v>91</v>
       </c>
-      <c r="R22" t="s">
-        <v>92</v>
-      </c>
       <c r="S22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.45">
@@ -5270,25 +5267,25 @@
         <v>100</v>
       </c>
       <c r="M23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N23" t="s">
         <v>33</v>
       </c>
       <c r="O23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q23" t="s">
+        <v>90</v>
+      </c>
+      <c r="R23" t="s">
         <v>91</v>
       </c>
-      <c r="R23" t="s">
-        <v>92</v>
-      </c>
       <c r="S23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.45">
@@ -5323,25 +5320,25 @@
         <v>100</v>
       </c>
       <c r="M24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N24" t="s">
         <v>34</v>
       </c>
       <c r="O24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q24" t="s">
+        <v>90</v>
+      </c>
+      <c r="R24" t="s">
         <v>91</v>
       </c>
-      <c r="R24" t="s">
-        <v>92</v>
-      </c>
       <c r="S24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.45">
@@ -5376,25 +5373,25 @@
         <v>100</v>
       </c>
       <c r="M25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N25" t="s">
         <v>35</v>
       </c>
       <c r="O25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q25" t="s">
+        <v>90</v>
+      </c>
+      <c r="R25" t="s">
         <v>91</v>
       </c>
-      <c r="R25" t="s">
-        <v>92</v>
-      </c>
       <c r="S25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.45">
@@ -5429,25 +5426,25 @@
         <v>100</v>
       </c>
       <c r="M26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N26" t="s">
         <v>36</v>
       </c>
       <c r="O26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q26" t="s">
+        <v>90</v>
+      </c>
+      <c r="R26" t="s">
         <v>91</v>
       </c>
-      <c r="R26" t="s">
-        <v>92</v>
-      </c>
       <c r="S26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.45">
@@ -5482,25 +5479,25 @@
         <v>100</v>
       </c>
       <c r="M27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N27" t="s">
         <v>37</v>
       </c>
       <c r="O27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q27" t="s">
+        <v>90</v>
+      </c>
+      <c r="R27" t="s">
         <v>91</v>
       </c>
-      <c r="R27" t="s">
-        <v>92</v>
-      </c>
       <c r="S27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.45">
@@ -5535,25 +5532,25 @@
         <v>100</v>
       </c>
       <c r="M28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N28" t="s">
         <v>38</v>
       </c>
       <c r="O28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q28" t="s">
+        <v>90</v>
+      </c>
+      <c r="R28" t="s">
         <v>91</v>
       </c>
-      <c r="R28" t="s">
-        <v>92</v>
-      </c>
       <c r="S28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.45">
@@ -5588,25 +5585,25 @@
         <v>100</v>
       </c>
       <c r="M29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N29" t="s">
         <v>39</v>
       </c>
       <c r="O29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q29" t="s">
+        <v>90</v>
+      </c>
+      <c r="R29" t="s">
         <v>91</v>
       </c>
-      <c r="R29" t="s">
-        <v>92</v>
-      </c>
       <c r="S29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.45">
@@ -5641,25 +5638,25 @@
         <v>100</v>
       </c>
       <c r="M30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N30" t="s">
         <v>40</v>
       </c>
       <c r="O30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q30" t="s">
+        <v>90</v>
+      </c>
+      <c r="R30" t="s">
         <v>91</v>
       </c>
-      <c r="R30" t="s">
-        <v>92</v>
-      </c>
       <c r="S30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.45">
@@ -5694,25 +5691,25 @@
         <v>100</v>
       </c>
       <c r="M31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N31" t="s">
         <v>41</v>
       </c>
       <c r="O31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q31" t="s">
+        <v>90</v>
+      </c>
+      <c r="R31" t="s">
         <v>91</v>
       </c>
-      <c r="R31" t="s">
-        <v>92</v>
-      </c>
       <c r="S31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.45">
@@ -5747,25 +5744,25 @@
         <v>100</v>
       </c>
       <c r="M32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N32" t="s">
         <v>42</v>
       </c>
       <c r="O32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q32" t="s">
+        <v>90</v>
+      </c>
+      <c r="R32" t="s">
         <v>91</v>
       </c>
-      <c r="R32" t="s">
-        <v>92</v>
-      </c>
       <c r="S32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.45">
@@ -5800,25 +5797,25 @@
         <v>100</v>
       </c>
       <c r="M33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N33" t="s">
         <v>43</v>
       </c>
       <c r="O33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q33" t="s">
+        <v>90</v>
+      </c>
+      <c r="R33" t="s">
         <v>91</v>
       </c>
-      <c r="R33" t="s">
-        <v>92</v>
-      </c>
       <c r="S33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.45">
@@ -5853,25 +5850,25 @@
         <v>100</v>
       </c>
       <c r="M34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N34" t="s">
         <v>44</v>
       </c>
       <c r="O34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q34" t="s">
+        <v>90</v>
+      </c>
+      <c r="R34" t="s">
         <v>91</v>
       </c>
-      <c r="R34" t="s">
-        <v>92</v>
-      </c>
       <c r="S34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.45">
@@ -5906,25 +5903,25 @@
         <v>100</v>
       </c>
       <c r="M35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N35" t="s">
         <v>45</v>
       </c>
       <c r="O35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q35" t="s">
+        <v>90</v>
+      </c>
+      <c r="R35" t="s">
         <v>91</v>
       </c>
-      <c r="R35" t="s">
-        <v>92</v>
-      </c>
       <c r="S35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.45">
@@ -5959,25 +5956,25 @@
         <v>127</v>
       </c>
       <c r="M36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N36" t="s">
         <v>46</v>
       </c>
       <c r="O36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q36" t="s">
+        <v>90</v>
+      </c>
+      <c r="R36" t="s">
         <v>91</v>
       </c>
-      <c r="R36" t="s">
-        <v>92</v>
-      </c>
       <c r="S36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.45">
@@ -6012,25 +6009,25 @@
         <v>105</v>
       </c>
       <c r="M37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N37" t="s">
         <v>47</v>
       </c>
       <c r="O37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q37" t="s">
+        <v>90</v>
+      </c>
+      <c r="R37" t="s">
         <v>91</v>
       </c>
-      <c r="R37" t="s">
-        <v>92</v>
-      </c>
       <c r="S37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.45">
@@ -6065,25 +6062,25 @@
         <v>100</v>
       </c>
       <c r="M38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N38" t="s">
         <v>48</v>
       </c>
       <c r="O38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q38" t="s">
+        <v>90</v>
+      </c>
+      <c r="R38" t="s">
         <v>91</v>
       </c>
-      <c r="R38" t="s">
-        <v>92</v>
-      </c>
       <c r="S38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.45">
@@ -6118,25 +6115,25 @@
         <v>112</v>
       </c>
       <c r="M39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N39" t="s">
         <v>49</v>
       </c>
       <c r="O39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q39" t="s">
+        <v>90</v>
+      </c>
+      <c r="R39" t="s">
         <v>91</v>
       </c>
-      <c r="R39" t="s">
-        <v>92</v>
-      </c>
       <c r="S39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.45">
@@ -6171,25 +6168,25 @@
         <v>100</v>
       </c>
       <c r="M40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N40" t="s">
         <v>50</v>
       </c>
       <c r="O40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q40" t="s">
+        <v>90</v>
+      </c>
+      <c r="R40" t="s">
         <v>91</v>
       </c>
-      <c r="R40" t="s">
-        <v>92</v>
-      </c>
       <c r="S40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.45">
@@ -6224,25 +6221,25 @@
         <v>100</v>
       </c>
       <c r="M41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N41" t="s">
         <v>51</v>
       </c>
       <c r="O41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q41" t="s">
+        <v>90</v>
+      </c>
+      <c r="R41" t="s">
         <v>91</v>
       </c>
-      <c r="R41" t="s">
-        <v>92</v>
-      </c>
       <c r="S41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.45">
@@ -6277,25 +6274,25 @@
         <v>145</v>
       </c>
       <c r="M42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N42" t="s">
         <v>52</v>
       </c>
       <c r="O42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q42" t="s">
+        <v>90</v>
+      </c>
+      <c r="R42" t="s">
         <v>91</v>
       </c>
-      <c r="R42" t="s">
-        <v>92</v>
-      </c>
       <c r="S42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.45">
@@ -6330,25 +6327,25 @@
         <v>100</v>
       </c>
       <c r="M43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N43" t="s">
         <v>53</v>
       </c>
       <c r="O43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q43" t="s">
+        <v>90</v>
+      </c>
+      <c r="R43" t="s">
         <v>91</v>
       </c>
-      <c r="R43" t="s">
-        <v>92</v>
-      </c>
       <c r="S43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.45">
@@ -6383,25 +6380,25 @@
         <v>100</v>
       </c>
       <c r="M44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N44" t="s">
         <v>54</v>
       </c>
       <c r="O44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q44" t="s">
+        <v>90</v>
+      </c>
+      <c r="R44" t="s">
         <v>91</v>
       </c>
-      <c r="R44" t="s">
-        <v>92</v>
-      </c>
       <c r="S44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.45">
@@ -6436,25 +6433,25 @@
         <v>100</v>
       </c>
       <c r="M45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N45" t="s">
         <v>55</v>
       </c>
       <c r="O45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q45" t="s">
+        <v>90</v>
+      </c>
+      <c r="R45" t="s">
         <v>91</v>
       </c>
-      <c r="R45" t="s">
-        <v>92</v>
-      </c>
       <c r="S45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.45">
@@ -6489,25 +6486,25 @@
         <v>100</v>
       </c>
       <c r="M46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N46" t="s">
         <v>56</v>
       </c>
       <c r="O46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q46" t="s">
+        <v>90</v>
+      </c>
+      <c r="R46" t="s">
         <v>91</v>
       </c>
-      <c r="R46" t="s">
+      <c r="S46" t="s">
         <v>92</v>
-      </c>
-      <c r="S46" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.45">
@@ -6542,25 +6539,25 @@
         <v>100</v>
       </c>
       <c r="M47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N47" t="s">
         <v>57</v>
       </c>
       <c r="O47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q47" t="s">
+        <v>90</v>
+      </c>
+      <c r="R47" t="s">
         <v>91</v>
       </c>
-      <c r="R47" t="s">
-        <v>92</v>
-      </c>
       <c r="S47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.45">
@@ -6595,25 +6592,25 @@
         <v>100</v>
       </c>
       <c r="M48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N48" t="s">
         <v>58</v>
       </c>
       <c r="O48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q48" t="s">
+        <v>90</v>
+      </c>
+      <c r="R48" t="s">
         <v>91</v>
       </c>
-      <c r="R48" t="s">
-        <v>92</v>
-      </c>
       <c r="S48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.45">
@@ -6648,25 +6645,25 @@
         <v>100</v>
       </c>
       <c r="M49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N49" t="s">
         <v>59</v>
       </c>
       <c r="O49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q49" t="s">
+        <v>90</v>
+      </c>
+      <c r="R49" t="s">
         <v>91</v>
       </c>
-      <c r="R49" t="s">
-        <v>92</v>
-      </c>
       <c r="S49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.45">
@@ -6701,25 +6698,25 @@
         <v>100</v>
       </c>
       <c r="M50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N50" t="s">
         <v>60</v>
       </c>
       <c r="O50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q50" t="s">
+        <v>90</v>
+      </c>
+      <c r="R50" t="s">
         <v>91</v>
       </c>
-      <c r="R50" t="s">
-        <v>92</v>
-      </c>
       <c r="S50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.45">
@@ -6754,25 +6751,25 @@
         <v>100</v>
       </c>
       <c r="M51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N51" t="s">
         <v>61</v>
       </c>
       <c r="O51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q51" t="s">
+        <v>90</v>
+      </c>
+      <c r="R51" t="s">
         <v>91</v>
       </c>
-      <c r="R51" t="s">
-        <v>92</v>
-      </c>
       <c r="S51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.45">
@@ -6807,25 +6804,25 @@
         <v>100</v>
       </c>
       <c r="M52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N52" t="s">
         <v>62</v>
       </c>
       <c r="O52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q52" t="s">
+        <v>90</v>
+      </c>
+      <c r="R52" t="s">
         <v>91</v>
       </c>
-      <c r="R52" t="s">
-        <v>92</v>
-      </c>
       <c r="S52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.45">
@@ -6860,25 +6857,25 @@
         <v>100</v>
       </c>
       <c r="M53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N53" t="s">
         <v>63</v>
       </c>
       <c r="O53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q53" t="s">
+        <v>90</v>
+      </c>
+      <c r="R53" t="s">
         <v>91</v>
       </c>
-      <c r="R53" t="s">
-        <v>92</v>
-      </c>
       <c r="S53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.45">
@@ -6913,25 +6910,25 @@
         <v>100</v>
       </c>
       <c r="M54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N54" t="s">
         <v>64</v>
       </c>
       <c r="O54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q54" t="s">
+        <v>90</v>
+      </c>
+      <c r="R54" t="s">
         <v>91</v>
       </c>
-      <c r="R54" t="s">
-        <v>92</v>
-      </c>
       <c r="S54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.45">
@@ -6966,25 +6963,25 @@
         <v>102</v>
       </c>
       <c r="M55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N55" t="s">
         <v>65</v>
       </c>
       <c r="O55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q55" t="s">
+        <v>90</v>
+      </c>
+      <c r="R55" t="s">
         <v>91</v>
       </c>
-      <c r="R55" t="s">
-        <v>92</v>
-      </c>
       <c r="S55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.45">
@@ -7019,25 +7016,25 @@
         <v>112</v>
       </c>
       <c r="M56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N56" t="s">
         <v>66</v>
       </c>
       <c r="O56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q56" t="s">
+        <v>90</v>
+      </c>
+      <c r="R56" t="s">
         <v>91</v>
       </c>
-      <c r="R56" t="s">
-        <v>92</v>
-      </c>
       <c r="S56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.45">
@@ -7072,25 +7069,25 @@
         <v>127</v>
       </c>
       <c r="M57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N57" t="s">
         <v>67</v>
       </c>
       <c r="O57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q57" t="s">
+        <v>90</v>
+      </c>
+      <c r="R57" t="s">
         <v>91</v>
       </c>
-      <c r="R57" t="s">
-        <v>92</v>
-      </c>
       <c r="S57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.45">
@@ -7125,25 +7122,25 @@
         <v>129</v>
       </c>
       <c r="M58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N58" t="s">
         <v>68</v>
       </c>
       <c r="O58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q58" t="s">
+        <v>90</v>
+      </c>
+      <c r="R58" t="s">
         <v>91</v>
       </c>
-      <c r="R58" t="s">
+      <c r="S58" t="s">
         <v>92</v>
-      </c>
-      <c r="S58" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.45">
@@ -7178,25 +7175,25 @@
         <v>100</v>
       </c>
       <c r="M59" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N59" t="s">
         <v>69</v>
       </c>
       <c r="O59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q59" t="s">
+        <v>90</v>
+      </c>
+      <c r="R59" t="s">
         <v>91</v>
       </c>
-      <c r="R59" t="s">
-        <v>92</v>
-      </c>
       <c r="S59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.45">
@@ -7231,25 +7228,25 @@
         <v>100</v>
       </c>
       <c r="M60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N60" t="s">
         <v>71</v>
       </c>
       <c r="O60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q60" t="s">
+        <v>90</v>
+      </c>
+      <c r="R60" t="s">
         <v>91</v>
       </c>
-      <c r="R60" t="s">
-        <v>92</v>
-      </c>
       <c r="S60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.45">
@@ -7284,25 +7281,25 @@
         <v>100</v>
       </c>
       <c r="M61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N61" t="s">
         <v>72</v>
       </c>
       <c r="O61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P61" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q61" t="s">
+        <v>90</v>
+      </c>
+      <c r="R61" t="s">
         <v>91</v>
       </c>
-      <c r="R61" t="s">
-        <v>92</v>
-      </c>
       <c r="S61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.45">
@@ -7337,25 +7334,25 @@
         <v>100</v>
       </c>
       <c r="M62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N62" t="s">
         <v>73</v>
       </c>
       <c r="O62" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q62" t="s">
+        <v>90</v>
+      </c>
+      <c r="R62" t="s">
         <v>91</v>
       </c>
-      <c r="R62" t="s">
-        <v>92</v>
-      </c>
       <c r="S62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.45">
@@ -7390,25 +7387,25 @@
         <v>118</v>
       </c>
       <c r="M63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N63" t="s">
         <v>74</v>
       </c>
       <c r="O63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P63" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.45">
@@ -7443,25 +7440,25 @@
         <v>100</v>
       </c>
       <c r="M64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N64" t="s">
         <v>77</v>
       </c>
       <c r="O64" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="P64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.45">
@@ -7496,25 +7493,25 @@
         <v>132</v>
       </c>
       <c r="M65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N65" t="s">
         <v>78</v>
       </c>
       <c r="O65" t="s">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="P65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.45">
@@ -7548,27 +7545,6 @@
       <c r="J66">
         <v>100</v>
       </c>
-      <c r="M66" t="s">
-        <v>88</v>
-      </c>
-      <c r="N66" t="s">
-        <v>79</v>
-      </c>
-      <c r="O66" t="s">
-        <v>94</v>
-      </c>
-      <c r="P66" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>91</v>
-      </c>
-      <c r="R66" t="s">
-        <v>150</v>
-      </c>
-      <c r="S66" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
@@ -8317,10 +8293,10 @@
         <v>76</v>
       </c>
       <c r="D90">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="E90">
-        <v>4.9000000000000007E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -8335,12 +8311,12 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B91" t="s">
         <v>75</v>
@@ -8349,18 +8325,30 @@
         <v>76</v>
       </c>
       <c r="D91">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E91">
-        <v>1.5E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="F91">
-        <v>0.33123000000000002</v>
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>1336.5</v>
+      </c>
+      <c r="H91">
+        <v>21.450000000000003</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>45</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B92" t="s">
         <v>75</v>
@@ -8369,18 +8357,30 @@
         <v>76</v>
       </c>
       <c r="D92">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E92">
-        <v>2.3999999999999998E-3</v>
+        <v>7.1000000000000013E-3</v>
       </c>
       <c r="F92">
-        <v>0.33123000000000002</v>
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>1336.4999999999998</v>
+      </c>
+      <c r="H92">
+        <v>21.45</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>44</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B93" t="s">
         <v>75</v>
@@ -8389,18 +8389,30 @@
         <v>76</v>
       </c>
       <c r="D93">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E93">
-        <v>7.1000000000000013E-3</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="F93">
-        <v>0.33122999999999997</v>
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>1336.5</v>
+      </c>
+      <c r="H93">
+        <v>21.450000000000003</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>43</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B94" t="s">
         <v>75</v>
@@ -8409,18 +8421,30 @@
         <v>76</v>
       </c>
       <c r="D94">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E94">
-        <v>2.5999999999999999E-2</v>
+        <v>1.4799999999999999E-2</v>
       </c>
       <c r="F94">
-        <v>0.33123000000000008</v>
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>1336.5000000000002</v>
+      </c>
+      <c r="H94">
+        <v>21.450000000000003</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>42</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B95" t="s">
         <v>75</v>
@@ -8429,18 +8453,30 @@
         <v>76</v>
       </c>
       <c r="D95">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E95">
-        <v>1.4799999999999999E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="F95">
-        <v>0.33123000000000002</v>
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>1336.5</v>
+      </c>
+      <c r="H95">
+        <v>21.450000000000003</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>41</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B96" t="s">
         <v>75</v>
@@ -8449,18 +8485,30 @@
         <v>76</v>
       </c>
       <c r="D96">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E96">
-        <v>1E-3</v>
+        <v>2.3500000000000004E-2</v>
       </c>
       <c r="F96">
-        <v>0.33123000000000002</v>
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>1336.5</v>
+      </c>
+      <c r="H96">
+        <v>21.450000000000003</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>40</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B97" t="s">
         <v>75</v>
@@ -8469,18 +8517,30 @@
         <v>76</v>
       </c>
       <c r="D97">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E97">
-        <v>2.3500000000000004E-2</v>
+        <v>1.9300000000000005E-2</v>
       </c>
       <c r="F97">
-        <v>0.33122999999999997</v>
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>1336.5</v>
+      </c>
+      <c r="H97">
+        <v>21.450000000000003</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>39</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B98" t="s">
         <v>75</v>
@@ -8489,13 +8549,25 @@
         <v>76</v>
       </c>
       <c r="D98">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="E98">
-        <v>1.44E-2</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F98">
-        <v>0.33123000000000008</v>
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>1336.5</v>
+      </c>
+      <c r="H98">
+        <v>21.450000000000003</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>34</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.45">
@@ -8509,13 +8581,25 @@
         <v>76</v>
       </c>
       <c r="D99">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E99">
-        <v>1.1999999999999999E-3</v>
+        <v>4.4311999999999996</v>
       </c>
       <c r="F99">
-        <v>0.33123000000000002</v>
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>990</v>
+      </c>
+      <c r="H99">
+        <v>16.5</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.45">
@@ -8523,36 +8607,48 @@
         <v>78</v>
       </c>
       <c r="B100" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C100" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D100">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="E100">
-        <v>4.4311999999999996</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F100">
-        <v>0.33123000000000002</v>
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>2376</v>
+      </c>
+      <c r="H100">
+        <v>57.2</v>
+      </c>
+      <c r="I100">
+        <v>2.52</v>
+      </c>
+      <c r="J100">
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
+        <v>78</v>
+      </c>
+      <c r="B101" t="s">
         <v>79</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>80</v>
       </c>
-      <c r="C101" t="s">
-        <v>81</v>
-      </c>
       <c r="D101">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="E101">
-        <v>1.6E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -8561,30 +8657,30 @@
         <v>2376</v>
       </c>
       <c r="H101">
-        <v>57.2</v>
+        <v>57.20000000000001</v>
       </c>
       <c r="I101">
         <v>2.52</v>
       </c>
       <c r="J101">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
+        <v>78</v>
+      </c>
+      <c r="B102" t="s">
         <v>79</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>80</v>
       </c>
-      <c r="C102" t="s">
-        <v>81</v>
-      </c>
       <c r="D102">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E102">
-        <v>1.2E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -8593,30 +8689,30 @@
         <v>2376</v>
       </c>
       <c r="H102">
-        <v>57.20000000000001</v>
+        <v>57.2</v>
       </c>
       <c r="I102">
         <v>2.52</v>
       </c>
       <c r="J102">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
+        <v>78</v>
+      </c>
+      <c r="B103" t="s">
         <v>79</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>80</v>
       </c>
-      <c r="C103" t="s">
-        <v>81</v>
-      </c>
       <c r="D103">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="E103">
-        <v>1.2999999999999999E-2</v>
+        <v>4.6999999999999993E-2</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -8631,24 +8727,24 @@
         <v>2.52</v>
       </c>
       <c r="J103">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
+        <v>78</v>
+      </c>
+      <c r="B104" t="s">
         <v>79</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>80</v>
       </c>
-      <c r="C104" t="s">
-        <v>81</v>
-      </c>
       <c r="D104">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E104">
-        <v>4.6999999999999993E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -8663,38 +8759,6 @@
         <v>2.52</v>
       </c>
       <c r="J104">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A105" t="s">
-        <v>79</v>
-      </c>
-      <c r="B105" t="s">
-        <v>80</v>
-      </c>
-      <c r="C105" t="s">
-        <v>81</v>
-      </c>
-      <c r="D105">
-        <v>2023</v>
-      </c>
-      <c r="E105">
-        <v>1.4E-2</v>
-      </c>
-      <c r="F105">
-        <v>1</v>
-      </c>
-      <c r="G105">
-        <v>2376</v>
-      </c>
-      <c r="H105">
-        <v>57.2</v>
-      </c>
-      <c r="I105">
-        <v>2.52</v>
-      </c>
-      <c r="J105">
         <v>32</v>
       </c>
     </row>

--- a/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6FAA00A-3686-4BAC-8991-878D777DA2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1F1A6B2-60CB-4FC4-B8B2-75C1C1BBDC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{A1E61A0C-96AA-411E-9932-7F921EB356EE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{844693F4-D384-4382-AEC9-30259F706AC6}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="258">
   <si>
     <t>process</t>
   </si>
@@ -88,18 +88,18 @@
     <t>ep_gas_combined_cycle_</t>
   </si>
   <si>
+    <t>ep_gas_combined_cycle_G100000410168</t>
+  </si>
+  <si>
     <t>ep_gas_gas_turbine__m</t>
   </si>
   <si>
-    <t>ep_hydro_dam</t>
+    <t>ep_hydro_dam_</t>
   </si>
   <si>
     <t>hydro</t>
   </si>
   <si>
-    <t>ep_hydro_dam_</t>
-  </si>
-  <si>
     <t>ep_hydro_dam_G100000603509</t>
   </si>
   <si>
@@ -145,9 +145,15 @@
     <t>ep_hydro_dam_G100000603527</t>
   </si>
   <si>
+    <t>ep_hydro_dam_G100000603528</t>
+  </si>
+  <si>
     <t>ep_hydro_dam_G100000603529</t>
   </si>
   <si>
+    <t>ep_hydro_dam_G100000603530</t>
+  </si>
+  <si>
     <t>ep_hydro_dam_G100000603531</t>
   </si>
   <si>
@@ -181,6 +187,9 @@
     <t>ep_hydro_dam_G100000603551</t>
   </si>
   <si>
+    <t>ep_hydro_dam_G100000603552</t>
+  </si>
+  <si>
     <t>ep_hydro_dam_G100000603553</t>
   </si>
   <si>
@@ -190,6 +199,9 @@
     <t>ep_hydro_dam_G100000603555</t>
   </si>
   <si>
+    <t>ep_hydro_dam_G100000603556</t>
+  </si>
+  <si>
     <t>ep_hydro_dam_G100000603557</t>
   </si>
   <si>
@@ -208,7 +220,34 @@
     <t>ep_hydro_dam_G100000603563</t>
   </si>
   <si>
-    <t>ep_hydro_ps</t>
+    <t>ep_hydro_dam_G100001027468</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100001027470</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100001027472</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100001027478</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100001027479</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100001027483</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100001027484</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100001027485</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100001027486</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100001052031</t>
   </si>
   <si>
     <t>ep_hydro_ps_G100000603519</t>
@@ -244,9 +283,60 @@
     <t>ep_hydro_ps_G100000603565</t>
   </si>
   <si>
+    <t>ep_hydro_ps_G100000604635</t>
+  </si>
+  <si>
+    <t>ep_hydro_ps_G100001027477</t>
+  </si>
+  <si>
+    <t>ep_hydro_ps_G100001027480</t>
+  </si>
+  <si>
+    <t>ep_hydro_ps_G100001027482</t>
+  </si>
+  <si>
+    <t>ep_hydro_ps_G100001027487</t>
+  </si>
+  <si>
     <t>ep_hydro_ror</t>
   </si>
   <si>
+    <t>ep_hydro_ror_G100000603534</t>
+  </si>
+  <si>
+    <t>ep_hydro_ror_G100000603537</t>
+  </si>
+  <si>
+    <t>ep_hydro_ror_G100000603538</t>
+  </si>
+  <si>
+    <t>ep_hydro_ror_G100001027469</t>
+  </si>
+  <si>
+    <t>ep_hydro_ror_G100001027471</t>
+  </si>
+  <si>
+    <t>ep_hydro_ror_G100001027474</t>
+  </si>
+  <si>
+    <t>ep_hydro_ror_G100001027475</t>
+  </si>
+  <si>
+    <t>ep_hydro_ror_G100001027476</t>
+  </si>
+  <si>
+    <t>ep_hydro_ror_G100001027481</t>
+  </si>
+  <si>
+    <t>ep_hydro_ror_G100001052028</t>
+  </si>
+  <si>
+    <t>ep_hydro_ror_G100001052060</t>
+  </si>
+  <si>
+    <t>ep_hydro_ror_G100001052063</t>
+  </si>
+  <si>
     <t>ep_nuclear_G100000500087</t>
   </si>
   <si>
@@ -325,15 +415,18 @@
     <t>Aggregated Plant - EMBER Gap_Missing Gas Capacity</t>
   </si>
   <si>
+    <t>Monthey power station_1</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap_Missing Hydro Capacity</t>
   </si>
   <si>
     <t>Amsteg hydroelectric plant_</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>Barenburg hydroelectric plant_</t>
   </si>
   <si>
@@ -376,9 +469,15 @@
     <t>Handeck I hydroelectric plant_</t>
   </si>
   <si>
+    <t>Handeck II E hydroelectric plant_</t>
+  </si>
+  <si>
     <t>Handeck II hydroelectric plant_</t>
   </si>
   <si>
+    <t>Hopflauenen Trift hydroelectric plant_</t>
+  </si>
+  <si>
     <t>Innertkirchen-I E hydroelectric plant_</t>
   </si>
   <si>
@@ -412,6 +511,9 @@
     <t>Rothenbrunnen hydroelectric plant_</t>
   </si>
   <si>
+    <t>Safien hydroelectric plant_</t>
+  </si>
+  <si>
     <t>Sarelli hydroelectric plant_</t>
   </si>
   <si>
@@ -421,6 +523,9 @@
     <t>Sils hydroelectric plant_</t>
   </si>
   <si>
+    <t>Soazza hydroelectric plant_</t>
+  </si>
+  <si>
     <t>Stalden hydroelectric plant_</t>
   </si>
   <si>
@@ -439,6 +544,36 @@
     <t>Vernayaz hydroelectric plant_</t>
   </si>
   <si>
+    <t>Lucendro hydroelectric plant_</t>
+  </si>
+  <si>
+    <t>Campocologno I hydroelectric plant_</t>
+  </si>
+  <si>
+    <t>Croix hydroelectric plant_</t>
+  </si>
+  <si>
+    <t>Ilanz 2 hydroelectric plant_</t>
+  </si>
+  <si>
+    <t>Innertkirchen 2 hydroelectric plant_</t>
+  </si>
+  <si>
+    <t>Siebnen hydroelectric plant_</t>
+  </si>
+  <si>
+    <t>Tinizong hydroelectric plant_</t>
+  </si>
+  <si>
+    <t>Unteraa Lungerersee hydroelectric plant_</t>
+  </si>
+  <si>
+    <t>Vissoie hydroelectric plant_</t>
+  </si>
+  <si>
+    <t>Navizence hydroelectric plant_</t>
+  </si>
+  <si>
     <t>STG</t>
   </si>
   <si>
@@ -475,6 +610,57 @@
     <t>Veytaux II hydroelectric plant_</t>
   </si>
   <si>
+    <t>Mottec hydroelectric plant_</t>
+  </si>
+  <si>
+    <t>Handeck III hydroelectric plant_</t>
+  </si>
+  <si>
+    <t>Peccia hydroelectric plant_</t>
+  </si>
+  <si>
+    <t>Rempen hydroelectric plant_</t>
+  </si>
+  <si>
+    <t>Zermeiggern hydroelectric plant_</t>
+  </si>
+  <si>
+    <t>Lavey hydroelectric plant_</t>
+  </si>
+  <si>
+    <t>Löbbia Albigna hydroelectric plant_</t>
+  </si>
+  <si>
+    <t>Löntsch hydroelectric plant_</t>
+  </si>
+  <si>
+    <t>Ardon hydroelectric plant_</t>
+  </si>
+  <si>
+    <t>Chancy-Pougny hydroelectric plant_</t>
+  </si>
+  <si>
+    <t>Fieschertal hydroelectric plant_</t>
+  </si>
+  <si>
+    <t>Filisur hydroelectric plant_</t>
+  </si>
+  <si>
+    <t>Gondo hydroelectric plant_</t>
+  </si>
+  <si>
+    <t>Piottino hydroelectric plant_</t>
+  </si>
+  <si>
+    <t>Ackersand II hydroelectric plant_</t>
+  </si>
+  <si>
+    <t>Wassen hydroelectric plant_</t>
+  </si>
+  <si>
+    <t>Wildegg-Brugg hydroelectric plant_</t>
+  </si>
+  <si>
     <t>Leibstadt nuclear power plant_--</t>
   </si>
   <si>
@@ -508,6 +694,9 @@
     <t>prc_refit</t>
   </si>
   <si>
+    <t>ep_gas_combined_cycle_G100000410168_ccs-rf</t>
+  </si>
+  <si>
     <t>ep_gas_combined_cycle__ccs-rf</t>
   </si>
   <si>
@@ -515,6 +704,9 @@
   </si>
   <si>
     <t>ep_gas_gas_turbine__m_ccs-rf</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Monthey power station_1</t>
   </si>
   <si>
     <t>ccs retrofit of -- Aggregated Plant - EMBER Gap_Missing Gas Capacity</t>
@@ -990,7 +1182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624CE7E4-2171-45A9-8059-8CCBF5896B5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7668E752-8B13-4866-BCD1-6E453890B29E}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -999,10 +1191,10 @@
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="J2" t="s">
-        <v>152</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
@@ -1025,33 +1217,33 @@
         <v>2050</v>
       </c>
       <c r="G3" t="s">
-        <v>161</v>
+        <v>225</v>
       </c>
       <c r="J3" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="K3" t="s">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="M3" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="N3" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="O3" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="P3" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1072,27 +1264,27 @@
         <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="K4" t="s">
-        <v>162</v>
+        <v>226</v>
       </c>
       <c r="M4" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="N4" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="O4" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="P4" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>226</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -1110,30 +1302,30 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G5" t="s">
-        <v>163</v>
+        <v>227</v>
       </c>
       <c r="J5" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="K5" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="M5" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="N5" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="O5" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="P5" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>226</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1154,27 +1346,27 @@
         <v>6</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="K6" t="s">
-        <v>166</v>
+        <v>230</v>
       </c>
       <c r="M6" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="N6" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="O6" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="P6" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>226</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1195,27 +1387,27 @@
         <v>7</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="K7" t="s">
-        <v>167</v>
+        <v>231</v>
       </c>
       <c r="M7" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="O7" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="P7" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>226</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -1233,30 +1425,30 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="K8" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="M8" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="O8" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="P8" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -1277,27 +1469,27 @@
         <v>5</v>
       </c>
       <c r="J9" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="K9" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="M9" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="N9" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="O9" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="P9" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1315,30 +1507,30 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G10" t="s">
-        <v>163</v>
+        <v>227</v>
       </c>
       <c r="J10" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="M10" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="N10" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="O10" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="P10" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -1359,27 +1551,27 @@
         <v>6</v>
       </c>
       <c r="J11" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="M11" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="N11" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="O11" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="P11" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -1400,27 +1592,27 @@
         <v>7</v>
       </c>
       <c r="J12" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="K12" t="s">
-        <v>173</v>
+        <v>237</v>
       </c>
       <c r="M12" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="N12" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="O12" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="P12" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -1438,30 +1630,30 @@
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
       <c r="J13" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="K13" t="s">
-        <v>174</v>
+        <v>238</v>
       </c>
       <c r="M13" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="N13" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="O13" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="P13" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>230</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -1482,27 +1674,27 @@
         <v>5</v>
       </c>
       <c r="J14" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="K14" t="s">
-        <v>176</v>
+        <v>240</v>
       </c>
       <c r="M14" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="N14" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="O14" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="P14" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>230</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -1520,30 +1712,30 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G15" t="s">
-        <v>163</v>
+        <v>227</v>
       </c>
       <c r="J15" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="K15" t="s">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="M15" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="N15" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="O15" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="P15" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>230</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -1564,27 +1756,27 @@
         <v>6</v>
       </c>
       <c r="J16" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="K16" t="s">
-        <v>179</v>
+        <v>243</v>
       </c>
       <c r="M16" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="N16" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="O16" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="P16" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>230</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -1605,27 +1797,27 @@
         <v>7</v>
       </c>
       <c r="J17" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="K17" t="s">
-        <v>180</v>
+        <v>244</v>
       </c>
       <c r="M17" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="N17" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="O17" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="P17" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>230</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -1643,30 +1835,30 @@
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
       <c r="J18" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="K18" t="s">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="M18" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="N18" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="O18" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="P18" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>167</v>
+        <v>231</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -1687,27 +1879,27 @@
         <v>5</v>
       </c>
       <c r="J19" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="K19" t="s">
-        <v>182</v>
+        <v>246</v>
       </c>
       <c r="M19" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="N19" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="O19" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="P19" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>231</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -1725,30 +1917,30 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="G20" t="s">
-        <v>163</v>
+        <v>227</v>
       </c>
       <c r="J20" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="K20" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
       <c r="M20" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="N20" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="O20" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="P20" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>167</v>
+        <v>231</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -1769,27 +1961,27 @@
         <v>6</v>
       </c>
       <c r="J21" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="K21" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
       <c r="M21" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="N21" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="O21" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="P21" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -1810,27 +2002,27 @@
         <v>7</v>
       </c>
       <c r="J22" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="K22" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
       <c r="M22" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="N22" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="O22" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="P22" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -1848,30 +2040,30 @@
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
       <c r="J23" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="K23" t="s">
-        <v>187</v>
+        <v>251</v>
       </c>
       <c r="M23" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="N23" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="O23" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="P23" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -1892,27 +2084,27 @@
         <v>5</v>
       </c>
       <c r="J24" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="K24" t="s">
-        <v>188</v>
+        <v>252</v>
       </c>
       <c r="M24" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="N24" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="O24" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="P24" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -1933,27 +2125,27 @@
         <v>6</v>
       </c>
       <c r="J25" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="K25" t="s">
-        <v>189</v>
+        <v>253</v>
       </c>
       <c r="M25" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="N25" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="O25" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="P25" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
@@ -1974,27 +2166,27 @@
         <v>7</v>
       </c>
       <c r="J26" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="K26" t="s">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="M26" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="N26" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="O26" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="P26" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
@@ -2015,27 +2207,27 @@
         <v>5</v>
       </c>
       <c r="J27" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="K27" t="s">
-        <v>191</v>
+        <v>255</v>
       </c>
       <c r="M27" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="N27" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="O27" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="P27" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -2056,27 +2248,27 @@
         <v>6</v>
       </c>
       <c r="J28" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="K28" t="s">
-        <v>192</v>
+        <v>256</v>
       </c>
       <c r="M28" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="N28" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="O28" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="P28" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
@@ -2097,27 +2289,27 @@
         <v>7</v>
       </c>
       <c r="J29" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="K29" t="s">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="M29" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="N29" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="O29" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="P29" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
@@ -2140,7 +2332,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
@@ -2163,7 +2355,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
@@ -2186,10 +2378,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="B33" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="C33" t="s">
         <v>12</v>
@@ -2209,10 +2401,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="B34" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
@@ -2232,10 +2424,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="B35" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
@@ -2255,10 +2447,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>173</v>
+        <v>237</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C36" t="s">
         <v>12</v>
@@ -2278,10 +2470,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>173</v>
+        <v>237</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
@@ -2296,15 +2488,15 @@
         <v>0.42</v>
       </c>
       <c r="G37" t="s">
-        <v>163</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>173</v>
+        <v>237</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
@@ -2324,10 +2516,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>173</v>
+        <v>237</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
@@ -2347,10 +2539,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>173</v>
+        <v>237</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
@@ -2365,15 +2557,15 @@
         <v>3</v>
       </c>
       <c r="G40" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>174</v>
+        <v>238</v>
       </c>
       <c r="B41" t="s">
-        <v>175</v>
+        <v>239</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
@@ -2393,10 +2585,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>174</v>
+        <v>238</v>
       </c>
       <c r="B42" t="s">
-        <v>175</v>
+        <v>239</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
@@ -2416,10 +2608,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>174</v>
+        <v>238</v>
       </c>
       <c r="B43" t="s">
-        <v>175</v>
+        <v>239</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
@@ -2439,7 +2631,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>176</v>
+        <v>240</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
@@ -2462,7 +2654,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>176</v>
+        <v>240</v>
       </c>
       <c r="B45" t="s">
         <v>14</v>
@@ -2485,7 +2677,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>176</v>
+        <v>240</v>
       </c>
       <c r="B46" t="s">
         <v>14</v>
@@ -2508,10 +2700,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="B47" t="s">
-        <v>178</v>
+        <v>242</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
@@ -2531,10 +2723,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="B48" t="s">
-        <v>178</v>
+        <v>242</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
@@ -2549,15 +2741,15 @@
         <v>0.85000000000000009</v>
       </c>
       <c r="G48" t="s">
-        <v>163</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="B49" t="s">
-        <v>178</v>
+        <v>242</v>
       </c>
       <c r="C49" t="s">
         <v>12</v>
@@ -2577,10 +2769,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="B50" t="s">
-        <v>178</v>
+        <v>242</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
@@ -2600,10 +2792,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="B51" t="s">
-        <v>178</v>
+        <v>242</v>
       </c>
       <c r="C51" t="s">
         <v>12</v>
@@ -2618,15 +2810,15 @@
         <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>179</v>
+        <v>243</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C52" t="s">
         <v>12</v>
@@ -2646,10 +2838,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>179</v>
+        <v>243</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C53" t="s">
         <v>12</v>
@@ -2664,15 +2856,15 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="G53" t="s">
-        <v>163</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>179</v>
+        <v>243</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
@@ -2692,10 +2884,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>179</v>
+        <v>243</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
@@ -2715,10 +2907,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>179</v>
+        <v>243</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C56" t="s">
         <v>12</v>
@@ -2733,15 +2925,15 @@
         <v>4</v>
       </c>
       <c r="G56" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>180</v>
+        <v>244</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
@@ -2761,10 +2953,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>180</v>
+        <v>244</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
@@ -2779,15 +2971,15 @@
         <v>0.25</v>
       </c>
       <c r="G58" t="s">
-        <v>163</v>
+        <v>227</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>180</v>
+        <v>244</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C59" t="s">
         <v>12</v>
@@ -2807,10 +2999,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>180</v>
+        <v>244</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C60" t="s">
         <v>12</v>
@@ -2830,10 +3022,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>180</v>
+        <v>244</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C61" t="s">
         <v>12</v>
@@ -2848,12 +3040,12 @@
         <v>4</v>
       </c>
       <c r="G61" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
@@ -2876,7 +3068,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="B63" t="s">
         <v>14</v>
@@ -2899,7 +3091,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="B64" t="s">
         <v>14</v>
@@ -2922,10 +3114,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>182</v>
+        <v>246</v>
       </c>
       <c r="B65" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="C65" t="s">
         <v>12</v>
@@ -2945,10 +3137,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>182</v>
+        <v>246</v>
       </c>
       <c r="B66" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="C66" t="s">
         <v>12</v>
@@ -2968,10 +3160,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>182</v>
+        <v>246</v>
       </c>
       <c r="B67" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="C67" t="s">
         <v>12</v>
@@ -2991,10 +3183,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
       <c r="B68" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
@@ -3014,10 +3206,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
       <c r="B69" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
       <c r="C69" t="s">
         <v>12</v>
@@ -3032,15 +3224,15 @@
         <v>0.25</v>
       </c>
       <c r="G69" t="s">
-        <v>163</v>
+        <v>227</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
       <c r="B70" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
       <c r="C70" t="s">
         <v>12</v>
@@ -3060,10 +3252,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
       <c r="B71" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
       <c r="C71" t="s">
         <v>12</v>
@@ -3083,10 +3275,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
       <c r="B72" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
       <c r="C72" t="s">
         <v>12</v>
@@ -3101,15 +3293,15 @@
         <v>4</v>
       </c>
       <c r="G72" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
       <c r="B73" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C73" t="s">
         <v>12</v>
@@ -3129,10 +3321,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
       <c r="B74" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
@@ -3152,10 +3344,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
       <c r="B75" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
@@ -3175,10 +3367,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
       <c r="B76" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="C76" t="s">
         <v>12</v>
@@ -3198,10 +3390,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
       <c r="B77" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="C77" t="s">
         <v>12</v>
@@ -3221,10 +3413,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
       <c r="B78" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="C78" t="s">
         <v>12</v>
@@ -3244,10 +3436,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>187</v>
+        <v>251</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C79" t="s">
         <v>12</v>
@@ -3267,10 +3459,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>187</v>
+        <v>251</v>
       </c>
       <c r="B80" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C80" t="s">
         <v>12</v>
@@ -3285,15 +3477,15 @@
         <v>0.13</v>
       </c>
       <c r="G80" t="s">
-        <v>163</v>
+        <v>227</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>187</v>
+        <v>251</v>
       </c>
       <c r="B81" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
@@ -3313,10 +3505,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>187</v>
+        <v>251</v>
       </c>
       <c r="B82" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C82" t="s">
         <v>12</v>
@@ -3336,10 +3528,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>187</v>
+        <v>251</v>
       </c>
       <c r="B83" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C83" t="s">
         <v>12</v>
@@ -3354,15 +3546,15 @@
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>188</v>
+        <v>252</v>
       </c>
       <c r="B84" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C84" t="s">
         <v>12</v>
@@ -3382,10 +3574,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>188</v>
+        <v>252</v>
       </c>
       <c r="B85" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C85" t="s">
         <v>12</v>
@@ -3400,15 +3592,15 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G85" t="s">
-        <v>163</v>
+        <v>227</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>188</v>
+        <v>252</v>
       </c>
       <c r="B86" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C86" t="s">
         <v>12</v>
@@ -3428,10 +3620,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>188</v>
+        <v>252</v>
       </c>
       <c r="B87" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C87" t="s">
         <v>12</v>
@@ -3451,10 +3643,10 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>188</v>
+        <v>252</v>
       </c>
       <c r="B88" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C88" t="s">
         <v>12</v>
@@ -3469,15 +3661,15 @@
         <v>1.5</v>
       </c>
       <c r="G88" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>189</v>
+        <v>253</v>
       </c>
       <c r="B89" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="C89" t="s">
         <v>12</v>
@@ -3497,10 +3689,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>189</v>
+        <v>253</v>
       </c>
       <c r="B90" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="C90" t="s">
         <v>12</v>
@@ -3520,10 +3712,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>189</v>
+        <v>253</v>
       </c>
       <c r="B91" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="C91" t="s">
         <v>12</v>
@@ -3543,10 +3735,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="B92" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="C92" t="s">
         <v>12</v>
@@ -3566,10 +3758,10 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="B93" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="C93" t="s">
         <v>12</v>
@@ -3589,10 +3781,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="B94" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="C94" t="s">
         <v>12</v>
@@ -3612,10 +3804,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>191</v>
+        <v>255</v>
       </c>
       <c r="B95" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="C95" t="s">
         <v>12</v>
@@ -3635,10 +3827,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>191</v>
+        <v>255</v>
       </c>
       <c r="B96" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="C96" t="s">
         <v>12</v>
@@ -3658,10 +3850,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>191</v>
+        <v>255</v>
       </c>
       <c r="B97" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="C97" t="s">
         <v>12</v>
@@ -3681,10 +3873,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>192</v>
+        <v>256</v>
       </c>
       <c r="B98" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C98" t="s">
         <v>12</v>
@@ -3704,10 +3896,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>192</v>
+        <v>256</v>
       </c>
       <c r="B99" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C99" t="s">
         <v>12</v>
@@ -3722,15 +3914,15 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G99" t="s">
-        <v>163</v>
+        <v>227</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>192</v>
+        <v>256</v>
       </c>
       <c r="B100" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C100" t="s">
         <v>12</v>
@@ -3750,10 +3942,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>192</v>
+        <v>256</v>
       </c>
       <c r="B101" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C101" t="s">
         <v>12</v>
@@ -3773,10 +3965,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>192</v>
+        <v>256</v>
       </c>
       <c r="B102" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C102" t="s">
         <v>12</v>
@@ -3791,15 +3983,15 @@
         <v>3</v>
       </c>
       <c r="G102" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="B103" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C103" t="s">
         <v>12</v>
@@ -3819,10 +4011,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="B104" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C104" t="s">
         <v>12</v>
@@ -3837,15 +4029,15 @@
         <v>0.3</v>
       </c>
       <c r="G104" t="s">
-        <v>163</v>
+        <v>227</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="B105" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C105" t="s">
         <v>12</v>
@@ -3865,10 +4057,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="B106" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C106" t="s">
         <v>12</v>
@@ -3888,10 +4080,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="B107" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C107" t="s">
         <v>12</v>
@@ -3906,7 +4098,7 @@
         <v>1.5</v>
       </c>
       <c r="G107" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3915,8 +4107,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570FFE86-4EFE-40A8-9EAB-0DD1B2333243}">
-  <dimension ref="A2:T6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3C56CA-5F33-458D-AEC9-5A66004F6171}">
+  <dimension ref="A2:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3924,10 +4116,10 @@
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="N2" t="s">
-        <v>152</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.45">
@@ -3953,42 +4145,42 @@
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="I3" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="J3" t="s">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="K3" t="s">
         <v>9</v>
       </c>
       <c r="N3" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="O3" t="s">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="Q3" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="R3" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="S3" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="T3" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -3997,7 +4189,7 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>0.52272499999999988</v>
+        <v>0.46865000000000007</v>
       </c>
       <c r="E4">
         <v>1365</v>
@@ -4012,7 +4204,7 @@
         <v>0.84455000000000002</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -4021,30 +4213,30 @@
         <v>20</v>
       </c>
       <c r="N4" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="O4" t="s">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="P4" t="s">
-        <v>159</v>
+        <v>222</v>
       </c>
       <c r="Q4" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="R4" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="S4" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="T4" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>219</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -4053,7 +4245,7 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>0.46865000000000007</v>
+        <v>0.52272499999999988</v>
       </c>
       <c r="E5">
         <v>1365</v>
@@ -4068,7 +4260,7 @@
         <v>0.84455000000000002</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -4077,30 +4269,30 @@
         <v>20</v>
       </c>
       <c r="N5" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="O5" t="s">
-        <v>157</v>
+        <v>219</v>
       </c>
       <c r="P5" t="s">
-        <v>160</v>
+        <v>223</v>
       </c>
       <c r="Q5" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="R5" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="S5" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="T5" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -4109,7 +4301,7 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>0.27938750000000001</v>
+        <v>0.36951250000000002</v>
       </c>
       <c r="E6">
         <v>1365</v>
@@ -4124,7 +4316,7 @@
         <v>0.84455000000000002</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -4133,25 +4325,81 @@
         <v>20</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="O6" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="P6" t="s">
-        <v>160</v>
+        <v>224</v>
       </c>
       <c r="Q6" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="R6" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="S6" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="T6" t="s">
-        <v>97</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>0.27938750000000001</v>
+      </c>
+      <c r="E7">
+        <v>1365</v>
+      </c>
+      <c r="F7">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G7">
+        <v>3.75</v>
+      </c>
+      <c r="H7">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>20</v>
+      </c>
+      <c r="N7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>119</v>
+      </c>
+      <c r="R7" t="s">
+        <v>120</v>
+      </c>
+      <c r="S7" t="s">
+        <v>121</v>
+      </c>
+      <c r="T7" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -4160,8 +4408,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9F8961-CFCE-4FF4-AD61-0E55BC62CB03}">
-  <dimension ref="A2:S104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4411CD-B544-499A-8DB5-00E4E05F8E23}">
+  <dimension ref="A2:S107"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4169,10 +4417,10 @@
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="M2" t="s">
-        <v>152</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.45">
@@ -4207,25 +4455,25 @@
         <v>9</v>
       </c>
       <c r="M3" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="N3" t="s">
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="P3" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="Q3" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="R3" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="S3" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.45">
@@ -4260,25 +4508,25 @@
         <v>50</v>
       </c>
       <c r="M4" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N4" t="s">
         <v>10</v>
       </c>
       <c r="O4" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="P4" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q4" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R4" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S4" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.45">
@@ -4313,30 +4561,30 @@
         <v>67</v>
       </c>
       <c r="M5" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N5" t="s">
         <v>13</v>
       </c>
       <c r="O5" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="P5" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q5" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R5" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S5" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -4345,13 +4593,13 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>2009</v>
+        <v>2022</v>
       </c>
       <c r="E6">
-        <v>5.5E-2</v>
+        <v>0.13120000000000001</v>
       </c>
       <c r="F6">
-        <v>0.53560000000000008</v>
+        <v>0.59739999999999993</v>
       </c>
       <c r="G6">
         <v>1265</v>
@@ -4366,30 +4614,30 @@
         <v>50</v>
       </c>
       <c r="M6" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N6" t="s">
         <v>15</v>
       </c>
       <c r="O6" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="P6" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q6" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R6" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S6" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -4398,13 +4646,13 @@
         <v>12</v>
       </c>
       <c r="D7">
-        <v>2022</v>
+        <v>2009</v>
       </c>
       <c r="E7">
-        <v>0.13120000000000001</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F7">
-        <v>0.59739999999999993</v>
+        <v>0.53560000000000008</v>
       </c>
       <c r="G7">
         <v>1265</v>
@@ -4419,30 +4667,30 @@
         <v>50</v>
       </c>
       <c r="M7" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N7" t="s">
         <v>16</v>
       </c>
       <c r="O7" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="P7" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q7" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R7" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S7" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -4472,95 +4720,95 @@
         <v>40</v>
       </c>
       <c r="M8" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N8" t="s">
         <v>17</v>
       </c>
       <c r="O8" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="P8" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q8" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R8" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S8" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>2022</v>
+      </c>
+      <c r="E9">
+        <v>3.1750000000000007</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2750</v>
+      </c>
+      <c r="H9">
+        <v>55</v>
+      </c>
+      <c r="I9">
+        <v>2.1</v>
+      </c>
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="M9" t="s">
+        <v>117</v>
+      </c>
+      <c r="N9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>1907</v>
-      </c>
-      <c r="E9">
-        <v>0.05</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3712.5000000000005</v>
-      </c>
-      <c r="H9">
-        <v>71.5</v>
-      </c>
-      <c r="I9">
-        <v>2.52</v>
-      </c>
-      <c r="J9">
-        <v>148</v>
-      </c>
-      <c r="M9" t="s">
-        <v>87</v>
-      </c>
-      <c r="N9" t="s">
-        <v>19</v>
-      </c>
       <c r="O9" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="P9" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q9" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R9" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S9" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10">
-        <v>1921</v>
+        <v>1923</v>
       </c>
       <c r="E10">
-        <v>5.3999999999999999E-2</v>
+        <v>0.12</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -4575,45 +4823,45 @@
         <v>2.3100000000000005</v>
       </c>
       <c r="J10">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M10" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N10" t="s">
         <v>20</v>
       </c>
       <c r="O10" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="P10" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q10" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R10" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S10" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11">
-        <v>1926</v>
+        <v>1962</v>
       </c>
       <c r="E11">
-        <v>5.1999999999999998E-2</v>
+        <v>0.22</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -4628,45 +4876,45 @@
         <v>2.3100000000000005</v>
       </c>
       <c r="J11">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="M11" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N11" t="s">
         <v>21</v>
       </c>
       <c r="O11" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="P11" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q11" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R11" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S11" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12">
-        <v>1947</v>
+        <v>1966</v>
       </c>
       <c r="E12">
-        <v>0.06</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -4681,310 +4929,310 @@
         <v>2.3100000000000005</v>
       </c>
       <c r="J12">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="M12" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N12" t="s">
         <v>22</v>
       </c>
       <c r="O12" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="P12" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q12" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R12" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S12" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13">
-        <v>1954</v>
+        <v>1959</v>
       </c>
       <c r="E13">
-        <v>7.0000000000000007E-2</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H13">
-        <v>60.500000000000014</v>
+        <v>55.000000000000014</v>
       </c>
       <c r="I13">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J13">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M13" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N13" t="s">
         <v>23</v>
       </c>
       <c r="O13" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="P13" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q13" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R13" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S13" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>1957</v>
+        <v>1999</v>
       </c>
       <c r="E14">
-        <v>0.152</v>
+        <v>1.26</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3162.5000000000009</v>
+        <v>2750</v>
       </c>
       <c r="H14">
-        <v>60.500000000000014</v>
+        <v>55.000000000000014</v>
       </c>
       <c r="I14">
-        <v>2.3100000000000009</v>
+        <v>2.1</v>
       </c>
       <c r="J14">
         <v>100</v>
       </c>
       <c r="M14" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N14" t="s">
         <v>24</v>
       </c>
       <c r="O14" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="P14" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q14" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R14" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S14" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="E15">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3712.5000000000005</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H15">
-        <v>71.5</v>
+        <v>60.500000000000021</v>
       </c>
       <c r="I15">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J15">
         <v>100</v>
       </c>
       <c r="M15" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N15" t="s">
         <v>25</v>
       </c>
       <c r="O15" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="P15" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q15" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R15" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S15" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16">
-        <v>1967</v>
+        <v>1969</v>
       </c>
       <c r="E16">
-        <v>0.14699999999999999</v>
+        <v>0.34</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3162.5000000000009</v>
+        <v>2750</v>
       </c>
       <c r="H16">
-        <v>60.500000000000014</v>
+        <v>55.000000000000014</v>
       </c>
       <c r="I16">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J16">
         <v>100</v>
       </c>
       <c r="M16" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N16" t="s">
         <v>26</v>
       </c>
       <c r="O16" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="P16" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q16" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R16" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S16" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
       </c>
       <c r="D17">
-        <v>1992</v>
+        <v>1959</v>
       </c>
       <c r="E17">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3712.5000000000005</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H17">
-        <v>71.5</v>
+        <v>60.500000000000021</v>
       </c>
       <c r="I17">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J17">
         <v>100</v>
       </c>
       <c r="M17" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N17" t="s">
         <v>27</v>
       </c>
       <c r="O17" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="P17" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q17" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R17" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S17" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18">
-        <v>2012</v>
+        <v>1955</v>
       </c>
       <c r="E18">
-        <v>0.09</v>
+        <v>0.114</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -4993,7 +5241,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H18">
-        <v>60.500000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I18">
         <v>2.3100000000000005</v>
@@ -5002,101 +5250,101 @@
         <v>100</v>
       </c>
       <c r="M18" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N18" t="s">
         <v>28</v>
       </c>
       <c r="O18" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="P18" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q18" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R18" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S18" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19">
-        <v>2014</v>
+        <v>1957</v>
       </c>
       <c r="E19">
-        <v>7.0000000000000007E-2</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H19">
-        <v>60.500000000000014</v>
+        <v>55.000000000000014</v>
       </c>
       <c r="I19">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J19">
         <v>100</v>
       </c>
       <c r="M19" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N19" t="s">
         <v>29</v>
       </c>
       <c r="O19" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="P19" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q19" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R19" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S19" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20">
-        <v>2015</v>
+        <v>1958</v>
       </c>
       <c r="E20">
-        <v>8.3000000000000004E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3162.5000000000009</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H20">
         <v>60.500000000000014</v>
@@ -5108,95 +5356,95 @@
         <v>100</v>
       </c>
       <c r="M20" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N20" t="s">
         <v>30</v>
       </c>
       <c r="O20" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="P20" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q20" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R20" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S20" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21">
-        <v>2022</v>
+        <v>1965</v>
       </c>
       <c r="E21">
-        <v>3.1750000000000007</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H21">
-        <v>55</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I21">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J21">
         <v>100</v>
       </c>
       <c r="M21" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N21" t="s">
         <v>31</v>
       </c>
       <c r="O21" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="P21" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q21" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R21" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S21" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
       </c>
       <c r="D22">
-        <v>1923</v>
+        <v>1962</v>
       </c>
       <c r="E22">
-        <v>0.12</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -5211,98 +5459,98 @@
         <v>2.3100000000000005</v>
       </c>
       <c r="J22">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="M22" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N22" t="s">
         <v>32</v>
       </c>
       <c r="O22" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="P22" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q22" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R22" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S22" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
       </c>
       <c r="D23">
-        <v>1962</v>
+        <v>1981</v>
       </c>
       <c r="E23">
-        <v>0.22</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H23">
-        <v>60.500000000000014</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I23">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J23">
         <v>100</v>
       </c>
       <c r="M23" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N23" t="s">
         <v>33</v>
       </c>
       <c r="O23" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="P23" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q23" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R23" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S23" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24">
-        <v>1966</v>
+        <v>1928</v>
       </c>
       <c r="E24">
-        <v>0.14000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -5311,166 +5559,166 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H24">
-        <v>60.500000000000014</v>
+        <v>60.500000000000021</v>
       </c>
       <c r="I24">
         <v>2.3100000000000005</v>
       </c>
       <c r="J24">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="M24" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N24" t="s">
         <v>34</v>
       </c>
       <c r="O24" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="P24" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q24" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R24" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S24" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
       </c>
       <c r="D25">
-        <v>1959</v>
+        <v>2012</v>
       </c>
       <c r="E25">
-        <v>0.32400000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H25">
-        <v>55.000000000000014</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I25">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J25">
         <v>100</v>
       </c>
       <c r="M25" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N25" t="s">
         <v>35</v>
       </c>
       <c r="O25" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="P25" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q25" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R25" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S25" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
       </c>
       <c r="D26">
-        <v>1999</v>
+        <v>1950</v>
       </c>
       <c r="E26">
-        <v>1.26</v>
+        <v>0.126</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H26">
-        <v>55.000000000000014</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I26">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J26">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M26" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N26" t="s">
         <v>36</v>
       </c>
       <c r="O26" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="P26" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q26" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R26" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S26" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
       </c>
       <c r="D27">
-        <v>1955</v>
+        <v>1967</v>
       </c>
       <c r="E27">
-        <v>0.1</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>3162.5000000000005</v>
+        <v>3162.5000000000009</v>
       </c>
       <c r="H27">
-        <v>60.500000000000021</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I27">
         <v>2.3100000000000005</v>
@@ -5479,95 +5727,95 @@
         <v>100</v>
       </c>
       <c r="M27" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N27" t="s">
         <v>37</v>
       </c>
       <c r="O27" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="P27" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q27" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R27" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S27" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
       </c>
       <c r="D28">
-        <v>1969</v>
+        <v>2016</v>
       </c>
       <c r="E28">
-        <v>0.34</v>
+        <v>0.15</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H28">
-        <v>55.000000000000014</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I28">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J28">
         <v>100</v>
       </c>
       <c r="M28" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N28" t="s">
         <v>38</v>
       </c>
       <c r="O28" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="P28" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q28" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R28" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S28" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
       </c>
       <c r="D29">
-        <v>1959</v>
+        <v>1943</v>
       </c>
       <c r="E29">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -5576,57 +5824,57 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H29">
-        <v>60.500000000000021</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I29">
         <v>2.3100000000000005</v>
       </c>
       <c r="J29">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="M29" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N29" t="s">
         <v>39</v>
       </c>
       <c r="O29" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="P29" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q29" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R29" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S29" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
       </c>
       <c r="D30">
-        <v>1955</v>
+        <v>1978</v>
       </c>
       <c r="E30">
-        <v>0.114</v>
+        <v>0.17</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>3162.5000000000005</v>
+        <v>3162.5000000000009</v>
       </c>
       <c r="H30">
         <v>60.500000000000014</v>
@@ -5638,95 +5886,95 @@
         <v>100</v>
       </c>
       <c r="M30" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N30" t="s">
         <v>40</v>
       </c>
       <c r="O30" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="P30" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q30" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R30" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S30" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
         <v>12</v>
       </c>
       <c r="D31">
-        <v>1957</v>
+        <v>1976</v>
       </c>
       <c r="E31">
-        <v>0.30599999999999999</v>
+        <v>0.122</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H31">
-        <v>55.000000000000014</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I31">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J31">
         <v>100</v>
       </c>
       <c r="M31" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N31" t="s">
         <v>41</v>
       </c>
       <c r="O31" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="P31" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q31" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R31" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S31" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
       </c>
       <c r="D32">
-        <v>1958</v>
+        <v>1910</v>
       </c>
       <c r="E32">
-        <v>0.14000000000000001</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -5735,104 +5983,104 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H32">
-        <v>60.500000000000014</v>
+        <v>60.500000000000021</v>
       </c>
       <c r="I32">
         <v>2.3100000000000005</v>
       </c>
       <c r="J32">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="M32" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N32" t="s">
         <v>42</v>
       </c>
       <c r="O32" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="P32" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q32" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R32" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S32" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
         <v>12</v>
       </c>
       <c r="D33">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="E33">
-        <v>0.13300000000000001</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H33">
-        <v>60.500000000000014</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I33">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J33">
         <v>100</v>
       </c>
       <c r="M33" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N33" t="s">
         <v>43</v>
       </c>
       <c r="O33" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="P33" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q33" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R33" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S33" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
       </c>
       <c r="D34">
-        <v>1962</v>
+        <v>1966</v>
       </c>
       <c r="E34">
-        <v>0.16500000000000001</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -5850,95 +6098,95 @@
         <v>100</v>
       </c>
       <c r="M34" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N34" t="s">
         <v>44</v>
       </c>
       <c r="O34" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="P34" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q34" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R34" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S34" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
       </c>
       <c r="D35">
-        <v>1981</v>
+        <v>1962</v>
       </c>
       <c r="E35">
-        <v>0.38800000000000001</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H35">
-        <v>55.000000000000007</v>
+        <v>60.500000000000021</v>
       </c>
       <c r="I35">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J35">
         <v>100</v>
       </c>
       <c r="M35" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N35" t="s">
         <v>45</v>
       </c>
       <c r="O35" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="P35" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q35" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R35" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S35" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C36" t="s">
         <v>12</v>
       </c>
       <c r="D36">
-        <v>1928</v>
+        <v>1970</v>
       </c>
       <c r="E36">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -5947,51 +6195,51 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H36">
-        <v>60.500000000000021</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I36">
         <v>2.3100000000000005</v>
       </c>
       <c r="J36">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="M36" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N36" t="s">
         <v>46</v>
       </c>
       <c r="O36" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="P36" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q36" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R36" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S36" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
       </c>
       <c r="D37">
-        <v>1950</v>
+        <v>1956</v>
       </c>
       <c r="E37">
-        <v>0.126</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -6006,45 +6254,45 @@
         <v>2.3100000000000005</v>
       </c>
       <c r="J37">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M37" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N37" t="s">
         <v>47</v>
       </c>
       <c r="O37" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="P37" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q37" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R37" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S37" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
       </c>
       <c r="D38">
-        <v>2016</v>
+        <v>1958</v>
       </c>
       <c r="E38">
-        <v>0.15</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -6062,42 +6310,42 @@
         <v>100</v>
       </c>
       <c r="M38" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N38" t="s">
         <v>48</v>
       </c>
       <c r="O38" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="P38" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q38" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R38" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S38" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
       </c>
       <c r="D39">
-        <v>1943</v>
+        <v>1957</v>
       </c>
       <c r="E39">
-        <v>0.24</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -6106,42 +6354,42 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H39">
-        <v>60.500000000000014</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I39">
         <v>2.3100000000000005</v>
       </c>
       <c r="J39">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="M39" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N39" t="s">
         <v>49</v>
       </c>
       <c r="O39" t="s">
+        <v>157</v>
+      </c>
+      <c r="P39" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>120</v>
+      </c>
+      <c r="R39" t="s">
+        <v>121</v>
+      </c>
+      <c r="S39" t="s">
         <v>126</v>
-      </c>
-      <c r="P39" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>90</v>
-      </c>
-      <c r="R39" t="s">
-        <v>91</v>
-      </c>
-      <c r="S39" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
@@ -6150,16 +6398,16 @@
         <v>1978</v>
       </c>
       <c r="E40">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
       <c r="G40">
-        <v>3162.5000000000009</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H40">
-        <v>60.500000000000014</v>
+        <v>60.500000000000021</v>
       </c>
       <c r="I40">
         <v>2.3100000000000005</v>
@@ -6168,42 +6416,42 @@
         <v>100</v>
       </c>
       <c r="M40" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N40" t="s">
         <v>50</v>
       </c>
       <c r="O40" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="P40" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q40" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R40" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S40" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
       </c>
       <c r="D41">
-        <v>1976</v>
+        <v>1968</v>
       </c>
       <c r="E41">
-        <v>0.122</v>
+        <v>0.15</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -6221,42 +6469,42 @@
         <v>100</v>
       </c>
       <c r="M41" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N41" t="s">
         <v>51</v>
       </c>
       <c r="O41" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="P41" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q41" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R41" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S41" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
       </c>
       <c r="D42">
-        <v>1910</v>
+        <v>1961</v>
       </c>
       <c r="E42">
-        <v>0.19800000000000001</v>
+        <v>0.247</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -6265,104 +6513,104 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H42">
-        <v>60.500000000000021</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I42">
         <v>2.3100000000000005</v>
       </c>
       <c r="J42">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="M42" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N42" t="s">
         <v>52</v>
       </c>
       <c r="O42" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="P42" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q42" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R42" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S42" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
       </c>
       <c r="D43">
-        <v>1960</v>
+        <v>2015</v>
       </c>
       <c r="E43">
-        <v>0.39200000000000002</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43">
-        <v>2750</v>
+        <v>3162.5000000000009</v>
       </c>
       <c r="H43">
-        <v>55.000000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I43">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J43">
         <v>100</v>
       </c>
       <c r="M43" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N43" t="s">
         <v>53</v>
       </c>
       <c r="O43" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="P43" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q43" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R43" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S43" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
       </c>
       <c r="D44">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="E44">
-        <v>0.14099999999999999</v>
+        <v>0.185</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -6371,7 +6619,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H44">
-        <v>60.500000000000014</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I44">
         <v>2.3100000000000005</v>
@@ -6380,33 +6628,33 @@
         <v>100</v>
       </c>
       <c r="M44" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N44" t="s">
         <v>54</v>
       </c>
       <c r="O44" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="P44" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q44" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R44" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S44" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
@@ -6415,7 +6663,7 @@
         <v>1962</v>
       </c>
       <c r="E45">
-        <v>0.10199999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -6424,7 +6672,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H45">
-        <v>60.500000000000021</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I45">
         <v>2.3100000000000005</v>
@@ -6433,95 +6681,95 @@
         <v>100</v>
       </c>
       <c r="M45" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N45" t="s">
         <v>55</v>
       </c>
       <c r="O45" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="P45" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q45" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R45" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S45" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
       </c>
       <c r="D46">
-        <v>1970</v>
+        <v>1964</v>
       </c>
       <c r="E46">
-        <v>0.3</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="G46">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H46">
-        <v>60.500000000000014</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I46">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J46">
         <v>100</v>
       </c>
       <c r="M46" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="N46" t="s">
         <v>56</v>
       </c>
       <c r="O46" t="s">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="P46" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q46" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R46" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S46" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
       </c>
       <c r="D47">
-        <v>1956</v>
+        <v>1953</v>
       </c>
       <c r="E47">
-        <v>0.25800000000000001</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -6536,45 +6784,45 @@
         <v>2.3100000000000005</v>
       </c>
       <c r="J47">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M47" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="N47" t="s">
         <v>57</v>
       </c>
       <c r="O47" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="P47" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q47" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R47" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S47" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
       </c>
       <c r="D48">
-        <v>1958</v>
+        <v>1943</v>
       </c>
       <c r="E48">
-        <v>0.13500000000000001</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -6589,45 +6837,45 @@
         <v>2.3100000000000005</v>
       </c>
       <c r="J48">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="M48" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="N48" t="s">
         <v>58</v>
       </c>
       <c r="O48" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="P48" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q48" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R48" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S48" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C49" t="s">
         <v>12</v>
       </c>
       <c r="D49">
-        <v>1978</v>
+        <v>1928</v>
       </c>
       <c r="E49">
-        <v>0.1</v>
+        <v>0.107</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -6636,51 +6884,51 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H49">
-        <v>60.500000000000021</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I49">
         <v>2.3100000000000005</v>
       </c>
       <c r="J49">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="M49" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="N49" t="s">
         <v>59</v>
       </c>
       <c r="O49" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="P49" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q49" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R49" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S49" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
       </c>
       <c r="D50">
-        <v>1968</v>
+        <v>1947</v>
       </c>
       <c r="E50">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -6695,98 +6943,98 @@
         <v>2.3100000000000005</v>
       </c>
       <c r="J50">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M50" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="N50" t="s">
         <v>60</v>
       </c>
       <c r="O50" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="P50" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q50" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R50" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S50" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C51" t="s">
         <v>12</v>
       </c>
       <c r="D51">
-        <v>1961</v>
+        <v>1907</v>
       </c>
       <c r="E51">
-        <v>0.247</v>
+        <v>0.05</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
       <c r="G51">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H51">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I51">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J51">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="M51" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="N51" t="s">
         <v>61</v>
       </c>
       <c r="O51" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="P51" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q51" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R51" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S51" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C52" t="s">
         <v>12</v>
       </c>
       <c r="D52">
-        <v>1965</v>
+        <v>1957</v>
       </c>
       <c r="E52">
-        <v>0.185</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -6795,7 +7043,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H52">
-        <v>60.500000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I52">
         <v>2.3100000000000005</v>
@@ -6804,148 +7052,148 @@
         <v>100</v>
       </c>
       <c r="M52" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="N52" t="s">
         <v>62</v>
       </c>
       <c r="O52" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="P52" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q52" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R52" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S52" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C53" t="s">
         <v>12</v>
       </c>
       <c r="D53">
-        <v>1962</v>
+        <v>1992</v>
       </c>
       <c r="E53">
-        <v>0.18</v>
+        <v>0.05</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
       <c r="G53">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H53">
-        <v>60.500000000000007</v>
+        <v>71.5</v>
       </c>
       <c r="I53">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J53">
         <v>100</v>
       </c>
       <c r="M53" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="N53" t="s">
         <v>63</v>
       </c>
       <c r="O53" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="P53" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q53" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R53" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S53" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
       </c>
       <c r="D54">
-        <v>1964</v>
+        <v>1967</v>
       </c>
       <c r="E54">
-        <v>0.35199999999999998</v>
+        <v>6.2E-2</v>
       </c>
       <c r="F54">
         <v>1</v>
       </c>
       <c r="G54">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H54">
-        <v>55.000000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I54">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J54">
         <v>100</v>
       </c>
       <c r="M54" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="N54" t="s">
         <v>64</v>
       </c>
       <c r="O54" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="P54" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q54" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R54" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S54" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
       </c>
       <c r="D55">
-        <v>1953</v>
+        <v>1926</v>
       </c>
       <c r="E55">
-        <v>0.11899999999999999</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -6960,45 +7208,45 @@
         <v>2.3100000000000005</v>
       </c>
       <c r="J55">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="M55" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="N55" t="s">
         <v>65</v>
       </c>
       <c r="O55" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="P55" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q55" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R55" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S55" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C56" t="s">
         <v>12</v>
       </c>
       <c r="D56">
-        <v>1943</v>
+        <v>1954</v>
       </c>
       <c r="E56">
-        <v>0.10299999999999999</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -7013,45 +7261,45 @@
         <v>2.3100000000000005</v>
       </c>
       <c r="J56">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="M56" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="N56" t="s">
         <v>66</v>
       </c>
       <c r="O56" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="P56" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q56" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R56" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S56" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
       </c>
       <c r="D57">
-        <v>1928</v>
+        <v>1921</v>
       </c>
       <c r="E57">
-        <v>0.107</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -7066,139 +7314,139 @@
         <v>2.3100000000000005</v>
       </c>
       <c r="J57">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="M57" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="N57" t="s">
         <v>67</v>
       </c>
       <c r="O57" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="P57" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q57" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R57" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S57" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
       </c>
       <c r="D58">
-        <v>1926</v>
+        <v>1958</v>
       </c>
       <c r="E58">
-        <v>6.6000000000000003E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
       <c r="G58">
-        <v>2277</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H58">
-        <v>48.400000000000006</v>
+        <v>71.5</v>
       </c>
       <c r="I58">
-        <v>1.7325000000000002</v>
+        <v>2.52</v>
       </c>
       <c r="J58">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="M58" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N58" t="s">
         <v>68</v>
       </c>
       <c r="O58" t="s">
-        <v>93</v>
+        <v>176</v>
       </c>
       <c r="P58" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q58" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R58" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S58" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C59" t="s">
         <v>12</v>
       </c>
       <c r="D59">
-        <v>1955</v>
+        <v>2014</v>
       </c>
       <c r="E59">
-        <v>5.3999999999999999E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
       <c r="G59">
-        <v>2277</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H59">
-        <v>48.400000000000006</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I59">
-        <v>1.7325000000000002</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J59">
         <v>100</v>
       </c>
       <c r="M59" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N59" t="s">
         <v>69</v>
       </c>
       <c r="O59" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="P59" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q59" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R59" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S59" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s">
         <v>12</v>
@@ -7207,10 +7455,10 @@
         <v>12</v>
       </c>
       <c r="D60">
-        <v>1958</v>
+        <v>1937</v>
       </c>
       <c r="E60">
-        <v>8.8999999999999996E-2</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -7222,36 +7470,36 @@
         <v>48.400000000000006</v>
       </c>
       <c r="I60">
-        <v>1.7325000000000004</v>
+        <v>1.7325000000000002</v>
       </c>
       <c r="J60">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="M60" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="N60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O60" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="P60" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q60" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R60" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S60" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B61" t="s">
         <v>12</v>
@@ -7260,10 +7508,10 @@
         <v>12</v>
       </c>
       <c r="D61">
-        <v>1966</v>
+        <v>1962</v>
       </c>
       <c r="E61">
-        <v>7.3999999999999996E-2</v>
+        <v>0.18</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -7272,7 +7520,7 @@
         <v>2277</v>
       </c>
       <c r="H61">
-        <v>48.400000000000006</v>
+        <v>48.400000000000013</v>
       </c>
       <c r="I61">
         <v>1.7325000000000002</v>
@@ -7281,30 +7529,30 @@
         <v>100</v>
       </c>
       <c r="M61" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="N61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O61" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="P61" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q61" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R61" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S61" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B62" t="s">
         <v>12</v>
@@ -7313,10 +7561,10 @@
         <v>12</v>
       </c>
       <c r="D62">
-        <v>1976</v>
+        <v>1923</v>
       </c>
       <c r="E62">
-        <v>5.5E-2</v>
+        <v>0.112</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -7325,39 +7573,39 @@
         <v>2277</v>
       </c>
       <c r="H62">
-        <v>48.400000000000006</v>
+        <v>48.400000000000013</v>
       </c>
       <c r="I62">
         <v>1.7325000000000002</v>
       </c>
       <c r="J62">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="M62" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="N62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O62" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="P62" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q62" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R62" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="S62" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B63" t="s">
         <v>12</v>
@@ -7366,51 +7614,51 @@
         <v>12</v>
       </c>
       <c r="D63">
-        <v>1937</v>
+        <v>2016</v>
       </c>
       <c r="E63">
-        <v>0.13500000000000001</v>
+        <v>1</v>
       </c>
       <c r="F63">
         <v>1</v>
       </c>
       <c r="G63">
-        <v>2277</v>
+        <v>1980.0000000000002</v>
       </c>
       <c r="H63">
-        <v>48.400000000000006</v>
+        <v>44</v>
       </c>
       <c r="I63">
-        <v>1.7325000000000002</v>
+        <v>1.5750000000000002</v>
       </c>
       <c r="J63">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="M63" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="N63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O63" t="s">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="P63" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q63" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R63" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="S63" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B64" t="s">
         <v>12</v>
@@ -7419,10 +7667,10 @@
         <v>12</v>
       </c>
       <c r="D64">
-        <v>1962</v>
+        <v>1977</v>
       </c>
       <c r="E64">
-        <v>0.18</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -7431,7 +7679,7 @@
         <v>2277</v>
       </c>
       <c r="H64">
-        <v>48.400000000000013</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="I64">
         <v>1.7325000000000002</v>
@@ -7440,30 +7688,30 @@
         <v>100</v>
       </c>
       <c r="M64" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="N64" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O64" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="P64" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q64" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R64" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="S64" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B65" t="s">
         <v>12</v>
@@ -7472,51 +7720,51 @@
         <v>12</v>
       </c>
       <c r="D65">
-        <v>1923</v>
+        <v>2022</v>
       </c>
       <c r="E65">
-        <v>0.112</v>
+        <v>0.9</v>
       </c>
       <c r="F65">
         <v>1</v>
       </c>
       <c r="G65">
-        <v>2277</v>
+        <v>1980.0000000000002</v>
       </c>
       <c r="H65">
-        <v>48.400000000000013</v>
+        <v>44</v>
       </c>
       <c r="I65">
-        <v>1.7325000000000002</v>
+        <v>1.5750000000000002</v>
       </c>
       <c r="J65">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="M65" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="N65" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O65" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="P65" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q65" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="R65" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="S65" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B66" t="s">
         <v>12</v>
@@ -7525,30 +7773,51 @@
         <v>12</v>
       </c>
       <c r="D66">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="F66">
         <v>1</v>
       </c>
       <c r="G66">
-        <v>1980.0000000000002</v>
+        <v>2277</v>
       </c>
       <c r="H66">
-        <v>44</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="I66">
-        <v>1.5750000000000002</v>
+        <v>1.7325000000000002</v>
       </c>
       <c r="J66">
         <v>100</v>
       </c>
+      <c r="M66" t="s">
+        <v>178</v>
+      </c>
+      <c r="N66" t="s">
+        <v>76</v>
+      </c>
+      <c r="O66" t="s">
+        <v>185</v>
+      </c>
+      <c r="P66" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>120</v>
+      </c>
+      <c r="R66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S66" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B67" t="s">
         <v>12</v>
@@ -7557,10 +7826,10 @@
         <v>12</v>
       </c>
       <c r="D67">
-        <v>1977</v>
+        <v>2026</v>
       </c>
       <c r="E67">
-        <v>0.28000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -7577,10 +7846,31 @@
       <c r="J67">
         <v>100</v>
       </c>
+      <c r="M67" t="s">
+        <v>178</v>
+      </c>
+      <c r="N67" t="s">
+        <v>77</v>
+      </c>
+      <c r="O67" t="s">
+        <v>186</v>
+      </c>
+      <c r="P67" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>120</v>
+      </c>
+      <c r="R67" t="s">
+        <v>121</v>
+      </c>
+      <c r="S67" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B68" t="s">
         <v>12</v>
@@ -7589,30 +7879,51 @@
         <v>12</v>
       </c>
       <c r="D68">
-        <v>2022</v>
+        <v>1968</v>
       </c>
       <c r="E68">
-        <v>0.9</v>
+        <v>0.192</v>
       </c>
       <c r="F68">
         <v>1</v>
       </c>
       <c r="G68">
-        <v>1980.0000000000002</v>
+        <v>2277</v>
       </c>
       <c r="H68">
-        <v>44</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="I68">
-        <v>1.5750000000000002</v>
+        <v>1.7325000000000002</v>
       </c>
       <c r="J68">
         <v>100</v>
       </c>
+      <c r="M68" t="s">
+        <v>178</v>
+      </c>
+      <c r="N68" t="s">
+        <v>78</v>
+      </c>
+      <c r="O68" t="s">
+        <v>187</v>
+      </c>
+      <c r="P68" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R68" t="s">
+        <v>121</v>
+      </c>
+      <c r="S68" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B69" t="s">
         <v>12</v>
@@ -7621,10 +7932,10 @@
         <v>12</v>
       </c>
       <c r="D69">
-        <v>2009</v>
+        <v>1972</v>
       </c>
       <c r="E69">
-        <v>0.13100000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -7641,10 +7952,31 @@
       <c r="J69">
         <v>100</v>
       </c>
+      <c r="M69" t="s">
+        <v>178</v>
+      </c>
+      <c r="N69" t="s">
+        <v>79</v>
+      </c>
+      <c r="O69" t="s">
+        <v>188</v>
+      </c>
+      <c r="P69" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>120</v>
+      </c>
+      <c r="R69" t="s">
+        <v>121</v>
+      </c>
+      <c r="S69" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B70" t="s">
         <v>12</v>
@@ -7653,10 +7985,10 @@
         <v>12</v>
       </c>
       <c r="D70">
-        <v>2026</v>
+        <v>2017</v>
       </c>
       <c r="E70">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -7673,10 +8005,31 @@
       <c r="J70">
         <v>100</v>
       </c>
+      <c r="M70" t="s">
+        <v>178</v>
+      </c>
+      <c r="N70" t="s">
+        <v>80</v>
+      </c>
+      <c r="O70" t="s">
+        <v>189</v>
+      </c>
+      <c r="P70" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>120</v>
+      </c>
+      <c r="R70" t="s">
+        <v>121</v>
+      </c>
+      <c r="S70" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B71" t="s">
         <v>12</v>
@@ -7685,10 +8038,10 @@
         <v>12</v>
       </c>
       <c r="D71">
-        <v>1968</v>
+        <v>1958</v>
       </c>
       <c r="E71">
-        <v>0.192</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -7700,15 +8053,36 @@
         <v>48.400000000000006</v>
       </c>
       <c r="I71">
-        <v>1.7325000000000002</v>
+        <v>1.7325000000000004</v>
       </c>
       <c r="J71">
         <v>100</v>
       </c>
+      <c r="M71" t="s">
+        <v>178</v>
+      </c>
+      <c r="N71" t="s">
+        <v>81</v>
+      </c>
+      <c r="O71" t="s">
+        <v>190</v>
+      </c>
+      <c r="P71" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>120</v>
+      </c>
+      <c r="R71" t="s">
+        <v>121</v>
+      </c>
+      <c r="S71" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B72" t="s">
         <v>12</v>
@@ -7717,10 +8091,10 @@
         <v>12</v>
       </c>
       <c r="D72">
-        <v>1972</v>
+        <v>1976</v>
       </c>
       <c r="E72">
-        <v>0.24</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -7737,10 +8111,31 @@
       <c r="J72">
         <v>100</v>
       </c>
+      <c r="M72" t="s">
+        <v>178</v>
+      </c>
+      <c r="N72" t="s">
+        <v>82</v>
+      </c>
+      <c r="O72" t="s">
+        <v>191</v>
+      </c>
+      <c r="P72" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>120</v>
+      </c>
+      <c r="R72" t="s">
+        <v>121</v>
+      </c>
+      <c r="S72" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B73" t="s">
         <v>12</v>
@@ -7749,10 +8144,10 @@
         <v>12</v>
       </c>
       <c r="D73">
-        <v>2017</v>
+        <v>1955</v>
       </c>
       <c r="E73">
-        <v>0.24</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -7769,118 +8164,202 @@
       <c r="J73">
         <v>100</v>
       </c>
+      <c r="M73" t="s">
+        <v>178</v>
+      </c>
+      <c r="N73" t="s">
+        <v>83</v>
+      </c>
+      <c r="O73" t="s">
+        <v>192</v>
+      </c>
+      <c r="P73" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>120</v>
+      </c>
+      <c r="R73" t="s">
+        <v>121</v>
+      </c>
+      <c r="S73" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
       </c>
       <c r="D74">
-        <v>1908</v>
+        <v>1926</v>
       </c>
       <c r="E74">
-        <v>8.1000000000000003E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F74">
         <v>1</v>
       </c>
       <c r="G74">
-        <v>2783</v>
+        <v>2277</v>
       </c>
       <c r="H74">
-        <v>66.550000000000011</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="I74">
-        <v>2.8875000000000002</v>
+        <v>1.7325000000000002</v>
       </c>
       <c r="J74">
-        <v>147</v>
+        <v>129</v>
+      </c>
+      <c r="M74" t="s">
+        <v>178</v>
+      </c>
+      <c r="N74" t="s">
+        <v>84</v>
+      </c>
+      <c r="O74" t="s">
+        <v>193</v>
+      </c>
+      <c r="P74" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>120</v>
+      </c>
+      <c r="R74" t="s">
+        <v>121</v>
+      </c>
+      <c r="S74" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
       </c>
       <c r="D75">
-        <v>1920</v>
+        <v>1966</v>
       </c>
       <c r="E75">
-        <v>9.1999999999999998E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="F75">
         <v>1</v>
       </c>
       <c r="G75">
-        <v>3267.0000000000005</v>
+        <v>2277</v>
       </c>
       <c r="H75">
-        <v>78.650000000000006</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="I75">
-        <v>3.1500000000000008</v>
+        <v>1.7325000000000002</v>
       </c>
       <c r="J75">
-        <v>135</v>
+        <v>100</v>
+      </c>
+      <c r="M75" t="s">
+        <v>178</v>
+      </c>
+      <c r="N75" t="s">
+        <v>85</v>
+      </c>
+      <c r="O75" t="s">
+        <v>194</v>
+      </c>
+      <c r="P75" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>120</v>
+      </c>
+      <c r="R75" t="s">
+        <v>121</v>
+      </c>
+      <c r="S75" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B76" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C76" t="s">
         <v>12</v>
       </c>
       <c r="D76">
-        <v>1925</v>
+        <v>1920</v>
       </c>
       <c r="E76">
-        <v>5.3999999999999999E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="F76">
         <v>1</v>
       </c>
       <c r="G76">
-        <v>2783</v>
+        <v>3267.0000000000005</v>
       </c>
       <c r="H76">
-        <v>66.550000000000011</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="I76">
-        <v>2.8875000000000002</v>
+        <v>3.1500000000000008</v>
       </c>
       <c r="J76">
-        <v>130</v>
+        <v>135</v>
+      </c>
+      <c r="M76" t="s">
+        <v>117</v>
+      </c>
+      <c r="N76" t="s">
+        <v>86</v>
+      </c>
+      <c r="O76" t="s">
+        <v>123</v>
+      </c>
+      <c r="P76" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>120</v>
+      </c>
+      <c r="R76" t="s">
+        <v>121</v>
+      </c>
+      <c r="S76" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C77" t="s">
         <v>12</v>
       </c>
       <c r="D77">
-        <v>1932</v>
+        <v>1950</v>
       </c>
       <c r="E77">
-        <v>7.2999999999999995E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -7895,24 +8374,45 @@
         <v>2.8875000000000002</v>
       </c>
       <c r="J77">
-        <v>123</v>
+        <v>105</v>
+      </c>
+      <c r="M77" t="s">
+        <v>117</v>
+      </c>
+      <c r="N77" t="s">
+        <v>87</v>
+      </c>
+      <c r="O77" t="s">
+        <v>195</v>
+      </c>
+      <c r="P77" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>120</v>
+      </c>
+      <c r="R77" t="s">
+        <v>121</v>
+      </c>
+      <c r="S77" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C78" t="s">
         <v>12</v>
       </c>
       <c r="D78">
-        <v>1947</v>
+        <v>1959</v>
       </c>
       <c r="E78">
-        <v>5.7000000000000002E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -7927,24 +8427,45 @@
         <v>2.8875000000000002</v>
       </c>
       <c r="J78">
-        <v>108</v>
+        <v>100</v>
+      </c>
+      <c r="M78" t="s">
+        <v>117</v>
+      </c>
+      <c r="N78" t="s">
+        <v>88</v>
+      </c>
+      <c r="O78" t="s">
+        <v>196</v>
+      </c>
+      <c r="P78" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R78" t="s">
+        <v>121</v>
+      </c>
+      <c r="S78" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B79" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C79" t="s">
         <v>12</v>
       </c>
       <c r="D79">
-        <v>1950</v>
+        <v>1908</v>
       </c>
       <c r="E79">
-        <v>9.2999999999999999E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -7959,56 +8480,98 @@
         <v>2.8875000000000002</v>
       </c>
       <c r="J79">
-        <v>105</v>
+        <v>147</v>
+      </c>
+      <c r="M79" t="s">
+        <v>117</v>
+      </c>
+      <c r="N79" t="s">
+        <v>89</v>
+      </c>
+      <c r="O79" t="s">
+        <v>197</v>
+      </c>
+      <c r="P79" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>120</v>
+      </c>
+      <c r="R79" t="s">
+        <v>121</v>
+      </c>
+      <c r="S79" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B80" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C80" t="s">
         <v>12</v>
       </c>
       <c r="D80">
-        <v>1952</v>
+        <v>1960</v>
       </c>
       <c r="E80">
-        <v>0.111</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
       <c r="G80">
-        <v>3001.0180180180182</v>
+        <v>2783</v>
       </c>
       <c r="H80">
-        <v>72.000450450450458</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I80">
-        <v>3.0057432432432436</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J80">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+      <c r="M80" t="s">
+        <v>117</v>
+      </c>
+      <c r="N80" t="s">
+        <v>90</v>
+      </c>
+      <c r="O80" t="s">
+        <v>198</v>
+      </c>
+      <c r="P80" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>120</v>
+      </c>
+      <c r="R80" t="s">
+        <v>121</v>
+      </c>
+      <c r="S80" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B81" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
       </c>
       <c r="D81">
-        <v>1958</v>
+        <v>1925</v>
       </c>
       <c r="E81">
-        <v>6.2E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -8023,24 +8586,45 @@
         <v>2.8875000000000002</v>
       </c>
       <c r="J81">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="M81" t="s">
+        <v>117</v>
+      </c>
+      <c r="N81" t="s">
+        <v>91</v>
+      </c>
+      <c r="O81" t="s">
+        <v>199</v>
+      </c>
+      <c r="P81" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>120</v>
+      </c>
+      <c r="R81" t="s">
+        <v>121</v>
+      </c>
+      <c r="S81" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C82" t="s">
         <v>12</v>
       </c>
       <c r="D82">
-        <v>1959</v>
+        <v>1975</v>
       </c>
       <c r="E82">
-        <v>8.5999999999999993E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -8057,22 +8641,43 @@
       <c r="J82">
         <v>100</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M82" t="s">
+        <v>117</v>
+      </c>
+      <c r="N82" t="s">
+        <v>92</v>
+      </c>
+      <c r="O82" t="s">
+        <v>200</v>
+      </c>
+      <c r="P82" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>120</v>
+      </c>
+      <c r="R82" t="s">
+        <v>121</v>
+      </c>
+      <c r="S82" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="B83" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C83" t="s">
         <v>12</v>
       </c>
       <c r="D83">
-        <v>1960</v>
+        <v>1967</v>
       </c>
       <c r="E83">
-        <v>5.1999999999999998E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -8089,22 +8694,43 @@
       <c r="J83">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M83" t="s">
+        <v>117</v>
+      </c>
+      <c r="N83" t="s">
+        <v>93</v>
+      </c>
+      <c r="O83" t="s">
+        <v>201</v>
+      </c>
+      <c r="P83" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>120</v>
+      </c>
+      <c r="R83" t="s">
+        <v>121</v>
+      </c>
+      <c r="S83" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="B84" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C84" t="s">
         <v>12</v>
       </c>
       <c r="D84">
-        <v>1967</v>
+        <v>1952</v>
       </c>
       <c r="E84">
-        <v>6.5000000000000002E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -8119,24 +8745,45 @@
         <v>2.8875000000000002</v>
       </c>
       <c r="J84">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
+        <v>103</v>
+      </c>
+      <c r="M84" t="s">
+        <v>117</v>
+      </c>
+      <c r="N84" t="s">
+        <v>94</v>
+      </c>
+      <c r="O84" t="s">
+        <v>202</v>
+      </c>
+      <c r="P84" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>120</v>
+      </c>
+      <c r="R84" t="s">
+        <v>121</v>
+      </c>
+      <c r="S84" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="B85" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C85" t="s">
         <v>12</v>
       </c>
       <c r="D85">
-        <v>1975</v>
+        <v>1932</v>
       </c>
       <c r="E85">
-        <v>6.4000000000000001E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -8151,126 +8798,210 @@
         <v>2.8875000000000002</v>
       </c>
       <c r="J85">
+        <v>123</v>
+      </c>
+      <c r="M85" t="s">
+        <v>117</v>
+      </c>
+      <c r="N85" t="s">
+        <v>95</v>
+      </c>
+      <c r="O85" t="s">
+        <v>203</v>
+      </c>
+      <c r="P85" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>120</v>
+      </c>
+      <c r="R85" t="s">
+        <v>121</v>
+      </c>
+      <c r="S85" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>96</v>
+      </c>
+      <c r="B86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86">
+        <v>1958</v>
+      </c>
+      <c r="E86">
+        <v>6.2E-2</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>2783</v>
+      </c>
+      <c r="H86">
+        <v>66.550000000000011</v>
+      </c>
+      <c r="I86">
+        <v>2.8875000000000002</v>
+      </c>
+      <c r="J86">
         <v>100</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A86" t="s">
-        <v>69</v>
-      </c>
-      <c r="B86" t="s">
-        <v>70</v>
-      </c>
-      <c r="C86" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86">
+      <c r="M86" t="s">
+        <v>117</v>
+      </c>
+      <c r="N86" t="s">
+        <v>96</v>
+      </c>
+      <c r="O86" t="s">
+        <v>204</v>
+      </c>
+      <c r="P86" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>120</v>
+      </c>
+      <c r="R86" t="s">
+        <v>121</v>
+      </c>
+      <c r="S86" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>97</v>
+      </c>
+      <c r="B87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87">
+        <v>1947</v>
+      </c>
+      <c r="E87">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>2783</v>
+      </c>
+      <c r="H87">
+        <v>66.550000000000011</v>
+      </c>
+      <c r="I87">
+        <v>2.8875000000000002</v>
+      </c>
+      <c r="J87">
+        <v>108</v>
+      </c>
+      <c r="M87" t="s">
+        <v>117</v>
+      </c>
+      <c r="N87" t="s">
+        <v>97</v>
+      </c>
+      <c r="O87" t="s">
+        <v>205</v>
+      </c>
+      <c r="P87" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>120</v>
+      </c>
+      <c r="R87" t="s">
+        <v>121</v>
+      </c>
+      <c r="S87" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>98</v>
+      </c>
+      <c r="B88" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88">
+        <v>1952</v>
+      </c>
+      <c r="E88">
+        <v>0.05</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>3267.0000000000005</v>
+      </c>
+      <c r="H88">
+        <v>78.650000000000006</v>
+      </c>
+      <c r="I88">
+        <v>3.1500000000000004</v>
+      </c>
+      <c r="J88">
+        <v>103</v>
+      </c>
+      <c r="M88" t="s">
+        <v>117</v>
+      </c>
+      <c r="N88" t="s">
+        <v>98</v>
+      </c>
+      <c r="O88" t="s">
+        <v>206</v>
+      </c>
+      <c r="P88" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>120</v>
+      </c>
+      <c r="R88" t="s">
+        <v>121</v>
+      </c>
+      <c r="S88" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>99</v>
+      </c>
+      <c r="B89" t="s">
+        <v>100</v>
+      </c>
+      <c r="C89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89">
         <v>1984</v>
       </c>
-      <c r="E86">
+      <c r="E89">
         <v>1.2749999999999999</v>
       </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86">
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
         <v>7150.0000000000018</v>
-      </c>
-      <c r="H86">
-        <v>165</v>
-      </c>
-      <c r="I86">
-        <v>4.2</v>
-      </c>
-      <c r="J86">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A87" t="s">
-        <v>71</v>
-      </c>
-      <c r="B87" t="s">
-        <v>70</v>
-      </c>
-      <c r="C87" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87">
-        <v>1979</v>
-      </c>
-      <c r="E87">
-        <v>1.06</v>
-      </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
-      <c r="G87">
-        <v>7150.0000000000009</v>
-      </c>
-      <c r="H87">
-        <v>165</v>
-      </c>
-      <c r="I87">
-        <v>4.2</v>
-      </c>
-      <c r="J87">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A88" t="s">
-        <v>72</v>
-      </c>
-      <c r="B88" t="s">
-        <v>70</v>
-      </c>
-      <c r="C88" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88">
-        <v>1969</v>
-      </c>
-      <c r="E88">
-        <v>0.38</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88">
-        <v>7150.0000000000009</v>
-      </c>
-      <c r="H88">
-        <v>165</v>
-      </c>
-      <c r="I88">
-        <v>4.2</v>
-      </c>
-      <c r="J88">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A89" t="s">
-        <v>73</v>
-      </c>
-      <c r="B89" t="s">
-        <v>70</v>
-      </c>
-      <c r="C89" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89">
-        <v>1972</v>
-      </c>
-      <c r="E89">
-        <v>0.38</v>
-      </c>
-      <c r="F89">
-        <v>1</v>
-      </c>
-      <c r="G89">
-        <v>7150.0000000000009</v>
       </c>
       <c r="H89">
         <v>165</v>
@@ -8279,120 +9010,204 @@
         <v>4.2</v>
       </c>
       <c r="J89">
+        <v>71</v>
+      </c>
+      <c r="M89" t="s">
+        <v>117</v>
+      </c>
+      <c r="N89" t="s">
+        <v>99</v>
+      </c>
+      <c r="O89" t="s">
+        <v>207</v>
+      </c>
+      <c r="P89" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>120</v>
+      </c>
+      <c r="R89" t="s">
+        <v>121</v>
+      </c>
+      <c r="S89" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>101</v>
+      </c>
+      <c r="B90" t="s">
+        <v>100</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90">
+        <v>1979</v>
+      </c>
+      <c r="E90">
+        <v>1.06</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>7150.0000000000009</v>
+      </c>
+      <c r="H90">
+        <v>165</v>
+      </c>
+      <c r="I90">
+        <v>4.2</v>
+      </c>
+      <c r="J90">
+        <v>76</v>
+      </c>
+      <c r="M90" t="s">
+        <v>117</v>
+      </c>
+      <c r="N90" t="s">
+        <v>101</v>
+      </c>
+      <c r="O90" t="s">
+        <v>208</v>
+      </c>
+      <c r="P90" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>120</v>
+      </c>
+      <c r="R90" t="s">
+        <v>121</v>
+      </c>
+      <c r="S90" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91" t="s">
+        <v>100</v>
+      </c>
+      <c r="C91" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91">
+        <v>1969</v>
+      </c>
+      <c r="E91">
+        <v>0.38</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>7150.0000000000009</v>
+      </c>
+      <c r="H91">
+        <v>165</v>
+      </c>
+      <c r="I91">
+        <v>4.2</v>
+      </c>
+      <c r="J91">
+        <v>86</v>
+      </c>
+      <c r="M91" t="s">
+        <v>117</v>
+      </c>
+      <c r="N91" t="s">
+        <v>102</v>
+      </c>
+      <c r="O91" t="s">
+        <v>209</v>
+      </c>
+      <c r="P91" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>120</v>
+      </c>
+      <c r="R91" t="s">
+        <v>121</v>
+      </c>
+      <c r="S91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92" t="s">
+        <v>100</v>
+      </c>
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92">
+        <v>1972</v>
+      </c>
+      <c r="E92">
+        <v>0.38</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>7150.0000000000009</v>
+      </c>
+      <c r="H92">
+        <v>165</v>
+      </c>
+      <c r="I92">
+        <v>4.2</v>
+      </c>
+      <c r="J92">
         <v>83</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A90" t="s">
-        <v>74</v>
-      </c>
-      <c r="B90" t="s">
-        <v>75</v>
-      </c>
-      <c r="C90" t="s">
-        <v>76</v>
-      </c>
-      <c r="D90">
+      <c r="M92" t="s">
+        <v>117</v>
+      </c>
+      <c r="N92" t="s">
+        <v>103</v>
+      </c>
+      <c r="O92" t="s">
+        <v>210</v>
+      </c>
+      <c r="P92" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>120</v>
+      </c>
+      <c r="R92" t="s">
+        <v>121</v>
+      </c>
+      <c r="S92" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93" t="s">
+        <v>105</v>
+      </c>
+      <c r="C93" t="s">
+        <v>106</v>
+      </c>
+      <c r="D93">
         <v>2009</v>
       </c>
-      <c r="E90">
+      <c r="E93">
         <v>1.5E-3</v>
-      </c>
-      <c r="F90">
-        <v>1</v>
-      </c>
-      <c r="G90">
-        <v>1336.5</v>
-      </c>
-      <c r="H90">
-        <v>21.450000000000003</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A91" t="s">
-        <v>74</v>
-      </c>
-      <c r="B91" t="s">
-        <v>75</v>
-      </c>
-      <c r="C91" t="s">
-        <v>76</v>
-      </c>
-      <c r="D91">
-        <v>2010</v>
-      </c>
-      <c r="E91">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
-      <c r="G91">
-        <v>1336.5</v>
-      </c>
-      <c r="H91">
-        <v>21.450000000000003</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A92" t="s">
-        <v>74</v>
-      </c>
-      <c r="B92" t="s">
-        <v>75</v>
-      </c>
-      <c r="C92" t="s">
-        <v>76</v>
-      </c>
-      <c r="D92">
-        <v>2011</v>
-      </c>
-      <c r="E92">
-        <v>7.1000000000000013E-3</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92">
-        <v>1336.4999999999998</v>
-      </c>
-      <c r="H92">
-        <v>21.45</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A93" t="s">
-        <v>74</v>
-      </c>
-      <c r="B93" t="s">
-        <v>75</v>
-      </c>
-      <c r="C93" t="s">
-        <v>76</v>
-      </c>
-      <c r="D93">
-        <v>2012</v>
-      </c>
-      <c r="E93">
-        <v>2.5999999999999999E-2</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -8407,30 +9222,51 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+      <c r="M93" t="s">
+        <v>117</v>
+      </c>
+      <c r="N93" t="s">
+        <v>104</v>
+      </c>
+      <c r="O93" t="s">
+        <v>123</v>
+      </c>
+      <c r="P93" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>120</v>
+      </c>
+      <c r="R93" t="s">
+        <v>211</v>
+      </c>
+      <c r="S93" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="B94" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C94" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="D94">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="E94">
-        <v>1.4799999999999999E-2</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="F94">
         <v>1</v>
       </c>
       <c r="G94">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H94">
         <v>21.450000000000003</v>
@@ -8439,56 +9275,98 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+      <c r="M94" t="s">
+        <v>117</v>
+      </c>
+      <c r="N94" t="s">
+        <v>107</v>
+      </c>
+      <c r="O94" t="s">
+        <v>212</v>
+      </c>
+      <c r="P94" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>120</v>
+      </c>
+      <c r="R94" t="s">
+        <v>211</v>
+      </c>
+      <c r="S94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="B95" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C95" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="D95">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="E95">
-        <v>1E-3</v>
+        <v>7.1000000000000013E-3</v>
       </c>
       <c r="F95">
         <v>1</v>
       </c>
       <c r="G95">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H95">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+      <c r="M95" t="s">
+        <v>117</v>
+      </c>
+      <c r="N95" t="s">
+        <v>108</v>
+      </c>
+      <c r="O95" t="s">
+        <v>123</v>
+      </c>
+      <c r="P95" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>120</v>
+      </c>
+      <c r="R95" t="s">
+        <v>211</v>
+      </c>
+      <c r="S95" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C96" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="D96">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="E96">
-        <v>2.3500000000000004E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -8503,30 +9381,30 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C97" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="D97">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="E97">
-        <v>1.9300000000000005E-2</v>
+        <v>1.4799999999999999E-2</v>
       </c>
       <c r="F97">
         <v>1</v>
       </c>
       <c r="G97">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H97">
         <v>21.450000000000003</v>
@@ -8535,24 +9413,24 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C98" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="D98">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="E98">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -8567,152 +9445,152 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="B99" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C99" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="D99">
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="E99">
-        <v>4.4311999999999996</v>
+        <v>2.3500000000000004E-2</v>
       </c>
       <c r="F99">
         <v>1</v>
       </c>
       <c r="G99">
-        <v>990</v>
+        <v>1336.5</v>
       </c>
       <c r="H99">
-        <v>16.5</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="B100" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="C100" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="D100">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="E100">
-        <v>1.6E-2</v>
+        <v>1.9300000000000005E-2</v>
       </c>
       <c r="F100">
         <v>1</v>
       </c>
       <c r="G100">
-        <v>2376</v>
+        <v>1336.5</v>
       </c>
       <c r="H100">
-        <v>57.2</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I100">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="J100">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="C101" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="D101">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="E101">
-        <v>1.2E-2</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F101">
         <v>1</v>
       </c>
       <c r="G101">
-        <v>2376</v>
+        <v>1336.5</v>
       </c>
       <c r="H101">
-        <v>57.20000000000001</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I101">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="J101">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B102" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="D102">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="E102">
-        <v>1.2999999999999999E-2</v>
+        <v>4.4311999999999996</v>
       </c>
       <c r="F102">
         <v>1</v>
       </c>
       <c r="G102">
-        <v>2376</v>
+        <v>990</v>
       </c>
       <c r="H102">
-        <v>57.2</v>
+        <v>16.5</v>
       </c>
       <c r="I102">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="J102">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="B103" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C103" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D103">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="E103">
-        <v>4.6999999999999993E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -8727,24 +9605,24 @@
         <v>2.52</v>
       </c>
       <c r="J103">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="B104" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C104" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D104">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="E104">
-        <v>1.4E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -8753,12 +9631,108 @@
         <v>2376</v>
       </c>
       <c r="H104">
-        <v>57.2</v>
+        <v>57.20000000000001</v>
       </c>
       <c r="I104">
         <v>2.52</v>
       </c>
       <c r="J104">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" t="s">
+        <v>109</v>
+      </c>
+      <c r="C105" t="s">
+        <v>110</v>
+      </c>
+      <c r="D105">
+        <v>2016</v>
+      </c>
+      <c r="E105">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <v>2376</v>
+      </c>
+      <c r="H105">
+        <v>57.2</v>
+      </c>
+      <c r="I105">
+        <v>2.52</v>
+      </c>
+      <c r="J105">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" t="s">
+        <v>109</v>
+      </c>
+      <c r="C106" t="s">
+        <v>110</v>
+      </c>
+      <c r="D106">
+        <v>2022</v>
+      </c>
+      <c r="E106">
+        <v>4.6999999999999993E-2</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>2376</v>
+      </c>
+      <c r="H106">
+        <v>57.2</v>
+      </c>
+      <c r="I106">
+        <v>2.52</v>
+      </c>
+      <c r="J106">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" t="s">
+        <v>109</v>
+      </c>
+      <c r="C107" t="s">
+        <v>110</v>
+      </c>
+      <c r="D107">
+        <v>2023</v>
+      </c>
+      <c r="E107">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>2376</v>
+      </c>
+      <c r="H107">
+        <v>57.2</v>
+      </c>
+      <c r="I107">
+        <v>2.52</v>
+      </c>
+      <c r="J107">
         <v>32</v>
       </c>
     </row>

--- a/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1F1A6B2-60CB-4FC4-B8B2-75C1C1BBDC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91CE9B9F-2490-4A17-B250-7CD435F02D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{844693F4-D384-4382-AEC9-30259F706AC6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{E838008F-C04B-48C5-AE2F-14F141DDEACE}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="194">
   <si>
     <t>process</t>
   </si>
@@ -88,18 +88,18 @@
     <t>ep_gas_combined_cycle_</t>
   </si>
   <si>
-    <t>ep_gas_combined_cycle_G100000410168</t>
-  </si>
-  <si>
     <t>ep_gas_gas_turbine__m</t>
   </si>
   <si>
+    <t>ep_hydro_dam</t>
+  </si>
+  <si>
+    <t>hydro</t>
+  </si>
+  <si>
     <t>ep_hydro_dam_</t>
   </si>
   <si>
-    <t>hydro</t>
-  </si>
-  <si>
     <t>ep_hydro_dam_G100000603509</t>
   </si>
   <si>
@@ -145,15 +145,9 @@
     <t>ep_hydro_dam_G100000603527</t>
   </si>
   <si>
-    <t>ep_hydro_dam_G100000603528</t>
-  </si>
-  <si>
     <t>ep_hydro_dam_G100000603529</t>
   </si>
   <si>
-    <t>ep_hydro_dam_G100000603530</t>
-  </si>
-  <si>
     <t>ep_hydro_dam_G100000603531</t>
   </si>
   <si>
@@ -187,9 +181,6 @@
     <t>ep_hydro_dam_G100000603551</t>
   </si>
   <si>
-    <t>ep_hydro_dam_G100000603552</t>
-  </si>
-  <si>
     <t>ep_hydro_dam_G100000603553</t>
   </si>
   <si>
@@ -199,9 +190,6 @@
     <t>ep_hydro_dam_G100000603555</t>
   </si>
   <si>
-    <t>ep_hydro_dam_G100000603556</t>
-  </si>
-  <si>
     <t>ep_hydro_dam_G100000603557</t>
   </si>
   <si>
@@ -220,34 +208,7 @@
     <t>ep_hydro_dam_G100000603563</t>
   </si>
   <si>
-    <t>ep_hydro_dam_G100001027468</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100001027470</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100001027472</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100001027478</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100001027479</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100001027483</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100001027484</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100001027485</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100001027486</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100001052031</t>
+    <t>ep_hydro_ps</t>
   </si>
   <si>
     <t>ep_hydro_ps_G100000603519</t>
@@ -283,60 +244,9 @@
     <t>ep_hydro_ps_G100000603565</t>
   </si>
   <si>
-    <t>ep_hydro_ps_G100000604635</t>
-  </si>
-  <si>
-    <t>ep_hydro_ps_G100001027477</t>
-  </si>
-  <si>
-    <t>ep_hydro_ps_G100001027480</t>
-  </si>
-  <si>
-    <t>ep_hydro_ps_G100001027482</t>
-  </si>
-  <si>
-    <t>ep_hydro_ps_G100001027487</t>
-  </si>
-  <si>
     <t>ep_hydro_ror</t>
   </si>
   <si>
-    <t>ep_hydro_ror_G100000603534</t>
-  </si>
-  <si>
-    <t>ep_hydro_ror_G100000603537</t>
-  </si>
-  <si>
-    <t>ep_hydro_ror_G100000603538</t>
-  </si>
-  <si>
-    <t>ep_hydro_ror_G100001027469</t>
-  </si>
-  <si>
-    <t>ep_hydro_ror_G100001027471</t>
-  </si>
-  <si>
-    <t>ep_hydro_ror_G100001027474</t>
-  </si>
-  <si>
-    <t>ep_hydro_ror_G100001027475</t>
-  </si>
-  <si>
-    <t>ep_hydro_ror_G100001027476</t>
-  </si>
-  <si>
-    <t>ep_hydro_ror_G100001027481</t>
-  </si>
-  <si>
-    <t>ep_hydro_ror_G100001052028</t>
-  </si>
-  <si>
-    <t>ep_hydro_ror_G100001052060</t>
-  </si>
-  <si>
-    <t>ep_hydro_ror_G100001052063</t>
-  </si>
-  <si>
     <t>ep_nuclear_G100000500087</t>
   </si>
   <si>
@@ -415,18 +325,15 @@
     <t>Aggregated Plant - EMBER Gap_Missing Gas Capacity</t>
   </si>
   <si>
-    <t>Monthey power station_1</t>
+    <t>Aggregated Plant - IRENA Gap_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Amsteg hydroelectric plant_</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Amsteg hydroelectric plant_</t>
-  </si>
-  <si>
     <t>Barenburg hydroelectric plant_</t>
   </si>
   <si>
@@ -469,15 +376,9 @@
     <t>Handeck I hydroelectric plant_</t>
   </si>
   <si>
-    <t>Handeck II E hydroelectric plant_</t>
-  </si>
-  <si>
     <t>Handeck II hydroelectric plant_</t>
   </si>
   <si>
-    <t>Hopflauenen Trift hydroelectric plant_</t>
-  </si>
-  <si>
     <t>Innertkirchen-I E hydroelectric plant_</t>
   </si>
   <si>
@@ -511,9 +412,6 @@
     <t>Rothenbrunnen hydroelectric plant_</t>
   </si>
   <si>
-    <t>Safien hydroelectric plant_</t>
-  </si>
-  <si>
     <t>Sarelli hydroelectric plant_</t>
   </si>
   <si>
@@ -523,9 +421,6 @@
     <t>Sils hydroelectric plant_</t>
   </si>
   <si>
-    <t>Soazza hydroelectric plant_</t>
-  </si>
-  <si>
     <t>Stalden hydroelectric plant_</t>
   </si>
   <si>
@@ -544,36 +439,6 @@
     <t>Vernayaz hydroelectric plant_</t>
   </si>
   <si>
-    <t>Lucendro hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Campocologno I hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Croix hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Ilanz 2 hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Innertkirchen 2 hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Siebnen hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Tinizong hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Unteraa Lungerersee hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Vissoie hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Navizence hydroelectric plant_</t>
-  </si>
-  <si>
     <t>STG</t>
   </si>
   <si>
@@ -610,57 +475,6 @@
     <t>Veytaux II hydroelectric plant_</t>
   </si>
   <si>
-    <t>Mottec hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Handeck III hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Peccia hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Rempen hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Zermeiggern hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Lavey hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Löbbia Albigna hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Löntsch hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Ardon hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Chancy-Pougny hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Fieschertal hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Filisur hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Gondo hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Piottino hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Ackersand II hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Wassen hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Wildegg-Brugg hydroelectric plant_</t>
-  </si>
-  <si>
     <t>Leibstadt nuclear power plant_--</t>
   </si>
   <si>
@@ -694,9 +508,6 @@
     <t>prc_refit</t>
   </si>
   <si>
-    <t>ep_gas_combined_cycle_G100000410168_ccs-rf</t>
-  </si>
-  <si>
     <t>ep_gas_combined_cycle__ccs-rf</t>
   </si>
   <si>
@@ -704,9 +515,6 @@
   </si>
   <si>
     <t>ep_gas_gas_turbine__m_ccs-rf</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Monthey power station_1</t>
   </si>
   <si>
     <t>ccs retrofit of -- Aggregated Plant - EMBER Gap_Missing Gas Capacity</t>
@@ -1182,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7668E752-8B13-4866-BCD1-6E453890B29E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3DB5580-3CBC-4207-AD39-E1D5079FAC27}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1191,10 +999,10 @@
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="J2" t="s">
-        <v>214</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
@@ -1217,33 +1025,33 @@
         <v>2050</v>
       </c>
       <c r="G3" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="J3" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="K3" t="s">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="M3" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="N3" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="O3" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1264,27 +1072,27 @@
         <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s">
-        <v>226</v>
+        <v>162</v>
       </c>
       <c r="M4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="N4" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="O4" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>226</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -1302,30 +1110,30 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G5" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
       <c r="J5" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="M5" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="N5" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="O5" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>226</v>
+        <v>162</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1346,27 +1154,27 @@
         <v>6</v>
       </c>
       <c r="J6" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s">
-        <v>230</v>
+        <v>166</v>
       </c>
       <c r="M6" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="N6" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="O6" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="P6" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>162</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1387,27 +1195,27 @@
         <v>7</v>
       </c>
       <c r="J7" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="M7" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="N7" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>226</v>
+        <v>162</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -1425,30 +1233,30 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="J8" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="M8" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="N8" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -1469,27 +1277,27 @@
         <v>5</v>
       </c>
       <c r="J9" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="K9" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="M9" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="N9" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="O9" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1507,30 +1315,30 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G10" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="K10" t="s">
-        <v>234</v>
+        <v>170</v>
       </c>
       <c r="M10" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="N10" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="O10" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -1551,27 +1359,27 @@
         <v>6</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="K11" t="s">
-        <v>235</v>
+        <v>171</v>
       </c>
       <c r="M11" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="N11" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="O11" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -1592,27 +1400,27 @@
         <v>7</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s">
-        <v>237</v>
+        <v>173</v>
       </c>
       <c r="M12" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="O12" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -1630,30 +1438,30 @@
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="M13" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="N13" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="O13" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>230</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -1674,27 +1482,27 @@
         <v>5</v>
       </c>
       <c r="J14" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="K14" t="s">
-        <v>240</v>
+        <v>176</v>
       </c>
       <c r="M14" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="N14" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="O14" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>230</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -1712,30 +1520,30 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G15" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
       <c r="J15" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="K15" t="s">
-        <v>241</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="N15" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="O15" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>230</v>
+        <v>166</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -1756,27 +1564,27 @@
         <v>6</v>
       </c>
       <c r="J16" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s">
-        <v>243</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="N16" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="O16" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>230</v>
+        <v>166</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -1797,27 +1605,27 @@
         <v>7</v>
       </c>
       <c r="J17" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s">
-        <v>244</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="N17" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="O17" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>230</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -1835,30 +1643,30 @@
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="J18" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s">
-        <v>245</v>
+        <v>181</v>
       </c>
       <c r="M18" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="N18" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="O18" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -1879,27 +1687,27 @@
         <v>5</v>
       </c>
       <c r="J19" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="K19" t="s">
-        <v>246</v>
+        <v>182</v>
       </c>
       <c r="M19" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="N19" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="O19" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -1917,30 +1725,30 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="G20" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
       <c r="J20" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s">
-        <v>247</v>
+        <v>183</v>
       </c>
       <c r="M20" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="N20" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="O20" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="P20" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -1961,27 +1769,27 @@
         <v>6</v>
       </c>
       <c r="J21" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s">
-        <v>249</v>
+        <v>185</v>
       </c>
       <c r="M21" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="N21" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="O21" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -2002,27 +1810,27 @@
         <v>7</v>
       </c>
       <c r="J22" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s">
-        <v>250</v>
+        <v>186</v>
       </c>
       <c r="M22" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="N22" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="O22" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -2040,30 +1848,30 @@
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="J23" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s">
-        <v>251</v>
+        <v>187</v>
       </c>
       <c r="M23" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="N23" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="O23" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="P23" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -2084,27 +1892,27 @@
         <v>5</v>
       </c>
       <c r="J24" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s">
-        <v>252</v>
+        <v>188</v>
       </c>
       <c r="M24" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="N24" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="O24" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="P24" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -2125,27 +1933,27 @@
         <v>6</v>
       </c>
       <c r="J25" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s">
-        <v>253</v>
+        <v>189</v>
       </c>
       <c r="M25" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="N25" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="O25" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
@@ -2166,27 +1974,27 @@
         <v>7</v>
       </c>
       <c r="J26" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s">
-        <v>254</v>
+        <v>190</v>
       </c>
       <c r="M26" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="N26" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="O26" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="P26" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
@@ -2207,27 +2015,27 @@
         <v>5</v>
       </c>
       <c r="J27" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s">
-        <v>255</v>
+        <v>191</v>
       </c>
       <c r="M27" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="N27" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="O27" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -2248,27 +2056,27 @@
         <v>6</v>
       </c>
       <c r="J28" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s">
-        <v>256</v>
+        <v>192</v>
       </c>
       <c r="M28" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="N28" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="O28" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
@@ -2289,27 +2097,27 @@
         <v>7</v>
       </c>
       <c r="J29" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s">
-        <v>257</v>
+        <v>193</v>
       </c>
       <c r="M29" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="N29" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="O29" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>234</v>
+        <v>170</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
@@ -2332,7 +2140,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>234</v>
+        <v>170</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
@@ -2355,7 +2163,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>234</v>
+        <v>170</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
@@ -2378,10 +2186,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>235</v>
+        <v>171</v>
       </c>
       <c r="B33" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="C33" t="s">
         <v>12</v>
@@ -2401,10 +2209,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>235</v>
+        <v>171</v>
       </c>
       <c r="B34" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
@@ -2424,10 +2232,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>235</v>
+        <v>171</v>
       </c>
       <c r="B35" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
@@ -2447,10 +2255,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>237</v>
+        <v>173</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
         <v>12</v>
@@ -2470,10 +2278,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>237</v>
+        <v>173</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
@@ -2488,15 +2296,15 @@
         <v>0.42</v>
       </c>
       <c r="G37" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>237</v>
+        <v>173</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
@@ -2516,10 +2324,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>237</v>
+        <v>173</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
@@ -2539,10 +2347,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>237</v>
+        <v>173</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
@@ -2557,15 +2365,15 @@
         <v>3</v>
       </c>
       <c r="G40" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="B41" t="s">
-        <v>239</v>
+        <v>175</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
@@ -2585,10 +2393,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="B42" t="s">
-        <v>239</v>
+        <v>175</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
@@ -2608,10 +2416,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="B43" t="s">
-        <v>239</v>
+        <v>175</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
@@ -2631,7 +2439,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>240</v>
+        <v>176</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
@@ -2654,7 +2462,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>240</v>
+        <v>176</v>
       </c>
       <c r="B45" t="s">
         <v>14</v>
@@ -2677,7 +2485,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>240</v>
+        <v>176</v>
       </c>
       <c r="B46" t="s">
         <v>14</v>
@@ -2700,10 +2508,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>241</v>
+        <v>177</v>
       </c>
       <c r="B47" t="s">
-        <v>242</v>
+        <v>178</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
@@ -2723,10 +2531,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>241</v>
+        <v>177</v>
       </c>
       <c r="B48" t="s">
-        <v>242</v>
+        <v>178</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
@@ -2741,15 +2549,15 @@
         <v>0.85000000000000009</v>
       </c>
       <c r="G48" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>241</v>
+        <v>177</v>
       </c>
       <c r="B49" t="s">
-        <v>242</v>
+        <v>178</v>
       </c>
       <c r="C49" t="s">
         <v>12</v>
@@ -2769,10 +2577,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>241</v>
+        <v>177</v>
       </c>
       <c r="B50" t="s">
-        <v>242</v>
+        <v>178</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
@@ -2792,10 +2600,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>241</v>
+        <v>177</v>
       </c>
       <c r="B51" t="s">
-        <v>242</v>
+        <v>178</v>
       </c>
       <c r="C51" t="s">
         <v>12</v>
@@ -2810,15 +2618,15 @@
         <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>243</v>
+        <v>179</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
         <v>12</v>
@@ -2838,10 +2646,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>243</v>
+        <v>179</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
         <v>12</v>
@@ -2856,15 +2664,15 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="G53" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>243</v>
+        <v>179</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
@@ -2884,10 +2692,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>243</v>
+        <v>179</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
@@ -2907,10 +2715,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>243</v>
+        <v>179</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C56" t="s">
         <v>12</v>
@@ -2925,15 +2733,15 @@
         <v>4</v>
       </c>
       <c r="G56" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>244</v>
+        <v>180</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
@@ -2953,10 +2761,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>244</v>
+        <v>180</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
@@ -2971,15 +2779,15 @@
         <v>0.25</v>
       </c>
       <c r="G58" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>244</v>
+        <v>180</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C59" t="s">
         <v>12</v>
@@ -2999,10 +2807,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>244</v>
+        <v>180</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C60" t="s">
         <v>12</v>
@@ -3022,10 +2830,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>244</v>
+        <v>180</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C61" t="s">
         <v>12</v>
@@ -3040,12 +2848,12 @@
         <v>4</v>
       </c>
       <c r="G61" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>245</v>
+        <v>181</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
@@ -3068,7 +2876,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>245</v>
+        <v>181</v>
       </c>
       <c r="B63" t="s">
         <v>14</v>
@@ -3091,7 +2899,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>245</v>
+        <v>181</v>
       </c>
       <c r="B64" t="s">
         <v>14</v>
@@ -3114,10 +2922,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>246</v>
+        <v>182</v>
       </c>
       <c r="B65" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="C65" t="s">
         <v>12</v>
@@ -3137,10 +2945,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>246</v>
+        <v>182</v>
       </c>
       <c r="B66" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="C66" t="s">
         <v>12</v>
@@ -3160,10 +2968,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>246</v>
+        <v>182</v>
       </c>
       <c r="B67" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="C67" t="s">
         <v>12</v>
@@ -3183,10 +2991,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>247</v>
+        <v>183</v>
       </c>
       <c r="B68" t="s">
-        <v>248</v>
+        <v>184</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
@@ -3206,10 +3014,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>247</v>
+        <v>183</v>
       </c>
       <c r="B69" t="s">
-        <v>248</v>
+        <v>184</v>
       </c>
       <c r="C69" t="s">
         <v>12</v>
@@ -3224,15 +3032,15 @@
         <v>0.25</v>
       </c>
       <c r="G69" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>247</v>
+        <v>183</v>
       </c>
       <c r="B70" t="s">
-        <v>248</v>
+        <v>184</v>
       </c>
       <c r="C70" t="s">
         <v>12</v>
@@ -3252,10 +3060,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>247</v>
+        <v>183</v>
       </c>
       <c r="B71" t="s">
-        <v>248</v>
+        <v>184</v>
       </c>
       <c r="C71" t="s">
         <v>12</v>
@@ -3275,10 +3083,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>247</v>
+        <v>183</v>
       </c>
       <c r="B72" t="s">
-        <v>248</v>
+        <v>184</v>
       </c>
       <c r="C72" t="s">
         <v>12</v>
@@ -3293,15 +3101,15 @@
         <v>4</v>
       </c>
       <c r="G72" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>249</v>
+        <v>185</v>
       </c>
       <c r="B73" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C73" t="s">
         <v>12</v>
@@ -3321,10 +3129,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>249</v>
+        <v>185</v>
       </c>
       <c r="B74" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
@@ -3344,10 +3152,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>249</v>
+        <v>185</v>
       </c>
       <c r="B75" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
@@ -3367,10 +3175,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>250</v>
+        <v>186</v>
       </c>
       <c r="B76" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="C76" t="s">
         <v>12</v>
@@ -3390,10 +3198,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>250</v>
+        <v>186</v>
       </c>
       <c r="B77" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="C77" t="s">
         <v>12</v>
@@ -3413,10 +3221,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>250</v>
+        <v>186</v>
       </c>
       <c r="B78" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="C78" t="s">
         <v>12</v>
@@ -3436,10 +3244,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>251</v>
+        <v>187</v>
       </c>
       <c r="B79" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C79" t="s">
         <v>12</v>
@@ -3459,10 +3267,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>251</v>
+        <v>187</v>
       </c>
       <c r="B80" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C80" t="s">
         <v>12</v>
@@ -3477,15 +3285,15 @@
         <v>0.13</v>
       </c>
       <c r="G80" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>251</v>
+        <v>187</v>
       </c>
       <c r="B81" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
@@ -3505,10 +3313,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>251</v>
+        <v>187</v>
       </c>
       <c r="B82" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C82" t="s">
         <v>12</v>
@@ -3528,10 +3336,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>251</v>
+        <v>187</v>
       </c>
       <c r="B83" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C83" t="s">
         <v>12</v>
@@ -3546,15 +3354,15 @@
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>252</v>
+        <v>188</v>
       </c>
       <c r="B84" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C84" t="s">
         <v>12</v>
@@ -3574,10 +3382,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>252</v>
+        <v>188</v>
       </c>
       <c r="B85" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C85" t="s">
         <v>12</v>
@@ -3592,15 +3400,15 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G85" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>252</v>
+        <v>188</v>
       </c>
       <c r="B86" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C86" t="s">
         <v>12</v>
@@ -3620,10 +3428,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>252</v>
+        <v>188</v>
       </c>
       <c r="B87" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C87" t="s">
         <v>12</v>
@@ -3643,10 +3451,10 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>252</v>
+        <v>188</v>
       </c>
       <c r="B88" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C88" t="s">
         <v>12</v>
@@ -3661,15 +3469,15 @@
         <v>1.5</v>
       </c>
       <c r="G88" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>253</v>
+        <v>189</v>
       </c>
       <c r="B89" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="C89" t="s">
         <v>12</v>
@@ -3689,10 +3497,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>253</v>
+        <v>189</v>
       </c>
       <c r="B90" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="C90" t="s">
         <v>12</v>
@@ -3712,10 +3520,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>253</v>
+        <v>189</v>
       </c>
       <c r="B91" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="C91" t="s">
         <v>12</v>
@@ -3735,10 +3543,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>254</v>
+        <v>190</v>
       </c>
       <c r="B92" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="C92" t="s">
         <v>12</v>
@@ -3758,10 +3566,10 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>254</v>
+        <v>190</v>
       </c>
       <c r="B93" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="C93" t="s">
         <v>12</v>
@@ -3781,10 +3589,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>254</v>
+        <v>190</v>
       </c>
       <c r="B94" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="C94" t="s">
         <v>12</v>
@@ -3804,10 +3612,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>255</v>
+        <v>191</v>
       </c>
       <c r="B95" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="C95" t="s">
         <v>12</v>
@@ -3827,10 +3635,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>255</v>
+        <v>191</v>
       </c>
       <c r="B96" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="C96" t="s">
         <v>12</v>
@@ -3850,10 +3658,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>255</v>
+        <v>191</v>
       </c>
       <c r="B97" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="C97" t="s">
         <v>12</v>
@@ -3873,10 +3681,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>256</v>
+        <v>192</v>
       </c>
       <c r="B98" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="C98" t="s">
         <v>12</v>
@@ -3896,10 +3704,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>256</v>
+        <v>192</v>
       </c>
       <c r="B99" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="C99" t="s">
         <v>12</v>
@@ -3914,15 +3722,15 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G99" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>256</v>
+        <v>192</v>
       </c>
       <c r="B100" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="C100" t="s">
         <v>12</v>
@@ -3942,10 +3750,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>256</v>
+        <v>192</v>
       </c>
       <c r="B101" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="C101" t="s">
         <v>12</v>
@@ -3965,10 +3773,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>256</v>
+        <v>192</v>
       </c>
       <c r="B102" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="C102" t="s">
         <v>12</v>
@@ -3983,15 +3791,15 @@
         <v>3</v>
       </c>
       <c r="G102" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>257</v>
+        <v>193</v>
       </c>
       <c r="B103" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="C103" t="s">
         <v>12</v>
@@ -4011,10 +3819,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>257</v>
+        <v>193</v>
       </c>
       <c r="B104" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="C104" t="s">
         <v>12</v>
@@ -4029,15 +3837,15 @@
         <v>0.3</v>
       </c>
       <c r="G104" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>257</v>
+        <v>193</v>
       </c>
       <c r="B105" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="C105" t="s">
         <v>12</v>
@@ -4057,10 +3865,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>257</v>
+        <v>193</v>
       </c>
       <c r="B106" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="C106" t="s">
         <v>12</v>
@@ -4080,10 +3888,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>257</v>
+        <v>193</v>
       </c>
       <c r="B107" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="C107" t="s">
         <v>12</v>
@@ -4098,7 +3906,7 @@
         <v>1.5</v>
       </c>
       <c r="G107" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4107,8 +3915,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3C56CA-5F33-458D-AEC9-5A66004F6171}">
-  <dimension ref="A2:T7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A8418D-BFA7-4704-A10A-0418048773A3}">
+  <dimension ref="A2:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4116,10 +3924,10 @@
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="N2" t="s">
-        <v>214</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.45">
@@ -4145,42 +3953,42 @@
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>215</v>
+        <v>153</v>
       </c>
       <c r="I3" t="s">
-        <v>216</v>
+        <v>154</v>
       </c>
       <c r="J3" t="s">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="K3" t="s">
         <v>9</v>
       </c>
       <c r="N3" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="O3" t="s">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="Q3" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="R3" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="S3" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="T3" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>218</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -4189,7 +3997,7 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>0.46865000000000007</v>
+        <v>0.52272499999999988</v>
       </c>
       <c r="E4">
         <v>1365</v>
@@ -4204,7 +4012,7 @@
         <v>0.84455000000000002</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -4213,30 +4021,30 @@
         <v>20</v>
       </c>
       <c r="N4" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="O4" t="s">
-        <v>218</v>
+        <v>156</v>
       </c>
       <c r="P4" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="Q4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="R4" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="S4" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="T4" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>219</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -4245,7 +4053,7 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>0.52272499999999988</v>
+        <v>0.46865000000000007</v>
       </c>
       <c r="E5">
         <v>1365</v>
@@ -4260,7 +4068,7 @@
         <v>0.84455000000000002</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -4269,30 +4077,30 @@
         <v>20</v>
       </c>
       <c r="N5" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="O5" t="s">
-        <v>219</v>
+        <v>157</v>
       </c>
       <c r="P5" t="s">
-        <v>223</v>
+        <v>160</v>
       </c>
       <c r="Q5" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="R5" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="S5" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="T5" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -4301,7 +4109,7 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>0.36951250000000002</v>
+        <v>0.27938750000000001</v>
       </c>
       <c r="E6">
         <v>1365</v>
@@ -4316,7 +4124,7 @@
         <v>0.84455000000000002</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -4325,81 +4133,25 @@
         <v>20</v>
       </c>
       <c r="N6" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="P6" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="Q6" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="R6" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="S6" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="T6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>221</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>0.27938750000000001</v>
-      </c>
-      <c r="E7">
-        <v>1365</v>
-      </c>
-      <c r="F7">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="G7">
-        <v>3.75</v>
-      </c>
-      <c r="H7">
-        <v>0.84455000000000002</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>20</v>
-      </c>
-      <c r="N7" t="s">
-        <v>117</v>
-      </c>
-      <c r="O7" t="s">
-        <v>221</v>
-      </c>
-      <c r="P7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>119</v>
-      </c>
-      <c r="R7" t="s">
-        <v>120</v>
-      </c>
-      <c r="S7" t="s">
-        <v>121</v>
-      </c>
-      <c r="T7" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -4408,8 +4160,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4411CD-B544-499A-8DB5-00E4E05F8E23}">
-  <dimension ref="A2:S107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0CCD06-3834-4501-907E-167A3481B8BB}">
+  <dimension ref="A2:S104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4417,10 +4169,10 @@
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="M2" t="s">
-        <v>214</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.45">
@@ -4455,25 +4207,25 @@
         <v>9</v>
       </c>
       <c r="M3" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="N3" t="s">
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="Q3" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="R3" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="S3" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.45">
@@ -4508,25 +4260,25 @@
         <v>50</v>
       </c>
       <c r="M4" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N4" t="s">
         <v>10</v>
       </c>
       <c r="O4" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q4" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R4" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S4" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.45">
@@ -4561,30 +4313,30 @@
         <v>67</v>
       </c>
       <c r="M5" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N5" t="s">
         <v>13</v>
       </c>
       <c r="O5" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q5" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R5" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S5" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -4593,13 +4345,13 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>2022</v>
+        <v>2009</v>
       </c>
       <c r="E6">
-        <v>0.13120000000000001</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F6">
-        <v>0.59739999999999993</v>
+        <v>0.53560000000000008</v>
       </c>
       <c r="G6">
         <v>1265</v>
@@ -4614,30 +4366,30 @@
         <v>50</v>
       </c>
       <c r="M6" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N6" t="s">
         <v>15</v>
       </c>
       <c r="O6" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q6" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R6" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S6" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -4646,13 +4398,13 @@
         <v>12</v>
       </c>
       <c r="D7">
-        <v>2009</v>
+        <v>2022</v>
       </c>
       <c r="E7">
-        <v>5.5E-2</v>
+        <v>0.13120000000000001</v>
       </c>
       <c r="F7">
-        <v>0.53560000000000008</v>
+        <v>0.59739999999999993</v>
       </c>
       <c r="G7">
         <v>1265</v>
@@ -4667,30 +4419,30 @@
         <v>50</v>
       </c>
       <c r="M7" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N7" t="s">
         <v>16</v>
       </c>
       <c r="O7" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q7" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R7" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S7" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -4720,95 +4472,95 @@
         <v>40</v>
       </c>
       <c r="M8" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N8" t="s">
         <v>17</v>
       </c>
       <c r="O8" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q8" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R8" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S8" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>1907</v>
+      </c>
+      <c r="E9">
+        <v>0.05</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3712.5000000000005</v>
+      </c>
+      <c r="H9">
+        <v>71.5</v>
+      </c>
+      <c r="I9">
+        <v>2.52</v>
+      </c>
+      <c r="J9">
+        <v>148</v>
+      </c>
+      <c r="M9" t="s">
+        <v>87</v>
+      </c>
+      <c r="N9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>2022</v>
-      </c>
-      <c r="E9">
-        <v>3.1750000000000007</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2750</v>
-      </c>
-      <c r="H9">
-        <v>55</v>
-      </c>
-      <c r="I9">
-        <v>2.1</v>
-      </c>
-      <c r="J9">
-        <v>100</v>
-      </c>
-      <c r="M9" t="s">
-        <v>117</v>
-      </c>
-      <c r="N9" t="s">
-        <v>18</v>
-      </c>
       <c r="O9" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q9" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R9" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S9" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="E10">
-        <v>0.12</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -4823,45 +4575,45 @@
         <v>2.3100000000000005</v>
       </c>
       <c r="J10">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M10" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N10" t="s">
         <v>20</v>
       </c>
       <c r="O10" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q10" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R10" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S10" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11">
-        <v>1962</v>
+        <v>1926</v>
       </c>
       <c r="E11">
-        <v>0.22</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -4876,45 +4628,45 @@
         <v>2.3100000000000005</v>
       </c>
       <c r="J11">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="M11" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N11" t="s">
         <v>21</v>
       </c>
       <c r="O11" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q11" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R11" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S11" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12">
-        <v>1966</v>
+        <v>1947</v>
       </c>
       <c r="E12">
-        <v>0.14000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -4929,310 +4681,310 @@
         <v>2.3100000000000005</v>
       </c>
       <c r="J12">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M12" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N12" t="s">
         <v>22</v>
       </c>
       <c r="O12" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q12" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R12" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S12" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13">
-        <v>1959</v>
+        <v>1954</v>
       </c>
       <c r="E13">
-        <v>0.32400000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H13">
-        <v>55.000000000000014</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I13">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J13">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M13" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N13" t="s">
         <v>23</v>
       </c>
       <c r="O13" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q13" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R13" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S13" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>1999</v>
+        <v>1957</v>
       </c>
       <c r="E14">
-        <v>1.26</v>
+        <v>0.152</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2750</v>
+        <v>3162.5000000000009</v>
       </c>
       <c r="H14">
-        <v>55.000000000000014</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I14">
-        <v>2.1</v>
+        <v>2.3100000000000009</v>
       </c>
       <c r="J14">
         <v>100</v>
       </c>
       <c r="M14" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N14" t="s">
         <v>24</v>
       </c>
       <c r="O14" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q14" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R14" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S14" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15">
-        <v>1955</v>
+        <v>1958</v>
       </c>
       <c r="E15">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H15">
-        <v>60.500000000000021</v>
+        <v>71.5</v>
       </c>
       <c r="I15">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J15">
         <v>100</v>
       </c>
       <c r="M15" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N15" t="s">
         <v>25</v>
       </c>
       <c r="O15" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q15" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R15" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S15" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="E16">
-        <v>0.34</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2750</v>
+        <v>3162.5000000000009</v>
       </c>
       <c r="H16">
-        <v>55.000000000000014</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I16">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J16">
         <v>100</v>
       </c>
       <c r="M16" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N16" t="s">
         <v>26</v>
       </c>
       <c r="O16" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="P16" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q16" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R16" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S16" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
       </c>
       <c r="D17">
-        <v>1959</v>
+        <v>1992</v>
       </c>
       <c r="E17">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H17">
-        <v>60.500000000000021</v>
+        <v>71.5</v>
       </c>
       <c r="I17">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J17">
         <v>100</v>
       </c>
       <c r="M17" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N17" t="s">
         <v>27</v>
       </c>
       <c r="O17" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="P17" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q17" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R17" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S17" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18">
-        <v>1955</v>
+        <v>2012</v>
       </c>
       <c r="E18">
-        <v>0.114</v>
+        <v>0.09</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -5241,7 +4993,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H18">
-        <v>60.500000000000014</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I18">
         <v>2.3100000000000005</v>
@@ -5250,101 +5002,101 @@
         <v>100</v>
       </c>
       <c r="M18" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N18" t="s">
         <v>28</v>
       </c>
       <c r="O18" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q18" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R18" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S18" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19">
-        <v>1957</v>
+        <v>2014</v>
       </c>
       <c r="E19">
-        <v>0.30599999999999999</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H19">
-        <v>55.000000000000014</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I19">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J19">
         <v>100</v>
       </c>
       <c r="M19" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N19" t="s">
         <v>29</v>
       </c>
       <c r="O19" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q19" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R19" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S19" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20">
-        <v>1958</v>
+        <v>2015</v>
       </c>
       <c r="E20">
-        <v>0.14000000000000001</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3162.5000000000005</v>
+        <v>3162.5000000000009</v>
       </c>
       <c r="H20">
         <v>60.500000000000014</v>
@@ -5356,95 +5108,95 @@
         <v>100</v>
       </c>
       <c r="M20" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N20" t="s">
         <v>30</v>
       </c>
       <c r="O20" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="P20" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q20" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R20" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S20" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21">
-        <v>1965</v>
+        <v>2022</v>
       </c>
       <c r="E21">
-        <v>0.13300000000000001</v>
+        <v>3.1750000000000007</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H21">
-        <v>60.500000000000014</v>
+        <v>55</v>
       </c>
       <c r="I21">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J21">
         <v>100</v>
       </c>
       <c r="M21" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N21" t="s">
         <v>31</v>
       </c>
       <c r="O21" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="P21" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q21" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R21" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S21" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
       </c>
       <c r="D22">
-        <v>1962</v>
+        <v>1923</v>
       </c>
       <c r="E22">
-        <v>0.16500000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -5459,98 +5211,98 @@
         <v>2.3100000000000005</v>
       </c>
       <c r="J22">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="M22" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N22" t="s">
         <v>32</v>
       </c>
       <c r="O22" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="P22" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q22" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R22" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S22" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
       </c>
       <c r="D23">
-        <v>1981</v>
+        <v>1962</v>
       </c>
       <c r="E23">
-        <v>0.38800000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H23">
-        <v>55.000000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I23">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J23">
         <v>100</v>
       </c>
       <c r="M23" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N23" t="s">
         <v>33</v>
       </c>
       <c r="O23" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="P23" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q23" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R23" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S23" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24">
-        <v>1928</v>
+        <v>1966</v>
       </c>
       <c r="E24">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -5559,166 +5311,166 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H24">
-        <v>60.500000000000021</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I24">
         <v>2.3100000000000005</v>
       </c>
       <c r="J24">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="M24" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N24" t="s">
         <v>34</v>
       </c>
       <c r="O24" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="P24" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q24" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R24" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S24" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
       </c>
       <c r="D25">
-        <v>2012</v>
+        <v>1959</v>
       </c>
       <c r="E25">
-        <v>0.09</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H25">
-        <v>60.500000000000007</v>
+        <v>55.000000000000014</v>
       </c>
       <c r="I25">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J25">
         <v>100</v>
       </c>
       <c r="M25" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N25" t="s">
         <v>35</v>
       </c>
       <c r="O25" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="P25" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q25" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R25" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S25" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
       </c>
       <c r="D26">
-        <v>1950</v>
+        <v>1999</v>
       </c>
       <c r="E26">
-        <v>0.126</v>
+        <v>1.26</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H26">
-        <v>60.500000000000014</v>
+        <v>55.000000000000014</v>
       </c>
       <c r="I26">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J26">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M26" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N26" t="s">
         <v>36</v>
       </c>
       <c r="O26" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="P26" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q26" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R26" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S26" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
       </c>
       <c r="D27">
-        <v>1967</v>
+        <v>1955</v>
       </c>
       <c r="E27">
-        <v>8.5000000000000006E-2</v>
+        <v>0.1</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>3162.5000000000009</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H27">
-        <v>60.500000000000014</v>
+        <v>60.500000000000021</v>
       </c>
       <c r="I27">
         <v>2.3100000000000005</v>
@@ -5727,95 +5479,95 @@
         <v>100</v>
       </c>
       <c r="M27" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N27" t="s">
         <v>37</v>
       </c>
       <c r="O27" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="P27" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q27" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R27" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S27" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
       </c>
       <c r="D28">
-        <v>2016</v>
+        <v>1969</v>
       </c>
       <c r="E28">
-        <v>0.15</v>
+        <v>0.34</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H28">
-        <v>60.500000000000014</v>
+        <v>55.000000000000014</v>
       </c>
       <c r="I28">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J28">
         <v>100</v>
       </c>
       <c r="M28" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N28" t="s">
         <v>38</v>
       </c>
       <c r="O28" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="P28" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q28" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R28" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S28" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
       </c>
       <c r="D29">
-        <v>1943</v>
+        <v>1959</v>
       </c>
       <c r="E29">
-        <v>0.24</v>
+        <v>0.1</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -5824,57 +5576,57 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H29">
-        <v>60.500000000000014</v>
+        <v>60.500000000000021</v>
       </c>
       <c r="I29">
         <v>2.3100000000000005</v>
       </c>
       <c r="J29">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="M29" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N29" t="s">
         <v>39</v>
       </c>
       <c r="O29" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="P29" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q29" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R29" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S29" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
       </c>
       <c r="D30">
-        <v>1978</v>
+        <v>1955</v>
       </c>
       <c r="E30">
-        <v>0.17</v>
+        <v>0.114</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>3162.5000000000009</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H30">
         <v>60.500000000000014</v>
@@ -5886,95 +5638,95 @@
         <v>100</v>
       </c>
       <c r="M30" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N30" t="s">
         <v>40</v>
       </c>
       <c r="O30" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q30" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R30" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S30" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
         <v>12</v>
       </c>
       <c r="D31">
-        <v>1976</v>
+        <v>1957</v>
       </c>
       <c r="E31">
-        <v>0.122</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H31">
-        <v>60.500000000000014</v>
+        <v>55.000000000000014</v>
       </c>
       <c r="I31">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J31">
         <v>100</v>
       </c>
       <c r="M31" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N31" t="s">
         <v>41</v>
       </c>
       <c r="O31" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="P31" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q31" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R31" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S31" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
       </c>
       <c r="D32">
-        <v>1910</v>
+        <v>1958</v>
       </c>
       <c r="E32">
-        <v>0.19800000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -5983,104 +5735,104 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H32">
-        <v>60.500000000000021</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I32">
         <v>2.3100000000000005</v>
       </c>
       <c r="J32">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="M32" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N32" t="s">
         <v>42</v>
       </c>
       <c r="O32" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="P32" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q32" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R32" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S32" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
         <v>12</v>
       </c>
       <c r="D33">
-        <v>1960</v>
+        <v>1965</v>
       </c>
       <c r="E33">
-        <v>0.39200000000000002</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H33">
-        <v>55.000000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I33">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J33">
         <v>100</v>
       </c>
       <c r="M33" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N33" t="s">
         <v>43</v>
       </c>
       <c r="O33" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="P33" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q33" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R33" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S33" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
       </c>
       <c r="D34">
-        <v>1966</v>
+        <v>1962</v>
       </c>
       <c r="E34">
-        <v>0.14099999999999999</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -6098,95 +5850,95 @@
         <v>100</v>
       </c>
       <c r="M34" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N34" t="s">
         <v>44</v>
       </c>
       <c r="O34" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="P34" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q34" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R34" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S34" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
       </c>
       <c r="D35">
-        <v>1962</v>
+        <v>1981</v>
       </c>
       <c r="E35">
-        <v>0.10199999999999999</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H35">
-        <v>60.500000000000021</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I35">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J35">
         <v>100</v>
       </c>
       <c r="M35" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N35" t="s">
         <v>45</v>
       </c>
       <c r="O35" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q35" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R35" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S35" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
         <v>12</v>
       </c>
       <c r="D36">
-        <v>1970</v>
+        <v>1928</v>
       </c>
       <c r="E36">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -6195,51 +5947,51 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H36">
-        <v>60.500000000000014</v>
+        <v>60.500000000000021</v>
       </c>
       <c r="I36">
         <v>2.3100000000000005</v>
       </c>
       <c r="J36">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="M36" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N36" t="s">
         <v>46</v>
       </c>
       <c r="O36" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q36" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R36" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S36" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
       </c>
       <c r="D37">
-        <v>1956</v>
+        <v>1950</v>
       </c>
       <c r="E37">
-        <v>0.25800000000000001</v>
+        <v>0.126</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -6254,45 +6006,45 @@
         <v>2.3100000000000005</v>
       </c>
       <c r="J37">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M37" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N37" t="s">
         <v>47</v>
       </c>
       <c r="O37" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="P37" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q37" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R37" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S37" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
       </c>
       <c r="D38">
-        <v>1958</v>
+        <v>2016</v>
       </c>
       <c r="E38">
-        <v>0.13500000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -6310,42 +6062,42 @@
         <v>100</v>
       </c>
       <c r="M38" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N38" t="s">
         <v>48</v>
       </c>
       <c r="O38" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q38" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R38" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S38" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
       </c>
       <c r="D39">
-        <v>1957</v>
+        <v>1943</v>
       </c>
       <c r="E39">
-        <v>8.5999999999999993E-2</v>
+        <v>0.24</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -6354,42 +6106,42 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H39">
-        <v>60.500000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I39">
         <v>2.3100000000000005</v>
       </c>
       <c r="J39">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="M39" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N39" t="s">
         <v>49</v>
       </c>
       <c r="O39" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="P39" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q39" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R39" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S39" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
@@ -6398,16 +6150,16 @@
         <v>1978</v>
       </c>
       <c r="E40">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
       <c r="G40">
-        <v>3162.5000000000005</v>
+        <v>3162.5000000000009</v>
       </c>
       <c r="H40">
-        <v>60.500000000000021</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I40">
         <v>2.3100000000000005</v>
@@ -6416,42 +6168,42 @@
         <v>100</v>
       </c>
       <c r="M40" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N40" t="s">
         <v>50</v>
       </c>
       <c r="O40" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="P40" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q40" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R40" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S40" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
       </c>
       <c r="D41">
-        <v>1968</v>
+        <v>1976</v>
       </c>
       <c r="E41">
-        <v>0.15</v>
+        <v>0.122</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -6469,42 +6221,42 @@
         <v>100</v>
       </c>
       <c r="M41" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N41" t="s">
         <v>51</v>
       </c>
       <c r="O41" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="P41" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q41" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R41" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S41" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
       </c>
       <c r="D42">
-        <v>1961</v>
+        <v>1910</v>
       </c>
       <c r="E42">
-        <v>0.247</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -6513,104 +6265,104 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H42">
-        <v>60.500000000000014</v>
+        <v>60.500000000000021</v>
       </c>
       <c r="I42">
         <v>2.3100000000000005</v>
       </c>
       <c r="J42">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="M42" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N42" t="s">
         <v>52</v>
       </c>
       <c r="O42" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="P42" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q42" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R42" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S42" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
       </c>
       <c r="D43">
-        <v>2015</v>
+        <v>1960</v>
       </c>
       <c r="E43">
-        <v>8.3000000000000004E-2</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43">
-        <v>3162.5000000000009</v>
+        <v>2750</v>
       </c>
       <c r="H43">
-        <v>60.500000000000014</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I43">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J43">
         <v>100</v>
       </c>
       <c r="M43" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N43" t="s">
         <v>53</v>
       </c>
       <c r="O43" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="P43" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q43" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R43" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S43" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
       </c>
       <c r="D44">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="E44">
-        <v>0.185</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -6619,7 +6371,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H44">
-        <v>60.500000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I44">
         <v>2.3100000000000005</v>
@@ -6628,33 +6380,33 @@
         <v>100</v>
       </c>
       <c r="M44" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N44" t="s">
         <v>54</v>
       </c>
       <c r="O44" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="P44" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q44" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R44" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S44" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
@@ -6663,7 +6415,7 @@
         <v>1962</v>
       </c>
       <c r="E45">
-        <v>0.18</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -6672,7 +6424,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H45">
-        <v>60.500000000000007</v>
+        <v>60.500000000000021</v>
       </c>
       <c r="I45">
         <v>2.3100000000000005</v>
@@ -6681,95 +6433,95 @@
         <v>100</v>
       </c>
       <c r="M45" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N45" t="s">
         <v>55</v>
       </c>
       <c r="O45" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="P45" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q45" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R45" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S45" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
       </c>
       <c r="D46">
-        <v>1964</v>
+        <v>1970</v>
       </c>
       <c r="E46">
-        <v>0.35199999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="G46">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H46">
-        <v>55.000000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I46">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J46">
         <v>100</v>
       </c>
       <c r="M46" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="N46" t="s">
         <v>56</v>
       </c>
       <c r="O46" t="s">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q46" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R46" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S46" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
       </c>
       <c r="D47">
-        <v>1953</v>
+        <v>1956</v>
       </c>
       <c r="E47">
-        <v>0.11899999999999999</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -6784,45 +6536,45 @@
         <v>2.3100000000000005</v>
       </c>
       <c r="J47">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M47" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="N47" t="s">
         <v>57</v>
       </c>
       <c r="O47" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="P47" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q47" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R47" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S47" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
       </c>
       <c r="D48">
-        <v>1943</v>
+        <v>1958</v>
       </c>
       <c r="E48">
-        <v>0.10299999999999999</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -6837,45 +6589,45 @@
         <v>2.3100000000000005</v>
       </c>
       <c r="J48">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="M48" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="N48" t="s">
         <v>58</v>
       </c>
       <c r="O48" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="P48" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q48" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R48" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S48" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
         <v>12</v>
       </c>
       <c r="D49">
-        <v>1928</v>
+        <v>1978</v>
       </c>
       <c r="E49">
-        <v>0.107</v>
+        <v>0.1</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -6884,51 +6636,51 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H49">
-        <v>60.500000000000014</v>
+        <v>60.500000000000021</v>
       </c>
       <c r="I49">
         <v>2.3100000000000005</v>
       </c>
       <c r="J49">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="M49" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="N49" t="s">
         <v>59</v>
       </c>
       <c r="O49" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="P49" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q49" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R49" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S49" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
       </c>
       <c r="D50">
-        <v>1947</v>
+        <v>1968</v>
       </c>
       <c r="E50">
-        <v>0.06</v>
+        <v>0.15</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -6943,98 +6695,98 @@
         <v>2.3100000000000005</v>
       </c>
       <c r="J50">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="M50" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="N50" t="s">
         <v>60</v>
       </c>
       <c r="O50" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="P50" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q50" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R50" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S50" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
         <v>12</v>
       </c>
       <c r="D51">
-        <v>1907</v>
+        <v>1961</v>
       </c>
       <c r="E51">
-        <v>0.05</v>
+        <v>0.247</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
       <c r="G51">
-        <v>3712.5000000000005</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H51">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I51">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J51">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="M51" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="N51" t="s">
         <v>61</v>
       </c>
       <c r="O51" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="P51" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q51" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R51" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S51" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
         <v>12</v>
       </c>
       <c r="D52">
-        <v>1957</v>
+        <v>1965</v>
       </c>
       <c r="E52">
-        <v>6.6000000000000003E-2</v>
+        <v>0.185</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -7043,7 +6795,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H52">
-        <v>60.500000000000014</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I52">
         <v>2.3100000000000005</v>
@@ -7052,148 +6804,148 @@
         <v>100</v>
       </c>
       <c r="M52" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="N52" t="s">
         <v>62</v>
       </c>
       <c r="O52" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="P52" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q52" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R52" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S52" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
         <v>12</v>
       </c>
       <c r="D53">
-        <v>1992</v>
+        <v>1962</v>
       </c>
       <c r="E53">
-        <v>0.05</v>
+        <v>0.18</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
       <c r="G53">
-        <v>3712.5000000000005</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H53">
-        <v>71.5</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I53">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J53">
         <v>100</v>
       </c>
       <c r="M53" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="N53" t="s">
         <v>63</v>
       </c>
       <c r="O53" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="P53" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q53" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R53" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S53" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
       </c>
       <c r="D54">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="E54">
-        <v>6.2E-2</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="F54">
         <v>1</v>
       </c>
       <c r="G54">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H54">
-        <v>60.500000000000014</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I54">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J54">
         <v>100</v>
       </c>
       <c r="M54" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="N54" t="s">
         <v>64</v>
       </c>
       <c r="O54" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="P54" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q54" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R54" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S54" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
       </c>
       <c r="D55">
-        <v>1926</v>
+        <v>1953</v>
       </c>
       <c r="E55">
-        <v>5.1999999999999998E-2</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -7208,45 +6960,45 @@
         <v>2.3100000000000005</v>
       </c>
       <c r="J55">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="M55" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="N55" t="s">
         <v>65</v>
       </c>
       <c r="O55" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="P55" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q55" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R55" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S55" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C56" t="s">
         <v>12</v>
       </c>
       <c r="D56">
-        <v>1954</v>
+        <v>1943</v>
       </c>
       <c r="E56">
-        <v>7.0000000000000007E-2</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -7261,45 +7013,45 @@
         <v>2.3100000000000005</v>
       </c>
       <c r="J56">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="M56" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="N56" t="s">
         <v>66</v>
       </c>
       <c r="O56" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="P56" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q56" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R56" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S56" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
       </c>
       <c r="D57">
-        <v>1921</v>
+        <v>1928</v>
       </c>
       <c r="E57">
-        <v>5.3999999999999999E-2</v>
+        <v>0.107</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -7314,139 +7066,139 @@
         <v>2.3100000000000005</v>
       </c>
       <c r="J57">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M57" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="N57" t="s">
         <v>67</v>
       </c>
       <c r="O57" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="P57" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q57" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R57" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S57" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
       </c>
       <c r="D58">
-        <v>1958</v>
+        <v>1926</v>
       </c>
       <c r="E58">
-        <v>0.05</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
       <c r="G58">
-        <v>3712.5000000000005</v>
+        <v>2277</v>
       </c>
       <c r="H58">
-        <v>71.5</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="I58">
-        <v>2.52</v>
+        <v>1.7325000000000002</v>
       </c>
       <c r="J58">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="M58" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N58" t="s">
         <v>68</v>
       </c>
       <c r="O58" t="s">
-        <v>176</v>
+        <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q58" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R58" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S58" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s">
         <v>12</v>
       </c>
       <c r="D59">
-        <v>2014</v>
+        <v>1955</v>
       </c>
       <c r="E59">
-        <v>7.0000000000000007E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
       <c r="G59">
-        <v>3162.5000000000005</v>
+        <v>2277</v>
       </c>
       <c r="H59">
-        <v>60.500000000000014</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="I59">
-        <v>2.3100000000000005</v>
+        <v>1.7325000000000002</v>
       </c>
       <c r="J59">
         <v>100</v>
       </c>
       <c r="M59" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N59" t="s">
         <v>69</v>
       </c>
       <c r="O59" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="P59" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q59" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R59" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S59" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B60" t="s">
         <v>12</v>
@@ -7455,10 +7207,10 @@
         <v>12</v>
       </c>
       <c r="D60">
-        <v>1937</v>
+        <v>1958</v>
       </c>
       <c r="E60">
-        <v>0.13500000000000001</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -7470,36 +7222,36 @@
         <v>48.400000000000006</v>
       </c>
       <c r="I60">
-        <v>1.7325000000000002</v>
+        <v>1.7325000000000004</v>
       </c>
       <c r="J60">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="M60" t="s">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="N60" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O60" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="P60" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q60" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R60" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S60" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B61" t="s">
         <v>12</v>
@@ -7508,10 +7260,10 @@
         <v>12</v>
       </c>
       <c r="D61">
-        <v>1962</v>
+        <v>1966</v>
       </c>
       <c r="E61">
-        <v>0.18</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -7520,7 +7272,7 @@
         <v>2277</v>
       </c>
       <c r="H61">
-        <v>48.400000000000013</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="I61">
         <v>1.7325000000000002</v>
@@ -7529,30 +7281,30 @@
         <v>100</v>
       </c>
       <c r="M61" t="s">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="N61" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O61" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="P61" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q61" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R61" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S61" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B62" t="s">
         <v>12</v>
@@ -7561,10 +7313,10 @@
         <v>12</v>
       </c>
       <c r="D62">
-        <v>1923</v>
+        <v>1976</v>
       </c>
       <c r="E62">
-        <v>0.112</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -7573,39 +7325,39 @@
         <v>2277</v>
       </c>
       <c r="H62">
-        <v>48.400000000000013</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="I62">
         <v>1.7325000000000002</v>
       </c>
       <c r="J62">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="M62" t="s">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="N62" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O62" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="P62" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q62" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R62" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="S62" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B63" t="s">
         <v>12</v>
@@ -7614,51 +7366,51 @@
         <v>12</v>
       </c>
       <c r="D63">
-        <v>2016</v>
+        <v>1937</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="F63">
         <v>1</v>
       </c>
       <c r="G63">
-        <v>1980.0000000000002</v>
+        <v>2277</v>
       </c>
       <c r="H63">
-        <v>44</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="I63">
-        <v>1.5750000000000002</v>
+        <v>1.7325000000000002</v>
       </c>
       <c r="J63">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="M63" t="s">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="N63" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O63" t="s">
-        <v>182</v>
+        <v>93</v>
       </c>
       <c r="P63" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q63" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R63" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="S63" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B64" t="s">
         <v>12</v>
@@ -7667,10 +7419,10 @@
         <v>12</v>
       </c>
       <c r="D64">
-        <v>1977</v>
+        <v>1962</v>
       </c>
       <c r="E64">
-        <v>0.28000000000000003</v>
+        <v>0.18</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -7679,7 +7431,7 @@
         <v>2277</v>
       </c>
       <c r="H64">
-        <v>48.400000000000006</v>
+        <v>48.400000000000013</v>
       </c>
       <c r="I64">
         <v>1.7325000000000002</v>
@@ -7688,30 +7440,30 @@
         <v>100</v>
       </c>
       <c r="M64" t="s">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="N64" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O64" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="P64" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q64" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R64" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="S64" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B65" t="s">
         <v>12</v>
@@ -7720,51 +7472,51 @@
         <v>12</v>
       </c>
       <c r="D65">
-        <v>2022</v>
+        <v>1923</v>
       </c>
       <c r="E65">
-        <v>0.9</v>
+        <v>0.112</v>
       </c>
       <c r="F65">
         <v>1</v>
       </c>
       <c r="G65">
-        <v>1980.0000000000002</v>
+        <v>2277</v>
       </c>
       <c r="H65">
-        <v>44</v>
+        <v>48.400000000000013</v>
       </c>
       <c r="I65">
-        <v>1.5750000000000002</v>
+        <v>1.7325000000000002</v>
       </c>
       <c r="J65">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="M65" t="s">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="N65" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O65" t="s">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="P65" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="Q65" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R65" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="S65" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B66" t="s">
         <v>12</v>
@@ -7773,51 +7525,30 @@
         <v>12</v>
       </c>
       <c r="D66">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="E66">
-        <v>0.13100000000000001</v>
+        <v>1</v>
       </c>
       <c r="F66">
         <v>1</v>
       </c>
       <c r="G66">
-        <v>2277</v>
+        <v>1980.0000000000002</v>
       </c>
       <c r="H66">
-        <v>48.400000000000006</v>
+        <v>44</v>
       </c>
       <c r="I66">
-        <v>1.7325000000000002</v>
+        <v>1.5750000000000002</v>
       </c>
       <c r="J66">
         <v>100</v>
       </c>
-      <c r="M66" t="s">
-        <v>178</v>
-      </c>
-      <c r="N66" t="s">
-        <v>76</v>
-      </c>
-      <c r="O66" t="s">
-        <v>185</v>
-      </c>
-      <c r="P66" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>120</v>
-      </c>
-      <c r="R66" t="s">
-        <v>121</v>
-      </c>
-      <c r="S66" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B67" t="s">
         <v>12</v>
@@ -7826,10 +7557,10 @@
         <v>12</v>
       </c>
       <c r="D67">
-        <v>2026</v>
+        <v>1977</v>
       </c>
       <c r="E67">
-        <v>0.12</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -7846,31 +7577,10 @@
       <c r="J67">
         <v>100</v>
       </c>
-      <c r="M67" t="s">
-        <v>178</v>
-      </c>
-      <c r="N67" t="s">
-        <v>77</v>
-      </c>
-      <c r="O67" t="s">
-        <v>186</v>
-      </c>
-      <c r="P67" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>120</v>
-      </c>
-      <c r="R67" t="s">
-        <v>121</v>
-      </c>
-      <c r="S67" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B68" t="s">
         <v>12</v>
@@ -7879,51 +7589,30 @@
         <v>12</v>
       </c>
       <c r="D68">
-        <v>1968</v>
+        <v>2022</v>
       </c>
       <c r="E68">
-        <v>0.192</v>
+        <v>0.9</v>
       </c>
       <c r="F68">
         <v>1</v>
       </c>
       <c r="G68">
-        <v>2277</v>
+        <v>1980.0000000000002</v>
       </c>
       <c r="H68">
-        <v>48.400000000000006</v>
+        <v>44</v>
       </c>
       <c r="I68">
-        <v>1.7325000000000002</v>
+        <v>1.5750000000000002</v>
       </c>
       <c r="J68">
         <v>100</v>
       </c>
-      <c r="M68" t="s">
-        <v>178</v>
-      </c>
-      <c r="N68" t="s">
-        <v>78</v>
-      </c>
-      <c r="O68" t="s">
-        <v>187</v>
-      </c>
-      <c r="P68" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>120</v>
-      </c>
-      <c r="R68" t="s">
-        <v>121</v>
-      </c>
-      <c r="S68" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B69" t="s">
         <v>12</v>
@@ -7932,10 +7621,10 @@
         <v>12</v>
       </c>
       <c r="D69">
-        <v>1972</v>
+        <v>2009</v>
       </c>
       <c r="E69">
-        <v>0.24</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -7952,31 +7641,10 @@
       <c r="J69">
         <v>100</v>
       </c>
-      <c r="M69" t="s">
-        <v>178</v>
-      </c>
-      <c r="N69" t="s">
-        <v>79</v>
-      </c>
-      <c r="O69" t="s">
-        <v>188</v>
-      </c>
-      <c r="P69" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>120</v>
-      </c>
-      <c r="R69" t="s">
-        <v>121</v>
-      </c>
-      <c r="S69" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B70" t="s">
         <v>12</v>
@@ -7985,10 +7653,10 @@
         <v>12</v>
       </c>
       <c r="D70">
-        <v>2017</v>
+        <v>2026</v>
       </c>
       <c r="E70">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -8005,31 +7673,10 @@
       <c r="J70">
         <v>100</v>
       </c>
-      <c r="M70" t="s">
-        <v>178</v>
-      </c>
-      <c r="N70" t="s">
-        <v>80</v>
-      </c>
-      <c r="O70" t="s">
-        <v>189</v>
-      </c>
-      <c r="P70" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>120</v>
-      </c>
-      <c r="R70" t="s">
-        <v>121</v>
-      </c>
-      <c r="S70" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B71" t="s">
         <v>12</v>
@@ -8038,10 +7685,10 @@
         <v>12</v>
       </c>
       <c r="D71">
-        <v>1958</v>
+        <v>1968</v>
       </c>
       <c r="E71">
-        <v>8.8999999999999996E-2</v>
+        <v>0.192</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -8053,36 +7700,15 @@
         <v>48.400000000000006</v>
       </c>
       <c r="I71">
-        <v>1.7325000000000004</v>
+        <v>1.7325000000000002</v>
       </c>
       <c r="J71">
         <v>100</v>
       </c>
-      <c r="M71" t="s">
-        <v>178</v>
-      </c>
-      <c r="N71" t="s">
-        <v>81</v>
-      </c>
-      <c r="O71" t="s">
-        <v>190</v>
-      </c>
-      <c r="P71" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>120</v>
-      </c>
-      <c r="R71" t="s">
-        <v>121</v>
-      </c>
-      <c r="S71" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B72" t="s">
         <v>12</v>
@@ -8091,10 +7717,10 @@
         <v>12</v>
       </c>
       <c r="D72">
-        <v>1976</v>
+        <v>1972</v>
       </c>
       <c r="E72">
-        <v>5.5E-2</v>
+        <v>0.24</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -8111,31 +7737,10 @@
       <c r="J72">
         <v>100</v>
       </c>
-      <c r="M72" t="s">
-        <v>178</v>
-      </c>
-      <c r="N72" t="s">
-        <v>82</v>
-      </c>
-      <c r="O72" t="s">
-        <v>191</v>
-      </c>
-      <c r="P72" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>120</v>
-      </c>
-      <c r="R72" t="s">
-        <v>121</v>
-      </c>
-      <c r="S72" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B73" t="s">
         <v>12</v>
@@ -8144,10 +7749,10 @@
         <v>12</v>
       </c>
       <c r="D73">
-        <v>1955</v>
+        <v>2017</v>
       </c>
       <c r="E73">
-        <v>5.3999999999999999E-2</v>
+        <v>0.24</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -8164,202 +7769,118 @@
       <c r="J73">
         <v>100</v>
       </c>
-      <c r="M73" t="s">
-        <v>178</v>
-      </c>
-      <c r="N73" t="s">
-        <v>83</v>
-      </c>
-      <c r="O73" t="s">
-        <v>192</v>
-      </c>
-      <c r="P73" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>120</v>
-      </c>
-      <c r="R73" t="s">
-        <v>121</v>
-      </c>
-      <c r="S73" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
       </c>
       <c r="D74">
-        <v>1926</v>
+        <v>1908</v>
       </c>
       <c r="E74">
-        <v>6.6000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="F74">
         <v>1</v>
       </c>
       <c r="G74">
-        <v>2277</v>
+        <v>2783</v>
       </c>
       <c r="H74">
-        <v>48.400000000000006</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I74">
-        <v>1.7325000000000002</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J74">
-        <v>129</v>
-      </c>
-      <c r="M74" t="s">
-        <v>178</v>
-      </c>
-      <c r="N74" t="s">
-        <v>84</v>
-      </c>
-      <c r="O74" t="s">
-        <v>193</v>
-      </c>
-      <c r="P74" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>120</v>
-      </c>
-      <c r="R74" t="s">
-        <v>121</v>
-      </c>
-      <c r="S74" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
       </c>
       <c r="D75">
-        <v>1966</v>
+        <v>1920</v>
       </c>
       <c r="E75">
-        <v>7.3999999999999996E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="F75">
         <v>1</v>
       </c>
       <c r="G75">
-        <v>2277</v>
+        <v>3267.0000000000005</v>
       </c>
       <c r="H75">
-        <v>48.400000000000006</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="I75">
-        <v>1.7325000000000002</v>
+        <v>3.1500000000000008</v>
       </c>
       <c r="J75">
-        <v>100</v>
-      </c>
-      <c r="M75" t="s">
-        <v>178</v>
-      </c>
-      <c r="N75" t="s">
-        <v>85</v>
-      </c>
-      <c r="O75" t="s">
-        <v>194</v>
-      </c>
-      <c r="P75" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>120</v>
-      </c>
-      <c r="R75" t="s">
-        <v>121</v>
-      </c>
-      <c r="S75" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C76" t="s">
         <v>12</v>
       </c>
       <c r="D76">
-        <v>1920</v>
+        <v>1925</v>
       </c>
       <c r="E76">
-        <v>9.1999999999999998E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="F76">
         <v>1</v>
       </c>
       <c r="G76">
-        <v>3267.0000000000005</v>
+        <v>2783</v>
       </c>
       <c r="H76">
-        <v>78.650000000000006</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I76">
-        <v>3.1500000000000008</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J76">
-        <v>135</v>
-      </c>
-      <c r="M76" t="s">
-        <v>117</v>
-      </c>
-      <c r="N76" t="s">
-        <v>86</v>
-      </c>
-      <c r="O76" t="s">
-        <v>123</v>
-      </c>
-      <c r="P76" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>120</v>
-      </c>
-      <c r="R76" t="s">
-        <v>121</v>
-      </c>
-      <c r="S76" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C77" t="s">
         <v>12</v>
       </c>
       <c r="D77">
-        <v>1950</v>
+        <v>1932</v>
       </c>
       <c r="E77">
-        <v>9.2999999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -8374,45 +7895,24 @@
         <v>2.8875000000000002</v>
       </c>
       <c r="J77">
-        <v>105</v>
-      </c>
-      <c r="M77" t="s">
-        <v>117</v>
-      </c>
-      <c r="N77" t="s">
-        <v>87</v>
-      </c>
-      <c r="O77" t="s">
-        <v>195</v>
-      </c>
-      <c r="P77" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>120</v>
-      </c>
-      <c r="R77" t="s">
-        <v>121</v>
-      </c>
-      <c r="S77" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C78" t="s">
         <v>12</v>
       </c>
       <c r="D78">
-        <v>1959</v>
+        <v>1947</v>
       </c>
       <c r="E78">
-        <v>8.5999999999999993E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -8427,45 +7927,24 @@
         <v>2.8875000000000002</v>
       </c>
       <c r="J78">
-        <v>100</v>
-      </c>
-      <c r="M78" t="s">
-        <v>117</v>
-      </c>
-      <c r="N78" t="s">
-        <v>88</v>
-      </c>
-      <c r="O78" t="s">
-        <v>196</v>
-      </c>
-      <c r="P78" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>120</v>
-      </c>
-      <c r="R78" t="s">
-        <v>121</v>
-      </c>
-      <c r="S78" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C79" t="s">
         <v>12</v>
       </c>
       <c r="D79">
-        <v>1908</v>
+        <v>1950</v>
       </c>
       <c r="E79">
-        <v>8.1000000000000003E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -8480,98 +7959,56 @@
         <v>2.8875000000000002</v>
       </c>
       <c r="J79">
-        <v>147</v>
-      </c>
-      <c r="M79" t="s">
-        <v>117</v>
-      </c>
-      <c r="N79" t="s">
-        <v>89</v>
-      </c>
-      <c r="O79" t="s">
-        <v>197</v>
-      </c>
-      <c r="P79" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>120</v>
-      </c>
-      <c r="R79" t="s">
-        <v>121</v>
-      </c>
-      <c r="S79" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="B80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C80" t="s">
         <v>12</v>
       </c>
       <c r="D80">
-        <v>1960</v>
+        <v>1952</v>
       </c>
       <c r="E80">
-        <v>5.1999999999999998E-2</v>
+        <v>0.111</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
       <c r="G80">
-        <v>2783</v>
+        <v>3001.0180180180182</v>
       </c>
       <c r="H80">
-        <v>66.550000000000011</v>
+        <v>72.000450450450458</v>
       </c>
       <c r="I80">
-        <v>2.8875000000000002</v>
+        <v>3.0057432432432436</v>
       </c>
       <c r="J80">
-        <v>100</v>
-      </c>
-      <c r="M80" t="s">
-        <v>117</v>
-      </c>
-      <c r="N80" t="s">
-        <v>90</v>
-      </c>
-      <c r="O80" t="s">
-        <v>198</v>
-      </c>
-      <c r="P80" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>120</v>
-      </c>
-      <c r="R80" t="s">
-        <v>121</v>
-      </c>
-      <c r="S80" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.45">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
       </c>
       <c r="D81">
-        <v>1925</v>
+        <v>1958</v>
       </c>
       <c r="E81">
-        <v>5.3999999999999999E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -8586,45 +8023,24 @@
         <v>2.8875000000000002</v>
       </c>
       <c r="J81">
-        <v>130</v>
-      </c>
-      <c r="M81" t="s">
-        <v>117</v>
-      </c>
-      <c r="N81" t="s">
-        <v>91</v>
-      </c>
-      <c r="O81" t="s">
-        <v>199</v>
-      </c>
-      <c r="P81" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>120</v>
-      </c>
-      <c r="R81" t="s">
-        <v>121</v>
-      </c>
-      <c r="S81" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C82" t="s">
         <v>12</v>
       </c>
       <c r="D82">
-        <v>1975</v>
+        <v>1959</v>
       </c>
       <c r="E82">
-        <v>6.4000000000000001E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -8641,43 +8057,22 @@
       <c r="J82">
         <v>100</v>
       </c>
-      <c r="M82" t="s">
-        <v>117</v>
-      </c>
-      <c r="N82" t="s">
-        <v>92</v>
-      </c>
-      <c r="O82" t="s">
-        <v>200</v>
-      </c>
-      <c r="P82" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>120</v>
-      </c>
-      <c r="R82" t="s">
-        <v>121</v>
-      </c>
-      <c r="S82" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="B83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C83" t="s">
         <v>12</v>
       </c>
       <c r="D83">
-        <v>1967</v>
+        <v>1960</v>
       </c>
       <c r="E83">
-        <v>6.5000000000000002E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -8694,43 +8089,22 @@
       <c r="J83">
         <v>100</v>
       </c>
-      <c r="M83" t="s">
-        <v>117</v>
-      </c>
-      <c r="N83" t="s">
-        <v>93</v>
-      </c>
-      <c r="O83" t="s">
-        <v>201</v>
-      </c>
-      <c r="P83" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>120</v>
-      </c>
-      <c r="R83" t="s">
-        <v>121</v>
-      </c>
-      <c r="S83" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="B84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C84" t="s">
         <v>12</v>
       </c>
       <c r="D84">
-        <v>1952</v>
+        <v>1967</v>
       </c>
       <c r="E84">
-        <v>6.0999999999999999E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -8745,45 +8119,24 @@
         <v>2.8875000000000002</v>
       </c>
       <c r="J84">
-        <v>103</v>
-      </c>
-      <c r="M84" t="s">
-        <v>117</v>
-      </c>
-      <c r="N84" t="s">
-        <v>94</v>
-      </c>
-      <c r="O84" t="s">
-        <v>202</v>
-      </c>
-      <c r="P84" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>120</v>
-      </c>
-      <c r="R84" t="s">
-        <v>121</v>
-      </c>
-      <c r="S84" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="B85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C85" t="s">
         <v>12</v>
       </c>
       <c r="D85">
-        <v>1932</v>
+        <v>1975</v>
       </c>
       <c r="E85">
-        <v>7.2999999999999995E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -8798,210 +8151,126 @@
         <v>2.8875000000000002</v>
       </c>
       <c r="J85">
-        <v>123</v>
-      </c>
-      <c r="M85" t="s">
-        <v>117</v>
-      </c>
-      <c r="N85" t="s">
-        <v>95</v>
-      </c>
-      <c r="O85" t="s">
-        <v>203</v>
-      </c>
-      <c r="P85" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>120</v>
-      </c>
-      <c r="R85" t="s">
-        <v>121</v>
-      </c>
-      <c r="S85" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="B86" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="C86" t="s">
         <v>12</v>
       </c>
       <c r="D86">
-        <v>1958</v>
+        <v>1984</v>
       </c>
       <c r="E86">
-        <v>6.2E-2</v>
+        <v>1.2749999999999999</v>
       </c>
       <c r="F86">
         <v>1</v>
       </c>
       <c r="G86">
-        <v>2783</v>
+        <v>7150.0000000000018</v>
       </c>
       <c r="H86">
-        <v>66.550000000000011</v>
+        <v>165</v>
       </c>
       <c r="I86">
-        <v>2.8875000000000002</v>
+        <v>4.2</v>
       </c>
       <c r="J86">
-        <v>100</v>
-      </c>
-      <c r="M86" t="s">
-        <v>117</v>
-      </c>
-      <c r="N86" t="s">
-        <v>96</v>
-      </c>
-      <c r="O86" t="s">
-        <v>204</v>
-      </c>
-      <c r="P86" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>120</v>
-      </c>
-      <c r="R86" t="s">
-        <v>121</v>
-      </c>
-      <c r="S86" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B87" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="C87" t="s">
         <v>12</v>
       </c>
       <c r="D87">
-        <v>1947</v>
+        <v>1979</v>
       </c>
       <c r="E87">
-        <v>5.7000000000000002E-2</v>
+        <v>1.06</v>
       </c>
       <c r="F87">
         <v>1</v>
       </c>
       <c r="G87">
-        <v>2783</v>
+        <v>7150.0000000000009</v>
       </c>
       <c r="H87">
-        <v>66.550000000000011</v>
+        <v>165</v>
       </c>
       <c r="I87">
-        <v>2.8875000000000002</v>
+        <v>4.2</v>
       </c>
       <c r="J87">
-        <v>108</v>
-      </c>
-      <c r="M87" t="s">
-        <v>117</v>
-      </c>
-      <c r="N87" t="s">
-        <v>97</v>
-      </c>
-      <c r="O87" t="s">
-        <v>205</v>
-      </c>
-      <c r="P87" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>120</v>
-      </c>
-      <c r="R87" t="s">
-        <v>121</v>
-      </c>
-      <c r="S87" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B88" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="C88" t="s">
         <v>12</v>
       </c>
       <c r="D88">
-        <v>1952</v>
+        <v>1969</v>
       </c>
       <c r="E88">
-        <v>0.05</v>
+        <v>0.38</v>
       </c>
       <c r="F88">
         <v>1</v>
       </c>
       <c r="G88">
-        <v>3267.0000000000005</v>
+        <v>7150.0000000000009</v>
       </c>
       <c r="H88">
-        <v>78.650000000000006</v>
+        <v>165</v>
       </c>
       <c r="I88">
-        <v>3.1500000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="J88">
-        <v>103</v>
-      </c>
-      <c r="M88" t="s">
-        <v>117</v>
-      </c>
-      <c r="N88" t="s">
-        <v>98</v>
-      </c>
-      <c r="O88" t="s">
-        <v>206</v>
-      </c>
-      <c r="P88" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>120</v>
-      </c>
-      <c r="R88" t="s">
-        <v>121</v>
-      </c>
-      <c r="S88" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B89" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C89" t="s">
         <v>12</v>
       </c>
       <c r="D89">
-        <v>1984</v>
+        <v>1972</v>
       </c>
       <c r="E89">
-        <v>1.2749999999999999</v>
+        <v>0.38</v>
       </c>
       <c r="F89">
         <v>1</v>
       </c>
       <c r="G89">
-        <v>7150.0000000000018</v>
+        <v>7150.0000000000009</v>
       </c>
       <c r="H89">
         <v>165</v>
@@ -9010,204 +8279,120 @@
         <v>4.2</v>
       </c>
       <c r="J89">
-        <v>71</v>
-      </c>
-      <c r="M89" t="s">
-        <v>117</v>
-      </c>
-      <c r="N89" t="s">
-        <v>99</v>
-      </c>
-      <c r="O89" t="s">
-        <v>207</v>
-      </c>
-      <c r="P89" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>120</v>
-      </c>
-      <c r="R89" t="s">
-        <v>121</v>
-      </c>
-      <c r="S89" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.45">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="B90" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C90" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="D90">
-        <v>1979</v>
+        <v>2009</v>
       </c>
       <c r="E90">
-        <v>1.06</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F90">
         <v>1</v>
       </c>
       <c r="G90">
-        <v>7150.0000000000009</v>
+        <v>1336.5</v>
       </c>
       <c r="H90">
-        <v>165</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I90">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="J90">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>74</v>
+      </c>
+      <c r="B91" t="s">
+        <v>75</v>
+      </c>
+      <c r="C91" t="s">
         <v>76</v>
       </c>
-      <c r="M90" t="s">
-        <v>117</v>
-      </c>
-      <c r="N90" t="s">
-        <v>101</v>
-      </c>
-      <c r="O90" t="s">
-        <v>208</v>
-      </c>
-      <c r="P90" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>120</v>
-      </c>
-      <c r="R90" t="s">
-        <v>121</v>
-      </c>
-      <c r="S90" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A91" t="s">
-        <v>102</v>
-      </c>
-      <c r="B91" t="s">
-        <v>100</v>
-      </c>
-      <c r="C91" t="s">
-        <v>12</v>
-      </c>
       <c r="D91">
-        <v>1969</v>
+        <v>2010</v>
       </c>
       <c r="E91">
-        <v>0.38</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="F91">
         <v>1</v>
       </c>
       <c r="G91">
-        <v>7150.0000000000009</v>
+        <v>1336.5</v>
       </c>
       <c r="H91">
-        <v>165</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I91">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="J91">
-        <v>86</v>
-      </c>
-      <c r="M91" t="s">
-        <v>117</v>
-      </c>
-      <c r="N91" t="s">
-        <v>102</v>
-      </c>
-      <c r="O91" t="s">
-        <v>209</v>
-      </c>
-      <c r="P91" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>120</v>
-      </c>
-      <c r="R91" t="s">
-        <v>121</v>
-      </c>
-      <c r="S91" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="B92" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C92" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="D92">
-        <v>1972</v>
+        <v>2011</v>
       </c>
       <c r="E92">
-        <v>0.38</v>
+        <v>7.1000000000000013E-3</v>
       </c>
       <c r="F92">
         <v>1</v>
       </c>
       <c r="G92">
-        <v>7150.0000000000009</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H92">
-        <v>165</v>
+        <v>21.45</v>
       </c>
       <c r="I92">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="J92">
-        <v>83</v>
-      </c>
-      <c r="M92" t="s">
-        <v>117</v>
-      </c>
-      <c r="N92" t="s">
-        <v>103</v>
-      </c>
-      <c r="O92" t="s">
-        <v>210</v>
-      </c>
-      <c r="P92" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>120</v>
-      </c>
-      <c r="R92" t="s">
-        <v>121</v>
-      </c>
-      <c r="S92" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B93" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C93" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="D93">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="E93">
-        <v>1.5E-3</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -9222,51 +8407,30 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>46</v>
-      </c>
-      <c r="M93" t="s">
-        <v>117</v>
-      </c>
-      <c r="N93" t="s">
-        <v>104</v>
-      </c>
-      <c r="O93" t="s">
-        <v>123</v>
-      </c>
-      <c r="P93" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>120</v>
-      </c>
-      <c r="R93" t="s">
-        <v>211</v>
-      </c>
-      <c r="S93" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B94" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C94" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="D94">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="E94">
-        <v>2.3999999999999998E-3</v>
+        <v>1.4799999999999999E-2</v>
       </c>
       <c r="F94">
         <v>1</v>
       </c>
       <c r="G94">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H94">
         <v>21.450000000000003</v>
@@ -9275,98 +8439,56 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>45</v>
-      </c>
-      <c r="M94" t="s">
-        <v>117</v>
-      </c>
-      <c r="N94" t="s">
-        <v>107</v>
-      </c>
-      <c r="O94" t="s">
-        <v>212</v>
-      </c>
-      <c r="P94" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>120</v>
-      </c>
-      <c r="R94" t="s">
-        <v>211</v>
-      </c>
-      <c r="S94" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B95" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C95" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="D95">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="E95">
-        <v>7.1000000000000013E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F95">
         <v>1</v>
       </c>
       <c r="G95">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H95">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95">
-        <v>44</v>
-      </c>
-      <c r="M95" t="s">
-        <v>117</v>
-      </c>
-      <c r="N95" t="s">
-        <v>108</v>
-      </c>
-      <c r="O95" t="s">
-        <v>123</v>
-      </c>
-      <c r="P95" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>120</v>
-      </c>
-      <c r="R95" t="s">
-        <v>211</v>
-      </c>
-      <c r="S95" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B96" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C96" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="D96">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="E96">
-        <v>2.5999999999999999E-2</v>
+        <v>2.3500000000000004E-2</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -9381,30 +8503,30 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B97" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C97" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="D97">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="E97">
-        <v>1.4799999999999999E-2</v>
+        <v>1.9300000000000005E-2</v>
       </c>
       <c r="F97">
         <v>1</v>
       </c>
       <c r="G97">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H97">
         <v>21.450000000000003</v>
@@ -9413,24 +8535,24 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B98" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C98" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="D98">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="E98">
-        <v>1E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -9445,152 +8567,152 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="B99" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C99" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="D99">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="E99">
-        <v>2.3500000000000004E-2</v>
+        <v>4.4311999999999996</v>
       </c>
       <c r="F99">
         <v>1</v>
       </c>
       <c r="G99">
-        <v>1336.5</v>
+        <v>990</v>
       </c>
       <c r="H99">
-        <v>21.450000000000003</v>
+        <v>16.5</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="B100" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="C100" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="D100">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="E100">
-        <v>1.9300000000000005E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F100">
         <v>1</v>
       </c>
       <c r="G100">
-        <v>1336.5</v>
+        <v>2376</v>
       </c>
       <c r="H100">
-        <v>21.450000000000003</v>
+        <v>57.2</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="J100">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="B101" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="C101" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="D101">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="E101">
-        <v>1.1999999999999999E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F101">
         <v>1</v>
       </c>
       <c r="G101">
-        <v>1336.5</v>
+        <v>2376</v>
       </c>
       <c r="H101">
-        <v>21.450000000000003</v>
+        <v>57.20000000000001</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="J101">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="B102" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="C102" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="D102">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="E102">
-        <v>4.4311999999999996</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="F102">
         <v>1</v>
       </c>
       <c r="G102">
-        <v>990</v>
+        <v>2376</v>
       </c>
       <c r="H102">
-        <v>16.5</v>
+        <v>57.2</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="J102">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="B103" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="C103" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D103">
-        <v>2010</v>
+        <v>2022</v>
       </c>
       <c r="E103">
-        <v>1.6E-2</v>
+        <v>4.6999999999999993E-2</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -9605,24 +8727,24 @@
         <v>2.52</v>
       </c>
       <c r="J103">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="B104" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="C104" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D104">
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="E104">
-        <v>1.2E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -9631,108 +8753,12 @@
         <v>2376</v>
       </c>
       <c r="H104">
-        <v>57.20000000000001</v>
+        <v>57.2</v>
       </c>
       <c r="I104">
         <v>2.52</v>
       </c>
       <c r="J104">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A105" t="s">
-        <v>108</v>
-      </c>
-      <c r="B105" t="s">
-        <v>109</v>
-      </c>
-      <c r="C105" t="s">
-        <v>110</v>
-      </c>
-      <c r="D105">
-        <v>2016</v>
-      </c>
-      <c r="E105">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="F105">
-        <v>1</v>
-      </c>
-      <c r="G105">
-        <v>2376</v>
-      </c>
-      <c r="H105">
-        <v>57.2</v>
-      </c>
-      <c r="I105">
-        <v>2.52</v>
-      </c>
-      <c r="J105">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A106" t="s">
-        <v>108</v>
-      </c>
-      <c r="B106" t="s">
-        <v>109</v>
-      </c>
-      <c r="C106" t="s">
-        <v>110</v>
-      </c>
-      <c r="D106">
-        <v>2022</v>
-      </c>
-      <c r="E106">
-        <v>4.6999999999999993E-2</v>
-      </c>
-      <c r="F106">
-        <v>1</v>
-      </c>
-      <c r="G106">
-        <v>2376</v>
-      </c>
-      <c r="H106">
-        <v>57.2</v>
-      </c>
-      <c r="I106">
-        <v>2.52</v>
-      </c>
-      <c r="J106">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A107" t="s">
-        <v>108</v>
-      </c>
-      <c r="B107" t="s">
-        <v>109</v>
-      </c>
-      <c r="C107" t="s">
-        <v>110</v>
-      </c>
-      <c r="D107">
-        <v>2023</v>
-      </c>
-      <c r="E107">
-        <v>1.4E-2</v>
-      </c>
-      <c r="F107">
-        <v>1</v>
-      </c>
-      <c r="G107">
-        <v>2376</v>
-      </c>
-      <c r="H107">
-        <v>57.2</v>
-      </c>
-      <c r="I107">
-        <v>2.52</v>
-      </c>
-      <c r="J107">
         <v>32</v>
       </c>
     </row>

--- a/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91CE9B9F-2490-4A17-B250-7CD435F02D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB1A1DCA-6C60-4838-80BC-DBEC633B7046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{E838008F-C04B-48C5-AE2F-14F141DDEACE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{FAA57BAA-AE02-414D-839B-6F61D5F2A749}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -990,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3DB5580-3CBC-4207-AD39-E1D5079FAC27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA382D9-4B75-4492-9F39-58E455AA45C6}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3915,7 +3915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A8418D-BFA7-4704-A10A-0418048773A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021FD83E-B907-44E1-AA65-A7A1BADAD739}">
   <dimension ref="A2:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4160,7 +4160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0CCD06-3834-4501-907E-167A3481B8BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7215A64-AC13-4774-8D32-22A7F8AF6686}">
   <dimension ref="A2:S104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AEAF3D7-F5E9-42B0-9A1B-BD531F3B407E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02B5B576-4891-4369-AB47-5D12E36770E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{DD7DDA7B-A73D-4C66-89C9-EBE2FC86E687}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{6B429E83-43F8-4619-84CD-D37240A53C40}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="219">
   <si>
     <t>~fi_t</t>
   </si>
@@ -271,7 +271,7 @@
     <t>solar</t>
   </si>
   <si>
-    <t>ELC_Sol-CHE</t>
+    <t>elc_sol-CHE</t>
   </si>
   <si>
     <t>ep_solar_pv_</t>
@@ -283,7 +283,7 @@
     <t>wind</t>
   </si>
   <si>
-    <t>ELC_Win-CHE</t>
+    <t>elc_win-CHE</t>
   </si>
   <si>
     <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by intuition · Accelerated with AI</t>
@@ -499,7 +499,79 @@
     <t>annual</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap_Missing Solar Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity</t>
   </si>
   <si>
     <t>AF</t>
@@ -1075,7 +1147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99767CC-72CF-4A32-99F3-CC462795DE4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECBE3BC-8B6B-40D8-A66A-311F36271663}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1142,7 +1214,7 @@
         <v>2050</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>84</v>
@@ -1168,7 +1240,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>12</v>
@@ -1192,7 +1264,7 @@
         <v>90</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="s">
@@ -1210,7 +1282,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>12</v>
@@ -1228,13 +1300,13 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>90</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4" t="s">
@@ -1252,7 +1324,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -1276,7 +1348,7 @@
         <v>90</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3" t="s">
@@ -1294,7 +1366,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>12</v>
@@ -1318,7 +1390,7 @@
         <v>90</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4" t="s">
@@ -1336,7 +1408,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
@@ -1354,13 +1426,13 @@
         <v>3</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>90</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
@@ -1378,7 +1450,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>12</v>
@@ -1402,7 +1474,7 @@
         <v>90</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4" t="s">
@@ -1420,7 +1492,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
@@ -1438,13 +1510,13 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>90</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3" t="s">
@@ -1462,7 +1534,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>12</v>
@@ -1486,7 +1558,7 @@
         <v>90</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4" t="s">
@@ -1504,7 +1576,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
@@ -1528,7 +1600,7 @@
         <v>90</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
@@ -1546,7 +1618,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>12</v>
@@ -1564,13 +1636,13 @@
         <v>2</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>90</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4" t="s">
@@ -1588,7 +1660,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>12</v>
@@ -1612,7 +1684,7 @@
         <v>90</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
@@ -1630,7 +1702,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>12</v>
@@ -1648,13 +1720,13 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>90</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4" t="s">
@@ -1672,7 +1744,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>12</v>
@@ -1696,7 +1768,7 @@
         <v>90</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
@@ -1714,7 +1786,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
@@ -1738,7 +1810,7 @@
         <v>90</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4" t="s">
@@ -1756,7 +1828,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>12</v>
@@ -1774,13 +1846,13 @@
         <v>3</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>90</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
@@ -1798,7 +1870,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>12</v>
@@ -1822,7 +1894,7 @@
         <v>90</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4" t="s">
@@ -1840,7 +1912,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>12</v>
@@ -1858,13 +1930,13 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>90</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3" t="s">
@@ -1882,7 +1954,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>12</v>
@@ -1906,7 +1978,7 @@
         <v>90</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4" t="s">
@@ -1924,7 +1996,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>12</v>
@@ -1948,7 +2020,7 @@
         <v>90</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="s">
@@ -1966,7 +2038,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>12</v>
@@ -1984,13 +2056,13 @@
         <v>2</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>90</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4" t="s">
@@ -2008,7 +2080,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>15</v>
@@ -2032,7 +2104,7 @@
         <v>90</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3" t="s">
@@ -2050,7 +2122,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>15</v>
@@ -2074,7 +2146,7 @@
         <v>90</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4" t="s">
@@ -2092,7 +2164,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>15</v>
@@ -2116,7 +2188,7 @@
         <v>90</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3" t="s">
@@ -2134,7 +2206,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>15</v>
@@ -2158,7 +2230,7 @@
         <v>90</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4" t="s">
@@ -2176,7 +2248,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>15</v>
@@ -2200,7 +2272,7 @@
         <v>90</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3" t="s">
@@ -2218,7 +2290,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>15</v>
@@ -2242,7 +2314,7 @@
         <v>90</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4" t="s">
@@ -2260,7 +2332,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>15</v>
@@ -2283,7 +2355,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>15</v>
@@ -2306,7 +2378,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>15</v>
@@ -2329,10 +2401,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>13</v>
@@ -2352,10 +2424,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>13</v>
@@ -2375,10 +2447,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>13</v>
@@ -2398,7 +2470,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>76</v>
@@ -2421,7 +2493,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>76</v>
@@ -2439,12 +2511,12 @@
         <v>0.42</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>76</v>
@@ -2467,7 +2539,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>76</v>
@@ -2490,7 +2562,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>76</v>
@@ -2508,15 +2580,15 @@
         <v>3</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>13</v>
@@ -2536,10 +2608,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>13</v>
@@ -2559,10 +2631,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>13</v>
@@ -2582,7 +2654,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>15</v>
@@ -2605,7 +2677,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>15</v>
@@ -2628,7 +2700,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>15</v>
@@ -2651,10 +2723,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>13</v>
@@ -2674,10 +2746,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>13</v>
@@ -2692,15 +2764,15 @@
         <v>0.85000000000000009</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>13</v>
@@ -2720,10 +2792,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>13</v>
@@ -2743,10 +2815,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="4" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>13</v>
@@ -2761,12 +2833,12 @@
         <v>4</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>19</v>
@@ -2789,7 +2861,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>19</v>
@@ -2807,12 +2879,12 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>19</v>
@@ -2835,7 +2907,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>19</v>
@@ -2858,7 +2930,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>19</v>
@@ -2876,12 +2948,12 @@
         <v>4</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>19</v>
@@ -2904,7 +2976,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>19</v>
@@ -2922,12 +2994,12 @@
         <v>0.25</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>19</v>
@@ -2950,7 +3022,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>19</v>
@@ -2973,7 +3045,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>19</v>
@@ -2991,12 +3063,12 @@
         <v>4</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>15</v>
@@ -3019,7 +3091,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="4" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>15</v>
@@ -3042,7 +3114,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>15</v>
@@ -3065,10 +3137,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>13</v>
@@ -3088,10 +3160,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>13</v>
@@ -3111,10 +3183,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>13</v>
@@ -3134,10 +3206,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>13</v>
@@ -3157,10 +3229,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="4" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>13</v>
@@ -3175,15 +3247,15 @@
         <v>0.25</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>13</v>
@@ -3203,10 +3275,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="4" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>13</v>
@@ -3226,10 +3298,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>13</v>
@@ -3244,12 +3316,12 @@
         <v>4</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="4" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>71</v>
@@ -3272,7 +3344,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>71</v>
@@ -3295,7 +3367,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="4" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>71</v>
@@ -3318,10 +3390,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>13</v>
@@ -3341,10 +3413,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="4" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>13</v>
@@ -3364,10 +3436,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>13</v>
@@ -3387,7 +3459,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="4" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>76</v>
@@ -3410,7 +3482,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>76</v>
@@ -3428,12 +3500,12 @@
         <v>0.13</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" s="4" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>76</v>
@@ -3456,7 +3528,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>76</v>
@@ -3479,7 +3551,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" s="4" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>76</v>
@@ -3497,12 +3569,12 @@
         <v>1</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>76</v>
@@ -3525,7 +3597,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" s="4" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>76</v>
@@ -3543,12 +3615,12 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>76</v>
@@ -3571,7 +3643,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" s="4" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>76</v>
@@ -3594,7 +3666,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>76</v>
@@ -3612,15 +3684,15 @@
         <v>1.5</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" s="4" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>13</v>
@@ -3640,10 +3712,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>13</v>
@@ -3663,10 +3735,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" s="4" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>13</v>
@@ -3686,10 +3758,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>13</v>
@@ -3709,10 +3781,10 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>13</v>
@@ -3732,10 +3804,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>13</v>
@@ -3755,10 +3827,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>13</v>
@@ -3778,10 +3850,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>13</v>
@@ -3801,10 +3873,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>13</v>
@@ -3824,7 +3896,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>80</v>
@@ -3847,7 +3919,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>80</v>
@@ -3865,12 +3937,12 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>80</v>
@@ -3893,7 +3965,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>80</v>
@@ -3916,7 +3988,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>80</v>
@@ -3934,12 +4006,12 @@
         <v>3</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" s="4" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>80</v>
@@ -3962,7 +4034,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>80</v>
@@ -3980,12 +4052,12 @@
         <v>0.3</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" s="4" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>80</v>
@@ -4008,7 +4080,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>80</v>
@@ -4031,7 +4103,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" s="4" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>80</v>
@@ -4049,7 +4121,7 @@
         <v>1.5</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4061,8 +4133,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF3317A5-6B16-484F-A884-B4CB54834898}">
-  <dimension ref="A1:U6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F61ADE5-5CD4-4EF4-B582-3D2C2074E605}">
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4137,13 +4209,13 @@
         <v>9</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>10</v>
@@ -4172,7 +4244,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -4208,10 +4280,10 @@
         <v>90</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>92</v>
@@ -4228,7 +4300,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -4264,10 +4336,10 @@
         <v>90</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="R5" s="4" t="s">
         <v>92</v>
@@ -4284,7 +4356,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -4293,7 +4365,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="3">
-        <v>0.27938750000000001</v>
+        <v>0.46865000000000007</v>
       </c>
       <c r="E6" s="3">
         <v>1365</v>
@@ -4308,7 +4380,7 @@
         <v>0.84455000000000002</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J6" s="3">
         <v>1</v>
@@ -4320,10 +4392,10 @@
         <v>90</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>92</v>
@@ -4336,6 +4408,41 @@
       </c>
       <c r="U6" s="3" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.27938750000000001</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1365</v>
+      </c>
+      <c r="F7" s="4">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4347,8 +4454,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C921605-53F2-4D64-9285-E91797781C3B}">
-  <dimension ref="A1:T104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AE39C2-07AC-4FF5-BB34-56E35C098D3D}">
+  <dimension ref="A1:T128"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7718,10 +7825,10 @@
         <v>90</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P65" s="4" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="Q65" s="4" t="s">
         <v>92</v>
@@ -7767,6 +7874,27 @@
       <c r="J66" s="3">
         <v>100</v>
       </c>
+      <c r="N66" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
@@ -7799,6 +7927,27 @@
       <c r="J67" s="4">
         <v>100</v>
       </c>
+      <c r="N67" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O67" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P67" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q67" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R67" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="S67" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="T67" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
@@ -7831,6 +7980,27 @@
       <c r="J68" s="3">
         <v>100</v>
       </c>
+      <c r="N68" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P68" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q68" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R68" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="S68" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="T68" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A69" s="4" t="s">
@@ -7863,6 +8033,27 @@
       <c r="J69" s="4">
         <v>100</v>
       </c>
+      <c r="N69" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O69" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P69" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q69" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R69" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="S69" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="T69" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
@@ -7895,6 +8086,27 @@
       <c r="J70" s="3">
         <v>100</v>
       </c>
+      <c r="N70" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P70" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q70" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R70" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="S70" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="T70" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A71" s="4" t="s">
@@ -7927,6 +8139,27 @@
       <c r="J71" s="4">
         <v>100</v>
       </c>
+      <c r="N71" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O71" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P71" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q71" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R71" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="S71" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="T71" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
@@ -7959,6 +8192,27 @@
       <c r="J72" s="3">
         <v>100</v>
       </c>
+      <c r="N72" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A73" s="4" t="s">
@@ -7991,6 +8245,27 @@
       <c r="J73" s="4">
         <v>100</v>
       </c>
+      <c r="N73" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O73" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P73" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q73" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R73" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="S73" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="T73" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
@@ -8023,6 +8298,27 @@
       <c r="J74" s="3">
         <v>147</v>
       </c>
+      <c r="N74" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P74" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q74" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R74" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="S74" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="T74" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A75" s="4" t="s">
@@ -8055,6 +8351,27 @@
       <c r="J75" s="4">
         <v>135</v>
       </c>
+      <c r="N75" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O75" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P75" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q75" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R75" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="S75" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="T75" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
@@ -8087,6 +8404,27 @@
       <c r="J76" s="3">
         <v>130</v>
       </c>
+      <c r="N76" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A77" s="4" t="s">
@@ -8119,6 +8457,27 @@
       <c r="J77" s="4">
         <v>123</v>
       </c>
+      <c r="N77" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O77" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P77" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q77" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R77" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="S77" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="T77" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
@@ -8151,6 +8510,27 @@
       <c r="J78" s="3">
         <v>108</v>
       </c>
+      <c r="N78" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O78" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P78" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q78" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R78" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="S78" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="T78" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A79" s="4" t="s">
@@ -8183,6 +8563,27 @@
       <c r="J79" s="4">
         <v>105</v>
       </c>
+      <c r="N79" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O79" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P79" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q79" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R79" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="S79" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="T79" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
@@ -8215,8 +8616,29 @@
       <c r="J80" s="3">
         <v>103</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="N80" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O80" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P80" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q80" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R80" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="S80" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="T80" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A81" s="4" t="s">
         <v>69</v>
       </c>
@@ -8247,8 +8669,29 @@
       <c r="J81" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="N81" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O81" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P81" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q81" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R81" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="S81" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="T81" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>69</v>
       </c>
@@ -8279,8 +8722,29 @@
       <c r="J82" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="N82" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O82" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P82" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q82" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R82" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="S82" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="T82" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A83" s="4" t="s">
         <v>69</v>
       </c>
@@ -8311,8 +8775,29 @@
       <c r="J83" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="N83" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O83" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P83" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q83" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R83" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="S83" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="T83" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>69</v>
       </c>
@@ -8343,8 +8828,29 @@
       <c r="J84" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="N84" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O84" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P84" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q84" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R84" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="S84" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="T84" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A85" s="4" t="s">
         <v>69</v>
       </c>
@@ -8375,8 +8881,29 @@
       <c r="J85" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="N85" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O85" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P85" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q85" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R85" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="S85" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="T85" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>70</v>
       </c>
@@ -8407,8 +8934,29 @@
       <c r="J86" s="3">
         <v>71</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="N86" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O86" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P86" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q86" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R86" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="S86" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="T86" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A87" s="4" t="s">
         <v>72</v>
       </c>
@@ -8439,8 +8987,29 @@
       <c r="J87" s="4">
         <v>76</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="N87" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O87" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P87" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q87" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R87" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="S87" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="T87" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>73</v>
       </c>
@@ -8471,8 +9040,29 @@
       <c r="J88" s="3">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="N88" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O88" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P88" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q88" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R88" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="S88" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="T88" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A89" s="4" t="s">
         <v>74</v>
       </c>
@@ -8503,8 +9093,29 @@
       <c r="J89" s="4">
         <v>83</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="N89" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O89" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P89" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q89" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R89" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="S89" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="T89" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>75</v>
       </c>
@@ -8536,7 +9147,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A91" s="4" t="s">
         <v>75</v>
       </c>
@@ -8568,7 +9179,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>75</v>
       </c>
@@ -8600,7 +9211,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A93" s="4" t="s">
         <v>75</v>
       </c>
@@ -8632,7 +9243,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>75</v>
       </c>
@@ -8664,7 +9275,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A95" s="4" t="s">
         <v>75</v>
       </c>
@@ -8696,7 +9307,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
         <v>75</v>
       </c>
@@ -8806,16 +9417,16 @@
         <v>2022</v>
       </c>
       <c r="E99" s="4">
-        <v>4.4311999999999996</v>
+        <v>0.17279262926045061</v>
       </c>
       <c r="F99" s="4">
         <v>1</v>
       </c>
       <c r="G99" s="4">
-        <v>990</v>
+        <v>1138.5</v>
       </c>
       <c r="H99" s="4">
-        <v>16.5</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="I99" s="4">
         <v>0</v>
@@ -8826,127 +9437,127 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D100" s="3">
-        <v>2010</v>
+        <v>2022</v>
       </c>
       <c r="E100" s="3">
-        <v>1.6E-2</v>
+        <v>0.16152827258311295</v>
       </c>
       <c r="F100" s="3">
         <v>1</v>
       </c>
       <c r="G100" s="3">
-        <v>2376</v>
+        <v>1138.5</v>
       </c>
       <c r="H100" s="3">
-        <v>57.2</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="I100" s="3">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A101" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D101" s="4">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="E101" s="4">
-        <v>1.2E-2</v>
+        <v>0.21077006448261207</v>
       </c>
       <c r="F101" s="4">
         <v>1</v>
       </c>
       <c r="G101" s="4">
-        <v>2376</v>
+        <v>1138.5</v>
       </c>
       <c r="H101" s="4">
-        <v>57.20000000000001</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="I101" s="4">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="J101" s="4">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D102" s="3">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="E102" s="3">
-        <v>1.2999999999999999E-2</v>
+        <v>0.15291072157643879</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
       </c>
       <c r="G102" s="3">
-        <v>2376</v>
+        <v>1138.5</v>
       </c>
       <c r="H102" s="3">
-        <v>57.2</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="I102" s="3">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D103" s="4">
         <v>2022</v>
       </c>
       <c r="E103" s="4">
-        <v>4.6999999999999993E-2</v>
+        <v>0.19328994063107527</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
       </c>
       <c r="G103" s="4">
-        <v>2376</v>
+        <v>1138.5</v>
       </c>
       <c r="H103" s="4">
-        <v>57.2</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="I103" s="4">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="J103" s="4">
         <v>33</v>
@@ -8954,33 +9565,801 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D104" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E104" s="3">
+        <v>0.21731537653220406</v>
+      </c>
+      <c r="F104" s="3">
+        <v>1</v>
+      </c>
+      <c r="G104" s="3">
+        <v>1138.5</v>
+      </c>
+      <c r="H104" s="3">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I104" s="3">
+        <v>0</v>
+      </c>
+      <c r="J104" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A105" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D105" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E105" s="4">
+        <v>0.13710016513395351</v>
+      </c>
+      <c r="F105" s="4">
+        <v>1</v>
+      </c>
+      <c r="G105" s="4">
+        <v>1138.5</v>
+      </c>
+      <c r="H105" s="4">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I105" s="4">
+        <v>0</v>
+      </c>
+      <c r="J105" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A106" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D106" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E106" s="3">
+        <v>0.13606784444360143</v>
+      </c>
+      <c r="F106" s="3">
+        <v>1</v>
+      </c>
+      <c r="G106" s="3">
+        <v>1138.5</v>
+      </c>
+      <c r="H106" s="3">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I106" s="3">
+        <v>0</v>
+      </c>
+      <c r="J106" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A107" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D107" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E107" s="4">
+        <v>0.18308354646436523</v>
+      </c>
+      <c r="F107" s="4">
+        <v>1</v>
+      </c>
+      <c r="G107" s="4">
+        <v>1138.5</v>
+      </c>
+      <c r="H107" s="4">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I107" s="4">
+        <v>0</v>
+      </c>
+      <c r="J107" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A108" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D108" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E108" s="3">
+        <v>0.16637932510042519</v>
+      </c>
+      <c r="F108" s="3">
+        <v>1</v>
+      </c>
+      <c r="G108" s="3">
+        <v>1138.5</v>
+      </c>
+      <c r="H108" s="3">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I108" s="3">
+        <v>0</v>
+      </c>
+      <c r="J108" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A109" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D109" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E109" s="4">
+        <v>0.19828629679661561</v>
+      </c>
+      <c r="F109" s="4">
+        <v>1</v>
+      </c>
+      <c r="G109" s="4">
+        <v>1138.5</v>
+      </c>
+      <c r="H109" s="4">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I109" s="4">
+        <v>0</v>
+      </c>
+      <c r="J109" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A110" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D110" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E110" s="3">
+        <v>0.1930981018275324</v>
+      </c>
+      <c r="F110" s="3">
+        <v>1</v>
+      </c>
+      <c r="G110" s="3">
+        <v>1138.5</v>
+      </c>
+      <c r="H110" s="3">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I110" s="3">
+        <v>0</v>
+      </c>
+      <c r="J110" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A111" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D111" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E111" s="4">
+        <v>0.19782569372870323</v>
+      </c>
+      <c r="F111" s="4">
+        <v>1</v>
+      </c>
+      <c r="G111" s="4">
+        <v>1138.5</v>
+      </c>
+      <c r="H111" s="4">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I111" s="4">
+        <v>0</v>
+      </c>
+      <c r="J111" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A112" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D112" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E112" s="3">
+        <v>0.16277902359433066</v>
+      </c>
+      <c r="F112" s="3">
+        <v>1</v>
+      </c>
+      <c r="G112" s="3">
+        <v>1138.5</v>
+      </c>
+      <c r="H112" s="3">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I112" s="3">
+        <v>0</v>
+      </c>
+      <c r="J112" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A113" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D113" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E113" s="4">
+        <v>0.16554834018408843</v>
+      </c>
+      <c r="F113" s="4">
+        <v>1</v>
+      </c>
+      <c r="G113" s="4">
+        <v>1138.5</v>
+      </c>
+      <c r="H113" s="4">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I113" s="4">
+        <v>0</v>
+      </c>
+      <c r="J113" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A114" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D114" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E114" s="3">
+        <v>0.21471510601685545</v>
+      </c>
+      <c r="F114" s="3">
+        <v>1</v>
+      </c>
+      <c r="G114" s="3">
+        <v>1138.5</v>
+      </c>
+      <c r="H114" s="3">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I114" s="3">
+        <v>0</v>
+      </c>
+      <c r="J114" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A115" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D115" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E115" s="4">
+        <v>0.15409499379434963</v>
+      </c>
+      <c r="F115" s="4">
+        <v>1</v>
+      </c>
+      <c r="G115" s="4">
+        <v>1138.5</v>
+      </c>
+      <c r="H115" s="4">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I115" s="4">
+        <v>0</v>
+      </c>
+      <c r="J115" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A116" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D116" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E116" s="3">
+        <v>0.17082200788742341</v>
+      </c>
+      <c r="F116" s="3">
+        <v>1</v>
+      </c>
+      <c r="G116" s="3">
+        <v>1138.5</v>
+      </c>
+      <c r="H116" s="3">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I116" s="3">
+        <v>0</v>
+      </c>
+      <c r="J116" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A117" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D117" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E117" s="4">
+        <v>0.211523174241075</v>
+      </c>
+      <c r="F117" s="4">
+        <v>1</v>
+      </c>
+      <c r="G117" s="4">
+        <v>1138.5</v>
+      </c>
+      <c r="H117" s="4">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I117" s="4">
+        <v>0</v>
+      </c>
+      <c r="J117" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A118" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D118" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E118" s="3">
+        <v>0.16699472878703805</v>
+      </c>
+      <c r="F118" s="3">
+        <v>1</v>
+      </c>
+      <c r="G118" s="3">
+        <v>1138.5</v>
+      </c>
+      <c r="H118" s="3">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I118" s="3">
+        <v>0</v>
+      </c>
+      <c r="J118" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A119" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D119" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E119" s="4">
+        <v>0.19614947844032105</v>
+      </c>
+      <c r="F119" s="4">
+        <v>1</v>
+      </c>
+      <c r="G119" s="4">
+        <v>1138.5</v>
+      </c>
+      <c r="H119" s="4">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I119" s="4">
+        <v>0</v>
+      </c>
+      <c r="J119" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A120" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D120" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E120" s="3">
+        <v>0.15521278721895346</v>
+      </c>
+      <c r="F120" s="3">
+        <v>1</v>
+      </c>
+      <c r="G120" s="3">
+        <v>1138.5</v>
+      </c>
+      <c r="H120" s="3">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I120" s="3">
+        <v>0</v>
+      </c>
+      <c r="J120" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A121" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D121" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E121" s="4">
+        <v>0.1586174511333161</v>
+      </c>
+      <c r="F121" s="4">
+        <v>1</v>
+      </c>
+      <c r="G121" s="4">
+        <v>1138.5</v>
+      </c>
+      <c r="H121" s="4">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I121" s="4">
+        <v>0</v>
+      </c>
+      <c r="J121" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A122" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D122" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E122" s="3">
+        <v>0.20091315882928704</v>
+      </c>
+      <c r="F122" s="3">
+        <v>1</v>
+      </c>
+      <c r="G122" s="3">
+        <v>1138.5</v>
+      </c>
+      <c r="H122" s="3">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I122" s="3">
+        <v>0</v>
+      </c>
+      <c r="J122" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A123" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D123" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E123" s="4">
+        <v>0.15338177131187081</v>
+      </c>
+      <c r="F123" s="4">
+        <v>1</v>
+      </c>
+      <c r="G123" s="4">
+        <v>1138.5</v>
+      </c>
+      <c r="H123" s="4">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I123" s="4">
+        <v>0</v>
+      </c>
+      <c r="J123" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A124" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B124" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C124" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D124" s="3">
+        <v>2010</v>
+      </c>
+      <c r="E124" s="3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F124" s="3">
+        <v>1</v>
+      </c>
+      <c r="G124" s="3">
+        <v>2376</v>
+      </c>
+      <c r="H124" s="3">
+        <v>57.2</v>
+      </c>
+      <c r="I124" s="3">
+        <v>2.52</v>
+      </c>
+      <c r="J124" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A125" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D125" s="4">
+        <v>2015</v>
+      </c>
+      <c r="E125" s="4">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F125" s="4">
+        <v>1</v>
+      </c>
+      <c r="G125" s="4">
+        <v>2376</v>
+      </c>
+      <c r="H125" s="4">
+        <v>57.20000000000001</v>
+      </c>
+      <c r="I125" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="J125" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A126" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D126" s="3">
+        <v>2016</v>
+      </c>
+      <c r="E126" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F126" s="3">
+        <v>1</v>
+      </c>
+      <c r="G126" s="3">
+        <v>2376</v>
+      </c>
+      <c r="H126" s="3">
+        <v>57.2</v>
+      </c>
+      <c r="I126" s="3">
+        <v>2.52</v>
+      </c>
+      <c r="J126" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A127" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D127" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E127" s="4">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F127" s="4">
+        <v>1</v>
+      </c>
+      <c r="G127" s="4">
+        <v>2376</v>
+      </c>
+      <c r="H127" s="4">
+        <v>57.199999999999996</v>
+      </c>
+      <c r="I127" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="J127" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A128" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D128" s="3">
         <v>2023</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E128" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="F104" s="3">
-        <v>1</v>
-      </c>
-      <c r="G104" s="3">
+      <c r="F128" s="3">
+        <v>1</v>
+      </c>
+      <c r="G128" s="3">
         <v>2376</v>
       </c>
-      <c r="H104" s="3">
+      <c r="H128" s="3">
         <v>57.2</v>
       </c>
-      <c r="I104" s="3">
+      <c r="I128" s="3">
         <v>2.52</v>
       </c>
-      <c r="J104" s="3">
+      <c r="J128" s="3">
         <v>32</v>
       </c>
     </row>

--- a/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02B5B576-4891-4369-AB47-5D12E36770E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C47AB9E-7563-4CCE-B635-2631E26C9A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{6B429E83-43F8-4619-84CD-D37240A53C40}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{2F8558DC-456A-409A-B723-82F6D1E3E94C}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -499,79 +499,79 @@
     <t>annual</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity</t>
   </si>
   <si>
     <t>AF</t>
@@ -1147,7 +1147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECBE3BC-8B6B-40D8-A66A-311F36271663}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE4849A-DE28-4426-A698-848B8DA2F2EC}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4133,7 +4133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F61ADE5-5CD4-4EF4-B582-3D2C2074E605}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C145F5F2-80E5-4928-9280-F3429FB3EB2B}">
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4454,7 +4454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AE39C2-07AC-4FF5-BB34-56E35C098D3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702C3353-2C10-47A4-BBE5-6CD12202D8C2}">
   <dimension ref="A1:T128"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9417,7 +9417,7 @@
         <v>2022</v>
       </c>
       <c r="E99" s="4">
-        <v>0.17279262926045061</v>
+        <v>0.19782569372870323</v>
       </c>
       <c r="F99" s="4">
         <v>1</v>
@@ -9449,7 +9449,7 @@
         <v>2022</v>
       </c>
       <c r="E100" s="3">
-        <v>0.16152827258311295</v>
+        <v>0.16277902359433066</v>
       </c>
       <c r="F100" s="3">
         <v>1</v>
@@ -9481,7 +9481,7 @@
         <v>2022</v>
       </c>
       <c r="E101" s="4">
-        <v>0.21077006448261207</v>
+        <v>0.19828629679661561</v>
       </c>
       <c r="F101" s="4">
         <v>1</v>
@@ -9513,7 +9513,7 @@
         <v>2022</v>
       </c>
       <c r="E102" s="3">
-        <v>0.15291072157643879</v>
+        <v>0.16152827258311295</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
@@ -9609,7 +9609,7 @@
         <v>2022</v>
       </c>
       <c r="E105" s="4">
-        <v>0.13710016513395351</v>
+        <v>0.17279262926045061</v>
       </c>
       <c r="F105" s="4">
         <v>1</v>
@@ -9641,7 +9641,7 @@
         <v>2022</v>
       </c>
       <c r="E106" s="3">
-        <v>0.13606784444360143</v>
+        <v>0.15338177131187081</v>
       </c>
       <c r="F106" s="3">
         <v>1</v>
@@ -9673,7 +9673,7 @@
         <v>2022</v>
       </c>
       <c r="E107" s="4">
-        <v>0.18308354646436523</v>
+        <v>0.16637932510042519</v>
       </c>
       <c r="F107" s="4">
         <v>1</v>
@@ -9705,7 +9705,7 @@
         <v>2022</v>
       </c>
       <c r="E108" s="3">
-        <v>0.16637932510042519</v>
+        <v>0.16699472878703805</v>
       </c>
       <c r="F108" s="3">
         <v>1</v>
@@ -9737,7 +9737,7 @@
         <v>2022</v>
       </c>
       <c r="E109" s="4">
-        <v>0.19828629679661561</v>
+        <v>0.19614947844032105</v>
       </c>
       <c r="F109" s="4">
         <v>1</v>
@@ -9769,7 +9769,7 @@
         <v>2022</v>
       </c>
       <c r="E110" s="3">
-        <v>0.1930981018275324</v>
+        <v>0.17082200788742341</v>
       </c>
       <c r="F110" s="3">
         <v>1</v>
@@ -9801,7 +9801,7 @@
         <v>2022</v>
       </c>
       <c r="E111" s="4">
-        <v>0.19782569372870323</v>
+        <v>0.211523174241075</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
@@ -9833,7 +9833,7 @@
         <v>2022</v>
       </c>
       <c r="E112" s="3">
-        <v>0.16277902359433066</v>
+        <v>0.13606784444360143</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
@@ -9865,7 +9865,7 @@
         <v>2022</v>
       </c>
       <c r="E113" s="4">
-        <v>0.16554834018408843</v>
+        <v>0.18308354646436523</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -9897,7 +9897,7 @@
         <v>2022</v>
       </c>
       <c r="E114" s="3">
-        <v>0.21471510601685545</v>
+        <v>0.15291072157643879</v>
       </c>
       <c r="F114" s="3">
         <v>1</v>
@@ -9929,7 +9929,7 @@
         <v>2022</v>
       </c>
       <c r="E115" s="4">
-        <v>0.15409499379434963</v>
+        <v>0.16554834018408843</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
@@ -9961,7 +9961,7 @@
         <v>2022</v>
       </c>
       <c r="E116" s="3">
-        <v>0.17082200788742341</v>
+        <v>0.21471510601685545</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
@@ -9993,7 +9993,7 @@
         <v>2022</v>
       </c>
       <c r="E117" s="4">
-        <v>0.211523174241075</v>
+        <v>0.15409499379434963</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
@@ -10025,7 +10025,7 @@
         <v>2022</v>
       </c>
       <c r="E118" s="3">
-        <v>0.16699472878703805</v>
+        <v>0.13710016513395351</v>
       </c>
       <c r="F118" s="3">
         <v>1</v>
@@ -10057,7 +10057,7 @@
         <v>2022</v>
       </c>
       <c r="E119" s="4">
-        <v>0.19614947844032105</v>
+        <v>0.15521278721895346</v>
       </c>
       <c r="F119" s="4">
         <v>1</v>
@@ -10089,7 +10089,7 @@
         <v>2022</v>
       </c>
       <c r="E120" s="3">
-        <v>0.15521278721895346</v>
+        <v>0.1586174511333161</v>
       </c>
       <c r="F120" s="3">
         <v>1</v>
@@ -10121,7 +10121,7 @@
         <v>2022</v>
       </c>
       <c r="E121" s="4">
-        <v>0.1586174511333161</v>
+        <v>0.20091315882928704</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
@@ -10153,7 +10153,7 @@
         <v>2022</v>
       </c>
       <c r="E122" s="3">
-        <v>0.20091315882928704</v>
+        <v>0.1930981018275324</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -10185,7 +10185,7 @@
         <v>2022</v>
       </c>
       <c r="E123" s="4">
-        <v>0.15338177131187081</v>
+        <v>0.21077006448261207</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>

--- a/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C47AB9E-7563-4CCE-B635-2631E26C9A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09DFE4F4-8541-40E8-A7D0-0172FFAD47B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{2F8558DC-456A-409A-B723-82F6D1E3E94C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{F6EFE887-97C6-4022-96FA-BE0D6304CA0A}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -499,79 +499,79 @@
     <t>annual</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity</t>
   </si>
   <si>
     <t>AF</t>
@@ -1147,7 +1147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE4849A-DE28-4426-A698-848B8DA2F2EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD3FD90-912E-4927-8E56-3EA2355BC56C}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4133,7 +4133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C145F5F2-80E5-4928-9280-F3429FB3EB2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D6A25A-639D-4B78-AF48-8A28184C8133}">
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4454,7 +4454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702C3353-2C10-47A4-BBE5-6CD12202D8C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB72638-7255-45D3-99B8-859F38EAAAA6}">
   <dimension ref="A1:T128"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9417,7 +9417,7 @@
         <v>2022</v>
       </c>
       <c r="E99" s="4">
-        <v>0.19782569372870323</v>
+        <v>0.16637932510042519</v>
       </c>
       <c r="F99" s="4">
         <v>1</v>
@@ -9449,7 +9449,7 @@
         <v>2022</v>
       </c>
       <c r="E100" s="3">
-        <v>0.16277902359433066</v>
+        <v>0.17279262926045061</v>
       </c>
       <c r="F100" s="3">
         <v>1</v>
@@ -9481,7 +9481,7 @@
         <v>2022</v>
       </c>
       <c r="E101" s="4">
-        <v>0.19828629679661561</v>
+        <v>0.16277902359433066</v>
       </c>
       <c r="F101" s="4">
         <v>1</v>
@@ -9513,7 +9513,7 @@
         <v>2022</v>
       </c>
       <c r="E102" s="3">
-        <v>0.16152827258311295</v>
+        <v>0.15291072157643879</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
@@ -9545,7 +9545,7 @@
         <v>2022</v>
       </c>
       <c r="E103" s="4">
-        <v>0.19328994063107527</v>
+        <v>0.16554834018408843</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
@@ -9577,7 +9577,7 @@
         <v>2022</v>
       </c>
       <c r="E104" s="3">
-        <v>0.21731537653220406</v>
+        <v>0.21471510601685545</v>
       </c>
       <c r="F104" s="3">
         <v>1</v>
@@ -9609,7 +9609,7 @@
         <v>2022</v>
       </c>
       <c r="E105" s="4">
-        <v>0.17279262926045061</v>
+        <v>0.15409499379434963</v>
       </c>
       <c r="F105" s="4">
         <v>1</v>
@@ -9641,7 +9641,7 @@
         <v>2022</v>
       </c>
       <c r="E106" s="3">
-        <v>0.15338177131187081</v>
+        <v>0.16152827258311295</v>
       </c>
       <c r="F106" s="3">
         <v>1</v>
@@ -9673,7 +9673,7 @@
         <v>2022</v>
       </c>
       <c r="E107" s="4">
-        <v>0.16637932510042519</v>
+        <v>0.13710016513395351</v>
       </c>
       <c r="F107" s="4">
         <v>1</v>
@@ -9705,7 +9705,7 @@
         <v>2022</v>
       </c>
       <c r="E108" s="3">
-        <v>0.16699472878703805</v>
+        <v>0.18308354646436523</v>
       </c>
       <c r="F108" s="3">
         <v>1</v>
@@ -9737,7 +9737,7 @@
         <v>2022</v>
       </c>
       <c r="E109" s="4">
-        <v>0.19614947844032105</v>
+        <v>0.15521278721895346</v>
       </c>
       <c r="F109" s="4">
         <v>1</v>
@@ -9769,7 +9769,7 @@
         <v>2022</v>
       </c>
       <c r="E110" s="3">
-        <v>0.17082200788742341</v>
+        <v>0.1586174511333161</v>
       </c>
       <c r="F110" s="3">
         <v>1</v>
@@ -9801,7 +9801,7 @@
         <v>2022</v>
       </c>
       <c r="E111" s="4">
-        <v>0.211523174241075</v>
+        <v>0.20091315882928704</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
@@ -9833,7 +9833,7 @@
         <v>2022</v>
       </c>
       <c r="E112" s="3">
-        <v>0.13606784444360143</v>
+        <v>0.1930981018275324</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
@@ -9865,7 +9865,7 @@
         <v>2022</v>
       </c>
       <c r="E113" s="4">
-        <v>0.18308354646436523</v>
+        <v>0.19782569372870323</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -9897,7 +9897,7 @@
         <v>2022</v>
       </c>
       <c r="E114" s="3">
-        <v>0.15291072157643879</v>
+        <v>0.16699472878703805</v>
       </c>
       <c r="F114" s="3">
         <v>1</v>
@@ -9929,7 +9929,7 @@
         <v>2022</v>
       </c>
       <c r="E115" s="4">
-        <v>0.16554834018408843</v>
+        <v>0.19614947844032105</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
@@ -9961,7 +9961,7 @@
         <v>2022</v>
       </c>
       <c r="E116" s="3">
-        <v>0.21471510601685545</v>
+        <v>0.17082200788742341</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
@@ -9993,7 +9993,7 @@
         <v>2022</v>
       </c>
       <c r="E117" s="4">
-        <v>0.15409499379434963</v>
+        <v>0.211523174241075</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
@@ -10025,7 +10025,7 @@
         <v>2022</v>
       </c>
       <c r="E118" s="3">
-        <v>0.13710016513395351</v>
+        <v>0.19328994063107527</v>
       </c>
       <c r="F118" s="3">
         <v>1</v>
@@ -10057,7 +10057,7 @@
         <v>2022</v>
       </c>
       <c r="E119" s="4">
-        <v>0.15521278721895346</v>
+        <v>0.21731537653220406</v>
       </c>
       <c r="F119" s="4">
         <v>1</v>
@@ -10089,7 +10089,7 @@
         <v>2022</v>
       </c>
       <c r="E120" s="3">
-        <v>0.1586174511333161</v>
+        <v>0.21077006448261207</v>
       </c>
       <c r="F120" s="3">
         <v>1</v>
@@ -10121,7 +10121,7 @@
         <v>2022</v>
       </c>
       <c r="E121" s="4">
-        <v>0.20091315882928704</v>
+        <v>0.19828629679661561</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
@@ -10153,7 +10153,7 @@
         <v>2022</v>
       </c>
       <c r="E122" s="3">
-        <v>0.1930981018275324</v>
+        <v>0.15338177131187081</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -10185,7 +10185,7 @@
         <v>2022</v>
       </c>
       <c r="E123" s="4">
-        <v>0.21077006448261207</v>
+        <v>0.13606784444360143</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>

--- a/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09DFE4F4-8541-40E8-A7D0-0172FFAD47B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E55EB1F5-C473-4C76-8E74-017EE636D4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{F6EFE887-97C6-4022-96FA-BE0D6304CA0A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B9DE571E-E9A9-4DA5-B5C3-035B0311637A}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -499,22 +499,49 @@
     <t>annual</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity</t>
@@ -523,52 +550,25 @@
     <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity</t>
@@ -1147,7 +1147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD3FD90-912E-4927-8E56-3EA2355BC56C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43077DAB-D7FE-432E-B73E-F3A954343E78}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4133,7 +4133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D6A25A-639D-4B78-AF48-8A28184C8133}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3611E531-4947-4AE7-B78D-B74961588E07}">
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4454,7 +4454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB72638-7255-45D3-99B8-859F38EAAAA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908A8A32-DC21-4F27-9165-0AEAEB7F4CD5}">
   <dimension ref="A1:T128"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9417,7 +9417,7 @@
         <v>2022</v>
       </c>
       <c r="E99" s="4">
-        <v>0.16637932510042519</v>
+        <v>0.13710016513395351</v>
       </c>
       <c r="F99" s="4">
         <v>1</v>
@@ -9449,7 +9449,7 @@
         <v>2022</v>
       </c>
       <c r="E100" s="3">
-        <v>0.17279262926045061</v>
+        <v>0.16277902359433066</v>
       </c>
       <c r="F100" s="3">
         <v>1</v>
@@ -9481,7 +9481,7 @@
         <v>2022</v>
       </c>
       <c r="E101" s="4">
-        <v>0.16277902359433066</v>
+        <v>0.16699472878703805</v>
       </c>
       <c r="F101" s="4">
         <v>1</v>
@@ -9513,7 +9513,7 @@
         <v>2022</v>
       </c>
       <c r="E102" s="3">
-        <v>0.15291072157643879</v>
+        <v>0.19614947844032105</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
@@ -9641,7 +9641,7 @@
         <v>2022</v>
       </c>
       <c r="E106" s="3">
-        <v>0.16152827258311295</v>
+        <v>0.15291072157643879</v>
       </c>
       <c r="F106" s="3">
         <v>1</v>
@@ -9673,7 +9673,7 @@
         <v>2022</v>
       </c>
       <c r="E107" s="4">
-        <v>0.13710016513395351</v>
+        <v>0.19828629679661561</v>
       </c>
       <c r="F107" s="4">
         <v>1</v>
@@ -9705,7 +9705,7 @@
         <v>2022</v>
       </c>
       <c r="E108" s="3">
-        <v>0.18308354646436523</v>
+        <v>0.17279262926045061</v>
       </c>
       <c r="F108" s="3">
         <v>1</v>
@@ -9737,7 +9737,7 @@
         <v>2022</v>
       </c>
       <c r="E109" s="4">
-        <v>0.15521278721895346</v>
+        <v>0.13606784444360143</v>
       </c>
       <c r="F109" s="4">
         <v>1</v>
@@ -9769,7 +9769,7 @@
         <v>2022</v>
       </c>
       <c r="E110" s="3">
-        <v>0.1586174511333161</v>
+        <v>0.18308354646436523</v>
       </c>
       <c r="F110" s="3">
         <v>1</v>
@@ -9801,7 +9801,7 @@
         <v>2022</v>
       </c>
       <c r="E111" s="4">
-        <v>0.20091315882928704</v>
+        <v>0.15521278721895346</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
@@ -9833,7 +9833,7 @@
         <v>2022</v>
       </c>
       <c r="E112" s="3">
-        <v>0.1930981018275324</v>
+        <v>0.1586174511333161</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
@@ -9865,7 +9865,7 @@
         <v>2022</v>
       </c>
       <c r="E113" s="4">
-        <v>0.19782569372870323</v>
+        <v>0.20091315882928704</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -9897,7 +9897,7 @@
         <v>2022</v>
       </c>
       <c r="E114" s="3">
-        <v>0.16699472878703805</v>
+        <v>0.19328994063107527</v>
       </c>
       <c r="F114" s="3">
         <v>1</v>
@@ -9929,7 +9929,7 @@
         <v>2022</v>
       </c>
       <c r="E115" s="4">
-        <v>0.19614947844032105</v>
+        <v>0.21731537653220406</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
@@ -9961,7 +9961,7 @@
         <v>2022</v>
       </c>
       <c r="E116" s="3">
-        <v>0.17082200788742341</v>
+        <v>0.16152827258311295</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
@@ -9993,7 +9993,7 @@
         <v>2022</v>
       </c>
       <c r="E117" s="4">
-        <v>0.211523174241075</v>
+        <v>0.15338177131187081</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
@@ -10025,7 +10025,7 @@
         <v>2022</v>
       </c>
       <c r="E118" s="3">
-        <v>0.19328994063107527</v>
+        <v>0.16637932510042519</v>
       </c>
       <c r="F118" s="3">
         <v>1</v>
@@ -10057,7 +10057,7 @@
         <v>2022</v>
       </c>
       <c r="E119" s="4">
-        <v>0.21731537653220406</v>
+        <v>0.17082200788742341</v>
       </c>
       <c r="F119" s="4">
         <v>1</v>
@@ -10089,7 +10089,7 @@
         <v>2022</v>
       </c>
       <c r="E120" s="3">
-        <v>0.21077006448261207</v>
+        <v>0.211523174241075</v>
       </c>
       <c r="F120" s="3">
         <v>1</v>
@@ -10121,7 +10121,7 @@
         <v>2022</v>
       </c>
       <c r="E121" s="4">
-        <v>0.19828629679661561</v>
+        <v>0.1930981018275324</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
@@ -10153,7 +10153,7 @@
         <v>2022</v>
       </c>
       <c r="E122" s="3">
-        <v>0.15338177131187081</v>
+        <v>0.19782569372870323</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -10185,7 +10185,7 @@
         <v>2022</v>
       </c>
       <c r="E123" s="4">
-        <v>0.13606784444360143</v>
+        <v>0.21077006448261207</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>

--- a/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E55EB1F5-C473-4C76-8E74-017EE636D4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECBF5792-C754-41C5-B01B-21648C6FEC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B9DE571E-E9A9-4DA5-B5C3-035B0311637A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{94B0A0E2-1A0A-41B1-B20C-A22D00CC9F78}"/>
   </bookViews>
   <sheets>
-    <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
-    <sheet name="ccs_retrofits" sheetId="2" r:id="rId2"/>
-    <sheet name="existing_stock" sheetId="1" r:id="rId3"/>
+    <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
+    <sheet name="existing_stock" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="162">
   <si>
     <t>~fi_t</t>
   </si>
@@ -265,7 +264,7 @@
     <t>ep_nuclear_G100000500505</t>
   </si>
   <si>
-    <t>ep_solar_pv</t>
+    <t>ep_solar_pv_</t>
   </si>
   <si>
     <t>solar</t>
@@ -274,10 +273,10 @@
     <t>elc_sol-CHE</t>
   </si>
   <si>
-    <t>ep_solar_pv_</t>
-  </si>
-  <si>
-    <t>ep_wind_onshore</t>
+    <t>ep_solar_pv_CHE</t>
+  </si>
+  <si>
+    <t>ep_wind_onshore_CHE</t>
   </si>
   <si>
     <t>wind</t>
@@ -286,7 +285,7 @@
     <t>elc_win-CHE</t>
   </si>
   <si>
-    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by intuition · Accelerated with AI</t>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
   </si>
   <si>
     <t>~fi_process</t>
@@ -496,84 +495,12 @@
     <t>Beznau nuclear power plant_2</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>annual</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity</t>
-  </si>
-  <si>
     <t>AF</t>
   </si>
   <si>
@@ -596,105 +523,6 @@
   </si>
   <si>
     <t>ccs retrofit of -- Aggregated Plant</t>
-  </si>
-  <si>
-    <t>attribute</t>
-  </si>
-  <si>
-    <t>Bioenergy + CCUS</t>
-  </si>
-  <si>
-    <t>ncap_af</t>
-  </si>
-  <si>
-    <t>ncap_iled</t>
-  </si>
-  <si>
-    <t>Bioenergy - Cofiring</t>
-  </si>
-  <si>
-    <t>Bioenergy - Large scale unit</t>
-  </si>
-  <si>
-    <t>Bioenergy - Medium-scale CHP</t>
-  </si>
-  <si>
-    <t>CCGT</t>
-  </si>
-  <si>
-    <t>CCGT + CCS</t>
-  </si>
-  <si>
-    <t>CCGT - CHP</t>
-  </si>
-  <si>
-    <t>Coal + CCS</t>
-  </si>
-  <si>
-    <t>coal</t>
-  </si>
-  <si>
-    <t>Concentrating solar power</t>
-  </si>
-  <si>
-    <t>Fuel cell (distributed electricity generation)</t>
-  </si>
-  <si>
-    <t>hydrogen</t>
-  </si>
-  <si>
-    <t>Gas turbine</t>
-  </si>
-  <si>
-    <t>Geothermal plant</t>
-  </si>
-  <si>
-    <t>geothermal</t>
-  </si>
-  <si>
-    <t>Hydropower - large-scale unit</t>
-  </si>
-  <si>
-    <t>Hydropower - small-scale unit</t>
-  </si>
-  <si>
-    <t>IGCC</t>
-  </si>
-  <si>
-    <t>IGCC + CCS</t>
-  </si>
-  <si>
-    <t>Marine power</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>Nuclear large</t>
-  </si>
-  <si>
-    <t>Oxyfuel + CCS</t>
-  </si>
-  <si>
-    <t>Solar photovoltaics - Buildings</t>
-  </si>
-  <si>
-    <t>Solar photovoltaics - Large scale unit</t>
-  </si>
-  <si>
-    <t>Steam Coal - SUBCRITICAL</t>
-  </si>
-  <si>
-    <t>Steam Coal - SUPERCRITICAL</t>
-  </si>
-  <si>
-    <t>Steam Coal - ULTRASUPERCRITICAL</t>
-  </si>
-  <si>
-    <t>Wind offshore</t>
-  </si>
-  <si>
-    <t>Wind onshore</t>
   </si>
 </sst>
 </file>
@@ -710,8 +538,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="8"/>
+      <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -720,12 +554,6 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -807,12 +635,12 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -829,6 +657,116 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>163512</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49F4C154-2F30-72E5-9082-D54264025E3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12369800" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>163512</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C11E3CF-D9ED-BA82-8392-E0755EA00BDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11722100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1147,2996 +1085,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43077DAB-D7FE-432E-B73E-F3A954343E78}">
-  <dimension ref="A1:Q107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABEB790-4E7C-45EB-8FB5-B0C0E9631386}">
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="30.59765625" customWidth="1"/>
-    <col min="2" max="7" width="10.59765625" customWidth="1"/>
-    <col min="11" max="11" width="10.59765625" customWidth="1"/>
-    <col min="12" max="12" width="30.59765625" customWidth="1"/>
-    <col min="13" max="13" width="10.59765625" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.59765625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2023</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2030</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2050</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3">
-        <v>5750</v>
-      </c>
-      <c r="E6" s="3">
-        <v>5700</v>
-      </c>
-      <c r="F6" s="3">
-        <v>5100</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4">
-        <v>200</v>
-      </c>
-      <c r="E7" s="4">
-        <v>200</v>
-      </c>
-      <c r="F7" s="4">
-        <v>175</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A9" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4">
-        <v>600</v>
-      </c>
-      <c r="E11" s="4">
-        <v>575</v>
-      </c>
-      <c r="F11" s="4">
-        <v>575</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="3">
-        <v>25</v>
-      </c>
-      <c r="E12" s="3">
-        <v>20</v>
-      </c>
-      <c r="F12" s="3">
-        <v>20</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="4">
-        <v>2</v>
-      </c>
-      <c r="E13" s="4">
-        <v>2</v>
-      </c>
-      <c r="F13" s="4">
-        <v>2</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A15" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3">
-        <v>2400</v>
-      </c>
-      <c r="E16" s="3">
-        <v>2350</v>
-      </c>
-      <c r="F16" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A17" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="4">
-        <v>85</v>
-      </c>
-      <c r="E17" s="4">
-        <v>85</v>
-      </c>
-      <c r="F17" s="4">
-        <v>80</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A19" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A20" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A21" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="4">
-        <v>3750</v>
-      </c>
-      <c r="E21" s="4">
-        <v>3700</v>
-      </c>
-      <c r="F21" s="4">
-        <v>3600</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="3">
-        <v>140</v>
-      </c>
-      <c r="E22" s="3">
-        <v>140</v>
-      </c>
-      <c r="F22" s="3">
-        <v>135</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A23" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="4">
-        <v>2</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2</v>
-      </c>
-      <c r="F23" s="4">
-        <v>2</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A24" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0.59</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0.61</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A25" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E25" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F25" s="4">
-        <v>1000</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q25" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A26" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="3">
-        <v>25</v>
-      </c>
-      <c r="E26" s="3">
-        <v>25</v>
-      </c>
-      <c r="F26" s="3">
-        <v>25</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A27" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0.51</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0.52</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0.54</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O27" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="P27" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A28" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="3">
-        <v>3100</v>
-      </c>
-      <c r="E28" s="3">
-        <v>3100</v>
-      </c>
-      <c r="F28" s="3">
-        <v>2400</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A29" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="4">
-        <v>75</v>
-      </c>
-      <c r="E29" s="4">
-        <v>75</v>
-      </c>
-      <c r="F29" s="4">
-        <v>60</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A30" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0.82000000000000006</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0.83000000000000007</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0.84</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A31" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1300</v>
-      </c>
-      <c r="E31" s="4">
-        <v>1300</v>
-      </c>
-      <c r="F31" s="4">
-        <v>1300</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A32" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="3">
-        <v>40</v>
-      </c>
-      <c r="E32" s="3">
-        <v>40</v>
-      </c>
-      <c r="F32" s="3">
-        <v>40</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0.38</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0.39</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="3">
-        <v>5500</v>
-      </c>
-      <c r="E34" s="3">
-        <v>5500</v>
-      </c>
-      <c r="F34" s="3">
-        <v>4350</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="4">
-        <v>165</v>
-      </c>
-      <c r="E35" s="4">
-        <v>165</v>
-      </c>
-      <c r="F35" s="4">
-        <v>130</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="E37" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="F37" s="4">
-        <v>0.42</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="3">
-        <v>5650</v>
-      </c>
-      <c r="E38" s="3">
-        <v>4950</v>
-      </c>
-      <c r="F38" s="3">
-        <v>3850</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="4">
-        <v>210</v>
-      </c>
-      <c r="E39" s="4">
-        <v>200</v>
-      </c>
-      <c r="F39" s="4">
-        <v>150</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="3">
-        <v>3</v>
-      </c>
-      <c r="E40" s="3">
-        <v>3</v>
-      </c>
-      <c r="F40" s="3">
-        <v>3</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E41" s="4">
-        <v>0.54</v>
-      </c>
-      <c r="F41" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E42" s="3">
-        <v>2500</v>
-      </c>
-      <c r="F42" s="3">
-        <v>2500</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="4">
-        <v>100</v>
-      </c>
-      <c r="E43" s="4">
-        <v>50</v>
-      </c>
-      <c r="F43" s="4">
-        <v>50</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0.41000000000000003</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0.42</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="4">
-        <v>500</v>
-      </c>
-      <c r="E45" s="4">
-        <v>500</v>
-      </c>
-      <c r="F45" s="4">
-        <v>500</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="3">
-        <v>20</v>
-      </c>
-      <c r="E46" s="3">
-        <v>20</v>
-      </c>
-      <c r="F46" s="3">
-        <v>20</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="E47" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="F47" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="3">
-        <v>0.85000000000000009</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0.85000000000000009</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0.85000000000000009</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A49" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="4">
-        <v>2850</v>
-      </c>
-      <c r="E49" s="4">
-        <v>2800</v>
-      </c>
-      <c r="F49" s="4">
-        <v>2600</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="3">
-        <v>55</v>
-      </c>
-      <c r="E50" s="3">
-        <v>55</v>
-      </c>
-      <c r="F50" s="3">
-        <v>50</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="4">
-        <v>4</v>
-      </c>
-      <c r="E51" s="4">
-        <v>4</v>
-      </c>
-      <c r="F51" s="4">
-        <v>4</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A52" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="3">
-        <v>1</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A53" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="4">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="E53" s="4">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="F53" s="4">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A54" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="3">
-        <v>2650</v>
-      </c>
-      <c r="E54" s="3">
-        <v>2650</v>
-      </c>
-      <c r="F54" s="3">
-        <v>2650</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A55" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="4">
-        <v>65</v>
-      </c>
-      <c r="E55" s="4">
-        <v>65</v>
-      </c>
-      <c r="F55" s="4">
-        <v>65</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A56" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="3">
-        <v>4</v>
-      </c>
-      <c r="E56" s="3">
-        <v>4</v>
-      </c>
-      <c r="F56" s="3">
-        <v>4</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A57" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="4">
-        <v>1</v>
-      </c>
-      <c r="E57" s="4">
-        <v>1</v>
-      </c>
-      <c r="F57" s="4">
-        <v>1</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A58" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A59" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="4">
-        <v>3850</v>
-      </c>
-      <c r="E59" s="4">
-        <v>3850</v>
-      </c>
-      <c r="F59" s="4">
-        <v>3850</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A60" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="3">
-        <v>75</v>
-      </c>
-      <c r="E60" s="3">
-        <v>75</v>
-      </c>
-      <c r="F60" s="3">
-        <v>75</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A61" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="4">
-        <v>4</v>
-      </c>
-      <c r="E61" s="4">
-        <v>4</v>
-      </c>
-      <c r="F61" s="4">
-        <v>4</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A62" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0.47000000000000003</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A63" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="4">
-        <v>2500</v>
-      </c>
-      <c r="E63" s="4">
-        <v>2350</v>
-      </c>
-      <c r="F63" s="4">
-        <v>2300</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A64" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="3">
-        <v>95</v>
-      </c>
-      <c r="E64" s="3">
-        <v>85</v>
-      </c>
-      <c r="F64" s="3">
-        <v>80</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A65" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="E65" s="4">
-        <v>0.38</v>
-      </c>
-      <c r="F65" s="4">
-        <v>0.43</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A66" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="3">
-        <v>5850</v>
-      </c>
-      <c r="E66" s="3">
-        <v>5700</v>
-      </c>
-      <c r="F66" s="3">
-        <v>5100</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A67" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="4">
-        <v>205</v>
-      </c>
-      <c r="E67" s="4">
-        <v>200</v>
-      </c>
-      <c r="F67" s="4">
-        <v>180</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A68" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="3">
-        <v>1</v>
-      </c>
-      <c r="E68" s="3">
-        <v>1</v>
-      </c>
-      <c r="F68" s="3">
-        <v>1</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A69" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="E69" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="F69" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A70" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="3">
-        <v>6950</v>
-      </c>
-      <c r="E70" s="3">
-        <v>5000</v>
-      </c>
-      <c r="F70" s="3">
-        <v>2800</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A71" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="4">
-        <v>200</v>
-      </c>
-      <c r="E71" s="4">
-        <v>150</v>
-      </c>
-      <c r="F71" s="4">
-        <v>90</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A72" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" s="3">
-        <v>4</v>
-      </c>
-      <c r="E72" s="3">
-        <v>4</v>
-      </c>
-      <c r="F72" s="3">
-        <v>4</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A73" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="E73" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="F73" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A74" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" s="3">
-        <v>6600</v>
-      </c>
-      <c r="E74" s="3">
-        <v>5100</v>
-      </c>
-      <c r="F74" s="3">
-        <v>4500</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A75" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="4">
-        <v>165</v>
-      </c>
-      <c r="E75" s="4">
-        <v>165</v>
-      </c>
-      <c r="F75" s="4">
-        <v>160</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A76" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="3">
-        <v>0.37</v>
-      </c>
-      <c r="E76" s="3">
-        <v>0.38</v>
-      </c>
-      <c r="F76" s="3">
-        <v>0.39</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A77" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" s="4">
-        <v>5700</v>
-      </c>
-      <c r="E77" s="4">
-        <v>5700</v>
-      </c>
-      <c r="F77" s="4">
-        <v>5100</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A78" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78" s="3">
-        <v>170</v>
-      </c>
-      <c r="E78" s="3">
-        <v>170</v>
-      </c>
-      <c r="F78" s="3">
-        <v>155</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A79" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D79" s="4">
-        <v>1</v>
-      </c>
-      <c r="E79" s="4">
-        <v>1</v>
-      </c>
-      <c r="F79" s="4">
-        <v>1</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A80" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="E80" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="F80" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A81" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81" s="4">
-        <v>990</v>
-      </c>
-      <c r="E81" s="4">
-        <v>650</v>
-      </c>
-      <c r="F81" s="4">
-        <v>470</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A82" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D82" s="3">
-        <v>14</v>
-      </c>
-      <c r="E82" s="3">
-        <v>14</v>
-      </c>
-      <c r="F82" s="3">
-        <v>12</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A83" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D83" s="4">
-        <v>1</v>
-      </c>
-      <c r="E83" s="4">
-        <v>1</v>
-      </c>
-      <c r="F83" s="4">
-        <v>1</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A84" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84" s="3">
-        <v>1</v>
-      </c>
-      <c r="E84" s="3">
-        <v>1</v>
-      </c>
-      <c r="F84" s="3">
-        <v>1</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A85" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D85" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E85" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F85" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A86" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D86" s="3">
-        <v>750</v>
-      </c>
-      <c r="E86" s="3">
-        <v>480</v>
-      </c>
-      <c r="F86" s="3">
-        <v>340</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A87" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D87" s="4">
-        <v>12</v>
-      </c>
-      <c r="E87" s="4">
-        <v>10</v>
-      </c>
-      <c r="F87" s="4">
-        <v>10</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A88" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="E88" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="F88" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A89" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D89" s="4">
-        <v>0.39</v>
-      </c>
-      <c r="E89" s="4">
-        <v>0.39</v>
-      </c>
-      <c r="F89" s="4">
-        <v>0.39</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A90" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D90" s="3">
-        <v>1700</v>
-      </c>
-      <c r="E90" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F90" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A91" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91" s="4">
-        <v>45</v>
-      </c>
-      <c r="E91" s="4">
-        <v>45</v>
-      </c>
-      <c r="F91" s="4">
-        <v>45</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A92" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D92" s="3">
-        <v>0.43</v>
-      </c>
-      <c r="E92" s="3">
-        <v>0.43</v>
-      </c>
-      <c r="F92" s="3">
-        <v>0.43</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A93" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D93" s="4">
-        <v>2000</v>
-      </c>
-      <c r="E93" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F93" s="4">
-        <v>2000</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A94" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D94" s="3">
-        <v>60</v>
-      </c>
-      <c r="E94" s="3">
-        <v>60</v>
-      </c>
-      <c r="F94" s="3">
-        <v>60</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A95" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D95" s="4">
-        <v>0.46</v>
-      </c>
-      <c r="E95" s="4">
-        <v>0.46</v>
-      </c>
-      <c r="F95" s="4">
-        <v>0.48</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A96" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D96" s="3">
-        <v>2200</v>
-      </c>
-      <c r="E96" s="3">
-        <v>2200</v>
-      </c>
-      <c r="F96" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A97" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D97" s="4">
-        <v>65</v>
-      </c>
-      <c r="E97" s="4">
-        <v>65</v>
-      </c>
-      <c r="F97" s="4">
-        <v>65</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A98" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D98" s="3">
-        <v>1</v>
-      </c>
-      <c r="E98" s="3">
-        <v>1</v>
-      </c>
-      <c r="F98" s="3">
-        <v>1</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A99" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D99" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E99" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F99" s="4">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A100" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D100" s="3">
-        <v>3120</v>
-      </c>
-      <c r="E100" s="3">
-        <v>2280</v>
-      </c>
-      <c r="F100" s="3">
-        <v>1660</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A101" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D101" s="4">
-        <v>60</v>
-      </c>
-      <c r="E101" s="4">
-        <v>50</v>
-      </c>
-      <c r="F101" s="4">
-        <v>40</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A102" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D102" s="3">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A103" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D103" s="4">
-        <v>1</v>
-      </c>
-      <c r="E103" s="4">
-        <v>1</v>
-      </c>
-      <c r="F103" s="4">
-        <v>1</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A104" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D104" s="3">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E104" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="F104" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A105" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D105" s="4">
-        <v>1630</v>
-      </c>
-      <c r="E105" s="4">
-        <v>1550</v>
-      </c>
-      <c r="F105" s="4">
-        <v>1490</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A106" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D106" s="3">
-        <v>42</v>
-      </c>
-      <c r="E106" s="3">
-        <v>40</v>
-      </c>
-      <c r="F106" s="3">
-        <v>38</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A107" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D107" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="E107" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F107" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:Q1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3611E531-4947-4AE7-B78D-B74961588E07}">
-  <dimension ref="A1:U7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4153,7 +1105,7 @@
     <col min="21" max="21" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -4175,8 +1127,6 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
@@ -4209,13 +1159,13 @@
         <v>9</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>10</v>
@@ -4244,7 +1194,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -4280,10 +1230,10 @@
         <v>90</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>92</v>
@@ -4300,7 +1250,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -4336,10 +1286,10 @@
         <v>90</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="R5" s="4" t="s">
         <v>92</v>
@@ -4356,7 +1306,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -4392,10 +1342,10 @@
         <v>90</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>92</v>
@@ -4412,7 +1362,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>15</v>
@@ -4447,15 +1397,16 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908A8A32-DC21-4F27-9165-0AEAEB7F4CD5}">
-  <dimension ref="A1:T128"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C6C18F-1A3E-4B90-A4FE-5A72C04A9C0E}">
+  <dimension ref="A1:T104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4472,7 +1423,7 @@
     <col min="20" max="20" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -4493,8 +1444,6 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
@@ -7722,7 +4671,7 @@
         <v>75</v>
       </c>
       <c r="P63" s="4" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="Q63" s="4" t="s">
         <v>92</v>
@@ -7731,7 +4680,7 @@
         <v>93</v>
       </c>
       <c r="S63" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="T63" s="4" t="s">
         <v>95</v>
@@ -7775,16 +4724,16 @@
         <v>78</v>
       </c>
       <c r="P64" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q64" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R64" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="S64" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="Q64" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="R64" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="S64" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="T64" s="3" t="s">
         <v>95</v>
@@ -7825,10 +4774,10 @@
         <v>90</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P65" s="4" t="s">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="Q65" s="4" t="s">
         <v>92</v>
@@ -7837,7 +4786,7 @@
         <v>93</v>
       </c>
       <c r="S65" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="T65" s="4" t="s">
         <v>95</v>
@@ -7874,27 +4823,6 @@
       <c r="J66" s="3">
         <v>100</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="R66" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="S66" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="T66" s="3" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
@@ -7927,27 +4855,6 @@
       <c r="J67" s="4">
         <v>100</v>
       </c>
-      <c r="N67" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="O67" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P67" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q67" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="R67" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="S67" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="T67" s="4" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
@@ -7980,27 +4887,6 @@
       <c r="J68" s="3">
         <v>100</v>
       </c>
-      <c r="N68" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O68" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P68" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q68" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="R68" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="S68" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="T68" s="3" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A69" s="4" t="s">
@@ -8033,27 +4919,6 @@
       <c r="J69" s="4">
         <v>100</v>
       </c>
-      <c r="N69" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="O69" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P69" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q69" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="R69" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="S69" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="T69" s="4" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
@@ -8086,27 +4951,6 @@
       <c r="J70" s="3">
         <v>100</v>
       </c>
-      <c r="N70" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O70" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P70" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q70" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="R70" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="S70" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="T70" s="3" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A71" s="4" t="s">
@@ -8139,27 +4983,6 @@
       <c r="J71" s="4">
         <v>100</v>
       </c>
-      <c r="N71" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="O71" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P71" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q71" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="R71" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="S71" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="T71" s="4" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
@@ -8192,27 +5015,6 @@
       <c r="J72" s="3">
         <v>100</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="T72" s="3" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A73" s="4" t="s">
@@ -8245,27 +5047,6 @@
       <c r="J73" s="4">
         <v>100</v>
       </c>
-      <c r="N73" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="O73" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P73" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q73" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="R73" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="S73" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="T73" s="4" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
@@ -8298,27 +5079,6 @@
       <c r="J74" s="3">
         <v>147</v>
       </c>
-      <c r="N74" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O74" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P74" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q74" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="R74" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="S74" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="T74" s="3" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A75" s="4" t="s">
@@ -8351,27 +5111,6 @@
       <c r="J75" s="4">
         <v>135</v>
       </c>
-      <c r="N75" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="O75" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P75" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q75" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="R75" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="S75" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="T75" s="4" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
@@ -8404,27 +5143,6 @@
       <c r="J76" s="3">
         <v>130</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="T76" s="3" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A77" s="4" t="s">
@@ -8457,27 +5175,6 @@
       <c r="J77" s="4">
         <v>123</v>
       </c>
-      <c r="N77" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="O77" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P77" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q77" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="R77" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="S77" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="T77" s="4" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
@@ -8510,27 +5207,6 @@
       <c r="J78" s="3">
         <v>108</v>
       </c>
-      <c r="N78" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O78" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P78" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q78" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="R78" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="S78" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="T78" s="3" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A79" s="4" t="s">
@@ -8563,27 +5239,6 @@
       <c r="J79" s="4">
         <v>105</v>
       </c>
-      <c r="N79" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="O79" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P79" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q79" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="R79" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="S79" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="T79" s="4" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
@@ -8616,29 +5271,8 @@
       <c r="J80" s="3">
         <v>103</v>
       </c>
-      <c r="N80" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O80" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P80" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q80" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="R80" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="S80" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="T80" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A81" s="4" t="s">
         <v>69</v>
       </c>
@@ -8669,29 +5303,8 @@
       <c r="J81" s="4">
         <v>100</v>
       </c>
-      <c r="N81" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="O81" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P81" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q81" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="R81" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="S81" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="T81" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>69</v>
       </c>
@@ -8722,29 +5335,8 @@
       <c r="J82" s="3">
         <v>100</v>
       </c>
-      <c r="N82" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O82" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P82" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q82" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="R82" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="S82" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="T82" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A83" s="4" t="s">
         <v>69</v>
       </c>
@@ -8775,29 +5367,8 @@
       <c r="J83" s="4">
         <v>100</v>
       </c>
-      <c r="N83" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="O83" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P83" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q83" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="R83" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="S83" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="T83" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>69</v>
       </c>
@@ -8828,29 +5399,8 @@
       <c r="J84" s="3">
         <v>100</v>
       </c>
-      <c r="N84" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O84" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P84" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q84" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="R84" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="S84" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="T84" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A85" s="4" t="s">
         <v>69</v>
       </c>
@@ -8881,29 +5431,8 @@
       <c r="J85" s="4">
         <v>100</v>
       </c>
-      <c r="N85" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="O85" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P85" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q85" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="R85" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="S85" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="T85" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>70</v>
       </c>
@@ -8934,29 +5463,8 @@
       <c r="J86" s="3">
         <v>71</v>
       </c>
-      <c r="N86" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O86" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P86" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q86" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="R86" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="S86" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="T86" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A87" s="4" t="s">
         <v>72</v>
       </c>
@@ -8987,29 +5495,8 @@
       <c r="J87" s="4">
         <v>76</v>
       </c>
-      <c r="N87" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="O87" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P87" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q87" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="R87" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="S87" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="T87" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>73</v>
       </c>
@@ -9040,29 +5527,8 @@
       <c r="J88" s="3">
         <v>86</v>
       </c>
-      <c r="N88" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O88" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P88" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q88" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="R88" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="S88" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="T88" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A89" s="4" t="s">
         <v>74</v>
       </c>
@@ -9093,29 +5559,8 @@
       <c r="J89" s="4">
         <v>83</v>
       </c>
-      <c r="N89" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="O89" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="P89" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q89" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="R89" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="S89" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="T89" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>75</v>
       </c>
@@ -9126,30 +5571,30 @@
         <v>77</v>
       </c>
       <c r="D90" s="3">
-        <v>2009</v>
+        <v>2022</v>
       </c>
       <c r="E90" s="3">
-        <v>1.5E-3</v>
+        <v>4.4311999999999996</v>
       </c>
       <c r="F90" s="3">
         <v>1</v>
       </c>
       <c r="G90" s="3">
-        <v>1336.5</v>
+        <v>990</v>
       </c>
       <c r="H90" s="3">
-        <v>21.450000000000003</v>
+        <v>16.5</v>
       </c>
       <c r="I90" s="3">
         <v>0</v>
       </c>
       <c r="J90" s="3">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A91" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>76</v>
@@ -9158,10 +5603,10 @@
         <v>77</v>
       </c>
       <c r="D91" s="4">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E91" s="4">
-        <v>2.3999999999999998E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F91" s="4">
         <v>1</v>
@@ -9176,12 +5621,12 @@
         <v>0</v>
       </c>
       <c r="J91" s="4">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>76</v>
@@ -9190,30 +5635,30 @@
         <v>77</v>
       </c>
       <c r="D92" s="3">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E92" s="3">
-        <v>7.1000000000000013E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="F92" s="3">
         <v>1</v>
       </c>
       <c r="G92" s="3">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H92" s="3">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I92" s="3">
         <v>0</v>
       </c>
       <c r="J92" s="3">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A93" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>76</v>
@@ -9222,30 +5667,30 @@
         <v>77</v>
       </c>
       <c r="D93" s="4">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E93" s="4">
-        <v>2.5999999999999999E-2</v>
+        <v>7.1000000000000013E-3</v>
       </c>
       <c r="F93" s="4">
         <v>1</v>
       </c>
       <c r="G93" s="4">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H93" s="4">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I93" s="4">
         <v>0</v>
       </c>
       <c r="J93" s="4">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>76</v>
@@ -9254,16 +5699,16 @@
         <v>77</v>
       </c>
       <c r="D94" s="3">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="E94" s="3">
-        <v>1.4799999999999999E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="F94" s="3">
         <v>1</v>
       </c>
       <c r="G94" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H94" s="3">
         <v>21.450000000000003</v>
@@ -9272,12 +5717,12 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A95" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>76</v>
@@ -9286,16 +5731,16 @@
         <v>77</v>
       </c>
       <c r="D95" s="4">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E95" s="4">
-        <v>1E-3</v>
+        <v>1.4799999999999999E-2</v>
       </c>
       <c r="F95" s="4">
         <v>1</v>
       </c>
       <c r="G95" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H95" s="4">
         <v>21.450000000000003</v>
@@ -9304,12 +5749,12 @@
         <v>0</v>
       </c>
       <c r="J95" s="4">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>76</v>
@@ -9318,10 +5763,10 @@
         <v>77</v>
       </c>
       <c r="D96" s="3">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E96" s="3">
-        <v>2.3500000000000004E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="F96" s="3">
         <v>1</v>
@@ -9336,12 +5781,12 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A97" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>76</v>
@@ -9350,10 +5795,10 @@
         <v>77</v>
       </c>
       <c r="D97" s="4">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E97" s="4">
-        <v>1.9300000000000005E-2</v>
+        <v>2.3500000000000004E-2</v>
       </c>
       <c r="F97" s="4">
         <v>1</v>
@@ -9368,12 +5813,12 @@
         <v>0</v>
       </c>
       <c r="J97" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>76</v>
@@ -9382,10 +5827,10 @@
         <v>77</v>
       </c>
       <c r="D98" s="3">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="E98" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1.9300000000000005E-2</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
@@ -9400,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="J98" s="3">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.45">
@@ -9414,150 +5859,150 @@
         <v>77</v>
       </c>
       <c r="D99" s="4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E99" s="4">
-        <v>0.13710016513395351</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F99" s="4">
         <v>1</v>
       </c>
       <c r="G99" s="4">
-        <v>1138.5</v>
+        <v>1336.5</v>
       </c>
       <c r="H99" s="4">
-        <v>18.150000000000002</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I99" s="4">
         <v>0</v>
       </c>
       <c r="J99" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D100" s="3">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="E100" s="3">
-        <v>0.16277902359433066</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F100" s="3">
         <v>1</v>
       </c>
       <c r="G100" s="3">
-        <v>1138.5</v>
+        <v>2376</v>
       </c>
       <c r="H100" s="3">
-        <v>18.150000000000002</v>
+        <v>57.2</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="J100" s="3">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A101" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D101" s="4">
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="E101" s="4">
-        <v>0.16699472878703805</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F101" s="4">
         <v>1</v>
       </c>
       <c r="G101" s="4">
-        <v>1138.5</v>
+        <v>2376</v>
       </c>
       <c r="H101" s="4">
-        <v>18.150000000000002</v>
+        <v>57.20000000000001</v>
       </c>
       <c r="I101" s="4">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="J101" s="4">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D102" s="3">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="E102" s="3">
-        <v>0.19614947844032105</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
       </c>
       <c r="G102" s="3">
-        <v>1138.5</v>
+        <v>2376</v>
       </c>
       <c r="H102" s="3">
-        <v>18.150000000000002</v>
+        <v>57.2</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="J102" s="3">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D103" s="4">
         <v>2022</v>
       </c>
       <c r="E103" s="4">
-        <v>0.16554834018408843</v>
+        <v>4.6999999999999993E-2</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
       </c>
       <c r="G103" s="4">
-        <v>1138.5</v>
+        <v>2376</v>
       </c>
       <c r="H103" s="4">
-        <v>18.150000000000002</v>
+        <v>57.2</v>
       </c>
       <c r="I103" s="4">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="J103" s="4">
         <v>33</v>
@@ -9565,808 +6010,41 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D104" s="3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E104" s="3">
-        <v>0.21471510601685545</v>
+        <v>1.4E-2</v>
       </c>
       <c r="F104" s="3">
         <v>1</v>
       </c>
       <c r="G104" s="3">
-        <v>1138.5</v>
+        <v>2376</v>
       </c>
       <c r="H104" s="3">
-        <v>18.150000000000002</v>
+        <v>57.2</v>
       </c>
       <c r="I104" s="3">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="J104" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A105" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D105" s="4">
-        <v>2022</v>
-      </c>
-      <c r="E105" s="4">
-        <v>0.15409499379434963</v>
-      </c>
-      <c r="F105" s="4">
-        <v>1</v>
-      </c>
-      <c r="G105" s="4">
-        <v>1138.5</v>
-      </c>
-      <c r="H105" s="4">
-        <v>18.150000000000002</v>
-      </c>
-      <c r="I105" s="4">
-        <v>0</v>
-      </c>
-      <c r="J105" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A106" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D106" s="3">
-        <v>2022</v>
-      </c>
-      <c r="E106" s="3">
-        <v>0.15291072157643879</v>
-      </c>
-      <c r="F106" s="3">
-        <v>1</v>
-      </c>
-      <c r="G106" s="3">
-        <v>1138.5</v>
-      </c>
-      <c r="H106" s="3">
-        <v>18.150000000000002</v>
-      </c>
-      <c r="I106" s="3">
-        <v>0</v>
-      </c>
-      <c r="J106" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A107" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D107" s="4">
-        <v>2022</v>
-      </c>
-      <c r="E107" s="4">
-        <v>0.19828629679661561</v>
-      </c>
-      <c r="F107" s="4">
-        <v>1</v>
-      </c>
-      <c r="G107" s="4">
-        <v>1138.5</v>
-      </c>
-      <c r="H107" s="4">
-        <v>18.150000000000002</v>
-      </c>
-      <c r="I107" s="4">
-        <v>0</v>
-      </c>
-      <c r="J107" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A108" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D108" s="3">
-        <v>2022</v>
-      </c>
-      <c r="E108" s="3">
-        <v>0.17279262926045061</v>
-      </c>
-      <c r="F108" s="3">
-        <v>1</v>
-      </c>
-      <c r="G108" s="3">
-        <v>1138.5</v>
-      </c>
-      <c r="H108" s="3">
-        <v>18.150000000000002</v>
-      </c>
-      <c r="I108" s="3">
-        <v>0</v>
-      </c>
-      <c r="J108" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A109" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D109" s="4">
-        <v>2022</v>
-      </c>
-      <c r="E109" s="4">
-        <v>0.13606784444360143</v>
-      </c>
-      <c r="F109" s="4">
-        <v>1</v>
-      </c>
-      <c r="G109" s="4">
-        <v>1138.5</v>
-      </c>
-      <c r="H109" s="4">
-        <v>18.150000000000002</v>
-      </c>
-      <c r="I109" s="4">
-        <v>0</v>
-      </c>
-      <c r="J109" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A110" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D110" s="3">
-        <v>2022</v>
-      </c>
-      <c r="E110" s="3">
-        <v>0.18308354646436523</v>
-      </c>
-      <c r="F110" s="3">
-        <v>1</v>
-      </c>
-      <c r="G110" s="3">
-        <v>1138.5</v>
-      </c>
-      <c r="H110" s="3">
-        <v>18.150000000000002</v>
-      </c>
-      <c r="I110" s="3">
-        <v>0</v>
-      </c>
-      <c r="J110" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A111" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D111" s="4">
-        <v>2022</v>
-      </c>
-      <c r="E111" s="4">
-        <v>0.15521278721895346</v>
-      </c>
-      <c r="F111" s="4">
-        <v>1</v>
-      </c>
-      <c r="G111" s="4">
-        <v>1138.5</v>
-      </c>
-      <c r="H111" s="4">
-        <v>18.150000000000002</v>
-      </c>
-      <c r="I111" s="4">
-        <v>0</v>
-      </c>
-      <c r="J111" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A112" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D112" s="3">
-        <v>2022</v>
-      </c>
-      <c r="E112" s="3">
-        <v>0.1586174511333161</v>
-      </c>
-      <c r="F112" s="3">
-        <v>1</v>
-      </c>
-      <c r="G112" s="3">
-        <v>1138.5</v>
-      </c>
-      <c r="H112" s="3">
-        <v>18.150000000000002</v>
-      </c>
-      <c r="I112" s="3">
-        <v>0</v>
-      </c>
-      <c r="J112" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A113" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D113" s="4">
-        <v>2022</v>
-      </c>
-      <c r="E113" s="4">
-        <v>0.20091315882928704</v>
-      </c>
-      <c r="F113" s="4">
-        <v>1</v>
-      </c>
-      <c r="G113" s="4">
-        <v>1138.5</v>
-      </c>
-      <c r="H113" s="4">
-        <v>18.150000000000002</v>
-      </c>
-      <c r="I113" s="4">
-        <v>0</v>
-      </c>
-      <c r="J113" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A114" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D114" s="3">
-        <v>2022</v>
-      </c>
-      <c r="E114" s="3">
-        <v>0.19328994063107527</v>
-      </c>
-      <c r="F114" s="3">
-        <v>1</v>
-      </c>
-      <c r="G114" s="3">
-        <v>1138.5</v>
-      </c>
-      <c r="H114" s="3">
-        <v>18.150000000000002</v>
-      </c>
-      <c r="I114" s="3">
-        <v>0</v>
-      </c>
-      <c r="J114" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A115" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D115" s="4">
-        <v>2022</v>
-      </c>
-      <c r="E115" s="4">
-        <v>0.21731537653220406</v>
-      </c>
-      <c r="F115" s="4">
-        <v>1</v>
-      </c>
-      <c r="G115" s="4">
-        <v>1138.5</v>
-      </c>
-      <c r="H115" s="4">
-        <v>18.150000000000002</v>
-      </c>
-      <c r="I115" s="4">
-        <v>0</v>
-      </c>
-      <c r="J115" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A116" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D116" s="3">
-        <v>2022</v>
-      </c>
-      <c r="E116" s="3">
-        <v>0.16152827258311295</v>
-      </c>
-      <c r="F116" s="3">
-        <v>1</v>
-      </c>
-      <c r="G116" s="3">
-        <v>1138.5</v>
-      </c>
-      <c r="H116" s="3">
-        <v>18.150000000000002</v>
-      </c>
-      <c r="I116" s="3">
-        <v>0</v>
-      </c>
-      <c r="J116" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A117" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D117" s="4">
-        <v>2022</v>
-      </c>
-      <c r="E117" s="4">
-        <v>0.15338177131187081</v>
-      </c>
-      <c r="F117" s="4">
-        <v>1</v>
-      </c>
-      <c r="G117" s="4">
-        <v>1138.5</v>
-      </c>
-      <c r="H117" s="4">
-        <v>18.150000000000002</v>
-      </c>
-      <c r="I117" s="4">
-        <v>0</v>
-      </c>
-      <c r="J117" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A118" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D118" s="3">
-        <v>2022</v>
-      </c>
-      <c r="E118" s="3">
-        <v>0.16637932510042519</v>
-      </c>
-      <c r="F118" s="3">
-        <v>1</v>
-      </c>
-      <c r="G118" s="3">
-        <v>1138.5</v>
-      </c>
-      <c r="H118" s="3">
-        <v>18.150000000000002</v>
-      </c>
-      <c r="I118" s="3">
-        <v>0</v>
-      </c>
-      <c r="J118" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A119" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D119" s="4">
-        <v>2022</v>
-      </c>
-      <c r="E119" s="4">
-        <v>0.17082200788742341</v>
-      </c>
-      <c r="F119" s="4">
-        <v>1</v>
-      </c>
-      <c r="G119" s="4">
-        <v>1138.5</v>
-      </c>
-      <c r="H119" s="4">
-        <v>18.150000000000002</v>
-      </c>
-      <c r="I119" s="4">
-        <v>0</v>
-      </c>
-      <c r="J119" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A120" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D120" s="3">
-        <v>2022</v>
-      </c>
-      <c r="E120" s="3">
-        <v>0.211523174241075</v>
-      </c>
-      <c r="F120" s="3">
-        <v>1</v>
-      </c>
-      <c r="G120" s="3">
-        <v>1138.5</v>
-      </c>
-      <c r="H120" s="3">
-        <v>18.150000000000002</v>
-      </c>
-      <c r="I120" s="3">
-        <v>0</v>
-      </c>
-      <c r="J120" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A121" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D121" s="4">
-        <v>2022</v>
-      </c>
-      <c r="E121" s="4">
-        <v>0.1930981018275324</v>
-      </c>
-      <c r="F121" s="4">
-        <v>1</v>
-      </c>
-      <c r="G121" s="4">
-        <v>1138.5</v>
-      </c>
-      <c r="H121" s="4">
-        <v>18.150000000000002</v>
-      </c>
-      <c r="I121" s="4">
-        <v>0</v>
-      </c>
-      <c r="J121" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A122" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D122" s="3">
-        <v>2022</v>
-      </c>
-      <c r="E122" s="3">
-        <v>0.19782569372870323</v>
-      </c>
-      <c r="F122" s="3">
-        <v>1</v>
-      </c>
-      <c r="G122" s="3">
-        <v>1138.5</v>
-      </c>
-      <c r="H122" s="3">
-        <v>18.150000000000002</v>
-      </c>
-      <c r="I122" s="3">
-        <v>0</v>
-      </c>
-      <c r="J122" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A123" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D123" s="4">
-        <v>2022</v>
-      </c>
-      <c r="E123" s="4">
-        <v>0.21077006448261207</v>
-      </c>
-      <c r="F123" s="4">
-        <v>1</v>
-      </c>
-      <c r="G123" s="4">
-        <v>1138.5</v>
-      </c>
-      <c r="H123" s="4">
-        <v>18.150000000000002</v>
-      </c>
-      <c r="I123" s="4">
-        <v>0</v>
-      </c>
-      <c r="J123" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A124" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D124" s="3">
-        <v>2010</v>
-      </c>
-      <c r="E124" s="3">
-        <v>1.6E-2</v>
-      </c>
-      <c r="F124" s="3">
-        <v>1</v>
-      </c>
-      <c r="G124" s="3">
-        <v>2376</v>
-      </c>
-      <c r="H124" s="3">
-        <v>57.2</v>
-      </c>
-      <c r="I124" s="3">
-        <v>2.52</v>
-      </c>
-      <c r="J124" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A125" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D125" s="4">
-        <v>2015</v>
-      </c>
-      <c r="E125" s="4">
-        <v>1.2E-2</v>
-      </c>
-      <c r="F125" s="4">
-        <v>1</v>
-      </c>
-      <c r="G125" s="4">
-        <v>2376</v>
-      </c>
-      <c r="H125" s="4">
-        <v>57.20000000000001</v>
-      </c>
-      <c r="I125" s="4">
-        <v>2.52</v>
-      </c>
-      <c r="J125" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A126" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D126" s="3">
-        <v>2016</v>
-      </c>
-      <c r="E126" s="3">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="F126" s="3">
-        <v>1</v>
-      </c>
-      <c r="G126" s="3">
-        <v>2376</v>
-      </c>
-      <c r="H126" s="3">
-        <v>57.2</v>
-      </c>
-      <c r="I126" s="3">
-        <v>2.52</v>
-      </c>
-      <c r="J126" s="3">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A127" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D127" s="4">
-        <v>2022</v>
-      </c>
-      <c r="E127" s="4">
-        <v>4.7E-2</v>
-      </c>
-      <c r="F127" s="4">
-        <v>1</v>
-      </c>
-      <c r="G127" s="4">
-        <v>2376</v>
-      </c>
-      <c r="H127" s="4">
-        <v>57.199999999999996</v>
-      </c>
-      <c r="I127" s="4">
-        <v>2.52</v>
-      </c>
-      <c r="J127" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A128" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D128" s="3">
-        <v>2023</v>
-      </c>
-      <c r="E128" s="3">
-        <v>1.4E-2</v>
-      </c>
-      <c r="F128" s="3">
-        <v>1</v>
-      </c>
-      <c r="G128" s="3">
-        <v>2376</v>
-      </c>
-      <c r="H128" s="3">
-        <v>57.2</v>
-      </c>
-      <c r="I128" s="3">
-        <v>2.52</v>
-      </c>
-      <c r="J128" s="3">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECBF5792-C754-41C5-B01B-21648C6FEC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9203B08-76EF-42AD-A211-BF0A8B30AB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{94B0A0E2-1A0A-41B1-B20C-A22D00CC9F78}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{01EAC9DD-E7AE-4C75-B1D8-003C16BA1B70}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -270,7 +270,7 @@
     <t>solar</t>
   </si>
   <si>
-    <t>elc_sol-CHE</t>
+    <t>elc_spv-CHE</t>
   </si>
   <si>
     <t>ep_solar_pv_CHE</t>
@@ -679,7 +679,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49F4C154-2F30-72E5-9082-D54264025E3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC8C3047-6B59-B690-AE55-1D560ADF3CA3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -734,7 +734,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C11E3CF-D9ED-BA82-8392-E0755EA00BDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B5DBD47-1C98-EAD9-A292-0F32772CCE11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1085,7 +1085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABEB790-4E7C-45EB-8FB5-B0C0E9631386}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E123FDE8-5711-4066-8165-7D80606AF1D8}">
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1405,7 +1405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C6C18F-1A3E-4B90-A4FE-5A72C04A9C0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0AEF1ED-E5B8-4EBA-8D7C-7F354A3665F1}">
   <dimension ref="A1:T104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9203B08-76EF-42AD-A211-BF0A8B30AB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA5EDF75-0E79-4301-906D-25679C309C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{01EAC9DD-E7AE-4C75-B1D8-003C16BA1B70}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{EEB24C4E-C0DB-41E8-9F11-EEAFAAAE1858}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -679,7 +679,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC8C3047-6B59-B690-AE55-1D560ADF3CA3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0403245A-FC0B-DA97-EF11-C1BE24472141}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -734,7 +734,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B5DBD47-1C98-EAD9-A292-0F32772CCE11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FEA1312-1449-E8C1-94A9-B8C4F3B8C9EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1085,7 +1085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E123FDE8-5711-4066-8165-7D80606AF1D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D94EE9-3AF9-4076-8D6F-D72F209F66EE}">
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1405,7 +1405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0AEF1ED-E5B8-4EBA-8D7C-7F354A3665F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF45E91-0BFC-4370-9849-48B8EEAD1E9A}">
   <dimension ref="A1:T104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA5EDF75-0E79-4301-906D-25679C309C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC0E574C-2108-48B6-8922-B21842FD5414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{EEB24C4E-C0DB-41E8-9F11-EEAFAAAE1858}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{F992E557-3E2B-4751-A7B5-27779DA7827B}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -282,7 +282,7 @@
     <t>wind</t>
   </si>
   <si>
-    <t>elc_win-CHE</t>
+    <t>elc_won-CHE</t>
   </si>
   <si>
     <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
@@ -679,7 +679,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0403245A-FC0B-DA97-EF11-C1BE24472141}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{729C60C5-8565-D198-E32C-6E3FE74F5020}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -734,7 +734,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FEA1312-1449-E8C1-94A9-B8C4F3B8C9EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84F8A080-70C3-FE6D-A552-743F42F1307F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1085,7 +1085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D94EE9-3AF9-4076-8D6F-D72F209F66EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6817645-883D-4DA5-961A-831D55664AB7}">
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1405,7 +1405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF45E91-0BFC-4370-9849-48B8EEAD1E9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253F2392-ADE1-489B-A5BB-ED06836EDB23}">
   <dimension ref="A1:T104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC0E574C-2108-48B6-8922-B21842FD5414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE53E256-E326-4631-83E8-0E6FB73B338B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{F992E557-3E2B-4751-A7B5-27779DA7827B}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="21600" windowHeight="12683" xr2:uid="{0B3DE6B4-ADD3-4157-977F-720BDD09608D}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -679,7 +679,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{729C60C5-8565-D198-E32C-6E3FE74F5020}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71F0E723-E784-2CD5-6804-2EA917F1D86A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -734,7 +734,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84F8A080-70C3-FE6D-A552-743F42F1307F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E49DFD-55DD-3387-6633-0AA64D222F5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1085,7 +1085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6817645-883D-4DA5-961A-831D55664AB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB61375-713A-4060-B8BD-B9570B071ED2}">
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1405,7 +1405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253F2392-ADE1-489B-A5BB-ED06836EDB23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5DDB8A-B608-4A8C-B6F6-75DB723EA998}">
   <dimension ref="A1:T104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE53E256-E326-4631-83E8-0E6FB73B338B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7A03875-226A-4C0F-BC27-ECFB7C924E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="21600" windowHeight="12683" xr2:uid="{0B3DE6B4-ADD3-4157-977F-720BDD09608D}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="12682" xr2:uid="{8587555C-9FCC-480F-B67A-D52B8CC074CF}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -679,7 +679,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71F0E723-E784-2CD5-6804-2EA917F1D86A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80D1BEA5-D4AD-392F-F5CA-2C7010D17791}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -734,7 +734,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E49DFD-55DD-3387-6633-0AA64D222F5F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9019E9BD-932E-8FBD-7AE9-2B728D0DB9F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1085,7 +1085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB61375-713A-4060-B8BD-B9570B071ED2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{966437DD-B442-435B-BCD3-534CBDAA3884}">
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1405,7 +1405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5DDB8A-B608-4A8C-B6F6-75DB723EA998}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE2A866-1720-409A-BD06-CA298357C2C4}">
   <dimension ref="A1:T104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7A03875-226A-4C0F-BC27-ECFB7C924E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12E0856E-92CA-48CA-B8FD-F0EA0A9DAF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="12682" xr2:uid="{8587555C-9FCC-480F-B67A-D52B8CC074CF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{FED384CA-9AA5-4C25-9829-B61165BF5373}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -679,7 +679,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80D1BEA5-D4AD-392F-F5CA-2C7010D17791}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DA5DBFC-A4BB-D7A8-122A-FBA2E5840A67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -734,7 +734,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9019E9BD-932E-8FBD-7AE9-2B728D0DB9F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{013772C8-575B-9AAA-6D4A-57DBC9AE4864}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1085,7 +1085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{966437DD-B442-435B-BCD3-534CBDAA3884}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5196A83F-DA84-4D21-ACD2-566228E0CED4}">
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1405,7 +1405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE2A866-1720-409A-BD06-CA298357C2C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED25016-2AC8-405D-A90C-65790E6F1EE3}">
   <dimension ref="A1:T104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12E0856E-92CA-48CA-B8FD-F0EA0A9DAF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4AFF332-B760-4AD5-A6E8-68CDC9AF24DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{FED384CA-9AA5-4C25-9829-B61165BF5373}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{6AE821C4-7C74-47A4-9C30-AC1099297BD8}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -679,7 +679,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DA5DBFC-A4BB-D7A8-122A-FBA2E5840A67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77E22760-1F57-6E25-F7C4-E63A5CDCD873}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -734,7 +734,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{013772C8-575B-9AAA-6D4A-57DBC9AE4864}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3546AB8-4732-964A-8201-514DBAF7BB3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1085,7 +1085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5196A83F-DA84-4D21-ACD2-566228E0CED4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9F3EC5-EF10-46D7-BA13-B72D7207A0BF}">
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1405,7 +1405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED25016-2AC8-405D-A90C-65790E6F1EE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0714900B-3966-4F4C-80D0-1F3BA7A1B9EB}">
   <dimension ref="A1:T104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4AFF332-B760-4AD5-A6E8-68CDC9AF24DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{032C5302-4A0A-45AA-86DB-B25FEACC54BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{6AE821C4-7C74-47A4-9C30-AC1099297BD8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{8F027A74-6D12-4C09-8FF9-4BF4F5DA20B4}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -679,7 +679,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77E22760-1F57-6E25-F7C4-E63A5CDCD873}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{957B308F-FCBA-8181-62F7-9B16F2E54437}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -734,7 +734,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3546AB8-4732-964A-8201-514DBAF7BB3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E148BD82-5290-384B-8356-806EC089CCC4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1085,7 +1085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9F3EC5-EF10-46D7-BA13-B72D7207A0BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B97EA01-7F6E-43CB-9CFC-DE634BFCC300}">
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1405,7 +1405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0714900B-3966-4F4C-80D0-1F3BA7A1B9EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37081AFE-8B2A-4FCD-B1B5-4CD04850D729}">
   <dimension ref="A1:T104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{154F8E5C-7E52-4B15-B00A-B51CCA5E42F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C06B3A29-FFF4-4186-9D60-82A00E9B8C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{CBA2A900-BD77-4ECB-8ADD-1C0FF19C8713}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{2A6CD002-7D28-48BD-A7FE-C3577E1C4732}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -1250,7 +1250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0BB861-3659-4BA8-B058-591985E308F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C2AB0C-150F-4D90-AC9A-E76E24750E29}">
   <dimension ref="B9:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2503,7 +2503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66AE3E3-BBC4-4297-99A3-FFC840FF4CD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82DE466-EC34-430D-8AA0-1E6BE5D1372F}">
   <dimension ref="B9:T132"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C06B3A29-FFF4-4186-9D60-82A00E9B8C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13FAD12F-58C0-4857-BF20-540C2D225FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{2A6CD002-7D28-48BD-A7FE-C3577E1C4732}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{ACBB335C-3A0B-4A24-889A-F7D23BF0F639}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -1250,7 +1250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C2AB0C-150F-4D90-AC9A-E76E24750E29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9AB7C2-3827-4780-A6DF-E34FA18A1969}">
   <dimension ref="B9:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2503,7 +2503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82DE466-EC34-430D-8AA0-1E6BE5D1372F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1858E322-7380-4507-B4AF-C488D5822180}">
   <dimension ref="B9:T132"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13FAD12F-58C0-4857-BF20-540C2D225FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8441D184-1488-4BB7-95E6-9B56D7F24B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{ACBB335C-3A0B-4A24-889A-F7D23BF0F639}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{AAF12F4E-0DC9-46EB-8DB7-949D8B75B163}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -1250,7 +1250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9AB7C2-3827-4780-A6DF-E34FA18A1969}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F2C0F6-952C-4DDF-A2F8-73A71C0B1585}">
   <dimension ref="B9:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2503,7 +2503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1858E322-7380-4507-B4AF-C488D5822180}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411273D9-0527-43D5-A5B6-92CD1AA1CD06}">
   <dimension ref="B9:T132"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8441D184-1488-4BB7-95E6-9B56D7F24B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0706F493-8C27-4244-8947-40F0E7223AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{AAF12F4E-0DC9-46EB-8DB7-949D8B75B163}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{11BBE643-0ECB-4963-852C-6F5F62A40606}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -1250,7 +1250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F2C0F6-952C-4DDF-A2F8-73A71C0B1585}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2A9E11-37A1-4FBA-A7E2-0B1BB7C3B7AE}">
   <dimension ref="B9:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2503,7 +2503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411273D9-0527-43D5-A5B6-92CD1AA1CD06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4CA9F57-FF68-4CC1-BCE0-218ACBC4AD0F}">
   <dimension ref="B9:T132"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0706F493-8C27-4244-8947-40F0E7223AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96FC613B-639F-4FB3-A9D2-DB8253BCB4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{11BBE643-0ECB-4963-852C-6F5F62A40606}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{60D9B660-A430-4878-BF63-1D544760D7C9}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -1250,7 +1250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2A9E11-37A1-4FBA-A7E2-0B1BB7C3B7AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C22CEFF-7B64-458B-85A3-30912FEA7DC0}">
   <dimension ref="B9:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2503,7 +2503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4CA9F57-FF68-4CC1-BCE0-218ACBC4AD0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782B9C98-D685-4D5C-A433-F69E006D5635}">
   <dimension ref="B9:T132"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8277,7 +8277,7 @@
         <v>33</v>
       </c>
       <c r="L118">
-        <v>0.16852093340614122</v>
+        <v>0.16852093340614119</v>
       </c>
       <c r="N118" t="s">
         <v>139</v>
